--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,36 +470,140 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C2" t="n">
-        <v>11.52</v>
+        <v>13.98963730569948</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>17.76</v>
+        <v>8.393782383419689</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>161</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50.05181347150259</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DIAN4065.ENTRIALGO</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.393782383419689</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LOANA.MBONGO</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>48</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.92227979274611</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MICA0432.RIZKALLAMAR</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>52</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16.16580310880829</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PATR5027.AMEH</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.96</v>
+      <c r="C8" t="n">
+        <v>0.6217616580310881</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SURESH.DHAWAN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>99</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30.77720207253886</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>106</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32.95336787564766</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TUSHAR.BHATIA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.150259067357513</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.55440414507772</v>
       </c>
     </row>
   </sheetData>
@@ -513,7 +617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,53 +645,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ASHA1141.PAGE</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.68</v>
+        <v>0.310880829015544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>7.199999999999999</v>
+        <v>2.797927461139896</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>0.48</v>
+        <v>16.78756476683938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.48</v>
+        <v>2.487046632124352</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PATR5027.AMEH</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.243523316062176</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.326424870466321</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.243523316062176</v>
       </c>
     </row>
   </sheetData>
@@ -601,7 +744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,79 +772,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4</v>
+        <v>10.88082901554404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>61.44</v>
+        <v>4.352331606217616</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>2.4</v>
+        <v>15.5440414507772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>SEPIDEH.AZARIHASHJIN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="C5" t="n">
-        <v>3.36</v>
+        <v>47.56476683937824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>24.48</v>
+        <v>26.73575129533679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>TUSHAR.BHATIA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>6.239999999999999</v>
+        <v>3.730569948186528</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.66321243523316</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,27 +899,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="C2" t="n">
-        <v>15.84</v>
+        <v>52.84974093264248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANJALI.BAKSHI</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="C3" t="n">
-        <v>1.44</v>
+        <v>25.49222797927461</v>
       </c>
     </row>
     <row r="4">
@@ -773,10 +929,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>2.88</v>
+        <v>7.150259067357513</v>
       </c>
     </row>
     <row r="5">
@@ -786,192 +942,257 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="C5" t="n">
-        <v>13.92</v>
+        <v>34.81865284974093</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C6" t="n">
-        <v>25.92</v>
+        <v>27.04663212435233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C7" t="n">
-        <v>39.84</v>
+        <v>28.29015544041451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C8" t="n">
-        <v>23.04</v>
+        <v>22.69430051813471</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>INUK4091.QAVAVAU</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C9" t="n">
-        <v>51.36</v>
+        <v>29.84455958549223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C10" t="n">
-        <v>46.08</v>
+        <v>26.1139896373057</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PATI2298.ATSIANGBE</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>17.28</v>
+        <v>15.5440414507772</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C12" t="n">
-        <v>20.64</v>
+        <v>17.72020725388601</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>1.44</v>
+        <v>11.50259067357513</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RARG046N.YEBOAH</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C14" t="n">
-        <v>35.04</v>
+        <v>32.02072538860104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4</v>
+        <v>23.62694300518135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>OMAR6689.KHAN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>2.4</v>
+        <v>18.96373056994819</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C17" t="n">
-        <v>30.24</v>
+        <v>31.39896373056995</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>45.59999999999999</v>
+        <v>10.25906735751295</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="C19" t="n">
-        <v>1.44</v>
+        <v>26.42487046632124</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TUSHAR.BHATIA</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>99</v>
+      </c>
+      <c r="C20" t="n">
+        <v>30.77720207253886</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>83</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25.80310880829015</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>172</v>
+      </c>
+      <c r="C22" t="n">
+        <v>53.47150259067357</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>112</v>
+      </c>
+      <c r="C23" t="n">
+        <v>34.81865284974093</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>118</v>
+      </c>
+      <c r="C24" t="n">
+        <v>36.68393782383419</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +1206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1017,114 +1238,166 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="C2" t="n">
-        <v>54.23999999999999</v>
+        <v>53.78238341968912</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3" t="n">
-        <v>36.48</v>
+        <v>24.55958549222798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>41.27999999999999</v>
+        <v>10.25906735751295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MARI882N.ABDELKADER</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="C5" t="n">
-        <v>59.52</v>
+        <v>47.87564766839378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>321</v>
       </c>
       <c r="C6" t="n">
-        <v>3.84</v>
+        <v>99.79274611398964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RARG046N.YEBOAH</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>7.68</v>
+        <v>3.10880829015544</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>53.16062176165803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TANI2739.HOSSAINISLA</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C9" t="n">
-        <v>9.6</v>
+        <v>30.15544041450777</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>112</v>
+      </c>
+      <c r="C10" t="n">
+        <v>34.81865284974093</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SURESH.DHAWAN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>199</v>
+      </c>
+      <c r="C11" t="n">
+        <v>61.86528497409326</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>86</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26.73575129533679</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>WESL5337.CADETTE</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>63</v>
-      </c>
-      <c r="C10" t="n">
-        <v>30.24</v>
+      <c r="B13" t="n">
+        <v>107</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33.26424870466321</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>42</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.05699481865285</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1165,27 +1438,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANJALI.BAKSHI</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ASHA1141.PAGE</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1195,7 +1468,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1205,87 +1478,87 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>INUK4091.QAVAVAU</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1295,7 +1568,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
@@ -1305,117 +1578,147 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>124</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PATI2298.ATSIANGBE</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>OMAR6689.KHAN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RARG046N.YEBOAH</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>SEPIDEH.AZARIHASHJIN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TANI2739.HOSSAINISLA</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>TUSHAR.BHATIA</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>121</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>112</v>
+      <c r="B30" t="n">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1469,16 +1772,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-16</v>
+        <v>-27</v>
       </c>
       <c r="C2" t="n">
-        <v>-40</v>
+        <v>-24</v>
       </c>
       <c r="D2" t="n">
-        <v>-396</v>
+        <v>-468</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -1486,16 +1789,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-1</v>
+        <v>-41</v>
       </c>
       <c r="C3" t="n">
-        <v>-137</v>
+        <v>-130</v>
       </c>
       <c r="D3" t="n">
-        <v>-399</v>
+        <v>-788</v>
       </c>
       <c r="E3" t="n">
-        <v>-63</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="4">
@@ -1503,16 +1806,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-16</v>
+        <v>-32</v>
       </c>
       <c r="C4" t="n">
-        <v>-32</v>
+        <v>-168</v>
       </c>
       <c r="D4" t="n">
-        <v>-40</v>
+        <v>-645</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-357</v>
       </c>
     </row>
     <row r="5">
@@ -1520,16 +1823,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-104</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-156</v>
       </c>
     </row>
     <row r="6">
@@ -1539,16 +1842,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33</v>
+        <v>-110</v>
       </c>
       <c r="C6" t="n">
-        <v>-209</v>
+        <v>-365</v>
       </c>
       <c r="D6" t="n">
-        <v>-835</v>
+        <v>-2005</v>
       </c>
       <c r="E6" t="n">
-        <v>-63</v>
+        <v>-595</v>
       </c>
     </row>
   </sheetData>

--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,88 +470,179 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C2" t="n">
-        <v>14.18181818181818</v>
+        <v>26.96035242290749</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>AHME0710.JUBRAN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C3" t="n">
-        <v>1.090909090909091</v>
+        <v>22.20264317180617</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>36.54545454545455</v>
+        <v>1.05726872246696</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="C5" t="n">
-        <v>1.636363636363636</v>
+        <v>37.00440528634361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="C6" t="n">
-        <v>7.636363636363637</v>
+        <v>61.58590308370044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>XUAN754N.LU</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.636363636363636</v>
+        <v>1.585903083700441</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>157</v>
+      </c>
+      <c r="C8" t="n">
+        <v>41.49779735682819</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PATR5027.AMEH</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.3215859030837</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>106</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28.01762114537445</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SURESH.DHAWAN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>172</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45.4625550660793</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.607929515418502</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>XUAN754N.LU</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.229074889867841</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>112</v>
+      </c>
+      <c r="C14" t="n">
+        <v>29.60352422907489</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.181818181818182</v>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.114537444933921</v>
       </c>
     </row>
   </sheetData>
@@ -560,6 +651,107 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>UserID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>RegularPickQuantity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>UPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BOHD0676.KUSHLIAK</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.114537444933921</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DIAN4065.ENTRIALGO</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.215859030837</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAKEDA.OLLIVIERRE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.3215859030837</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PATR5027.AMEH</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.585903083700441</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.3215859030837</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -581,7 +773,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>RegularPickQuantity</t>
+          <t>SinglePickQuantity</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -593,115 +785,53 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>2.181818181818182</v>
+        <v>7.929515418502203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>26.72727272727273</v>
+        <v>7.400881057268723</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>REJWAN.ISLAM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="C4" t="n">
-        <v>1.090909090909091</v>
+        <v>28.28193832599119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="C5" t="n">
-        <v>1.636363636363636</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>UserID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>SinglePickQuantity</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UPH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>REJWAN.ISLAM</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>18</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.818181818181818</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>WESL5337.CADETTE</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>41</v>
-      </c>
-      <c r="C3" t="n">
-        <v>22.36363636363636</v>
+        <v>26.96035242290749</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,274 +873,300 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>5.454545454545455</v>
+        <v>5.814977973568282</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANASTASIIA.MAKHTOUT</t>
+          <t>AHME0710.JUBRAN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>50.72727272727273</v>
+        <v>2.643171806167401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANJALI.BAKSHI</t>
+          <t>ANASTASIIA.MAKHTOUT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="C4" t="n">
-        <v>51.27272727272727</v>
+        <v>52.0704845814978</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>ANJALI.BAKSHI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="C5" t="n">
-        <v>43.09090909090909</v>
+        <v>48.37004405286343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="C6" t="n">
-        <v>19.09090909090909</v>
+        <v>42.02643171806167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>18.54545454545455</v>
+        <v>9.251101321585903</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>35.45454545454545</v>
+        <v>7.929515418502203</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C9" t="n">
-        <v>72</v>
+        <v>31.98237885462555</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>IREN797N.CABRERA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C10" t="n">
-        <v>27.81818181818182</v>
+        <v>31.98237885462555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="C11" t="n">
-        <v>54</v>
+        <v>50.48458149779736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C12" t="n">
-        <v>60.54545454545455</v>
+        <v>26.96035242290749</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PATI2298.ATSIANGBE</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="C13" t="n">
-        <v>13.09090909090909</v>
+        <v>53.65638766519824</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PRINCE.FORSON</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="C14" t="n">
-        <v>26.18181818181818</v>
+        <v>53.92070484581498</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>REJWAN.ISLAM</t>
+          <t>PATI2298.ATSIANGBE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C15" t="n">
-        <v>21.81818181818182</v>
+        <v>14.53744493392071</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C16" t="n">
-        <v>33.27272727272727</v>
+        <v>18.76651982378855</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>REJWAN.ISLAM</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>19.63636363636364</v>
+        <v>12.42290748898678</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C18" t="n">
-        <v>38.18181818181818</v>
+        <v>22.46696035242291</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>33.81818181818182</v>
+        <v>9.515418502202644</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>XUAN754N.LU</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="C20" t="n">
-        <v>32.18181818181818</v>
+        <v>42.55506607929516</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="C21" t="n">
-        <v>20.72727272727273</v>
+        <v>33.03964757709251</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>XUAN754N.LU</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>122</v>
+      </c>
+      <c r="C22" t="n">
+        <v>32.24669603524229</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>38</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10.04405286343612</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>115</v>
-      </c>
-      <c r="C22" t="n">
-        <v>62.72727272727273</v>
+      <c r="B24" t="n">
+        <v>182</v>
+      </c>
+      <c r="C24" t="n">
+        <v>48.1057268722467</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,179 +1212,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C2" t="n">
-        <v>62.72727272727273</v>
+        <v>34.09691629955947</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>AHME0710.JUBRAN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>1.090909090909091</v>
+        <v>26.43171806167401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>14.72727272727273</v>
+        <v>0.5286343612334802</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C5" t="n">
-        <v>32.18181818181818</v>
+        <v>17.44493392070484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C6" t="n">
-        <v>35.45454545454545</v>
+        <v>21.40969162995595</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="C7" t="n">
-        <v>15.27272727272727</v>
+        <v>51.80616740088106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>IREN797N.CABRERA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C8" t="n">
-        <v>60.54545454545455</v>
+        <v>26.96035242290749</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C9" t="n">
-        <v>16.90909090909091</v>
+        <v>21.14537444933921</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="C10" t="n">
-        <v>32.72727272727273</v>
+        <v>41.49779735682819</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="C11" t="n">
-        <v>67.09090909090909</v>
+        <v>40.96916299559471</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>86.72727272727273</v>
+        <v>15.85903083700441</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="C13" t="n">
-        <v>33.27272727272727</v>
+        <v>32.51101321585903</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>XUAN754N.LU</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C14" t="n">
-        <v>32.18181818181818</v>
+        <v>43.34801762114537</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>104</v>
+      </c>
+      <c r="C15" t="n">
+        <v>27.48898678414097</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>XUAN754N.LU</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>59</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15.59471365638767</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>YATI0689.YATIN</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>97</v>
-      </c>
-      <c r="C15" t="n">
-        <v>52.90909090909091</v>
+      <c r="B17" t="n">
+        <v>460</v>
+      </c>
+      <c r="C17" t="n">
+        <v>121.5859030837004</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +1424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,7 +1451,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
@@ -1279,7 +1461,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
@@ -1289,7 +1471,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -1299,7 +1481,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -1309,7 +1491,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7">
@@ -1319,7 +1501,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1329,7 +1511,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -1349,7 +1531,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11">
@@ -1359,7 +1541,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -1369,7 +1551,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>53</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
@@ -1385,87 +1567,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>109</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PATI2298.ATSIANGBE</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PRINCE.FORSON</t>
+          <t>PATI2298.ATSIANGBE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>REJWAN.ISLAM</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>57</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>REJWAN.ISLAM</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1475,41 +1657,71 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>XUAN754N.LU</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>XUAN754N.LU</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>28</v>
+      <c r="B29" t="n">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1597,16 +1809,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="C4" t="n">
-        <v>-3</v>
+        <v>-80</v>
       </c>
       <c r="D4" t="n">
-        <v>-11</v>
+        <v>-652</v>
       </c>
       <c r="E4" t="n">
-        <v>-12</v>
+        <v>-670</v>
       </c>
     </row>
     <row r="5">
@@ -1614,16 +1826,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-131</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-503</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-393</v>
       </c>
     </row>
     <row r="6">
@@ -1633,16 +1845,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58</v>
+        <v>-74</v>
       </c>
       <c r="C6" t="n">
-        <v>-59</v>
+        <v>-267</v>
       </c>
       <c r="D6" t="n">
-        <v>-1356</v>
+        <v>-2500</v>
       </c>
       <c r="E6" t="n">
-        <v>-119</v>
+        <v>-1170</v>
       </c>
     </row>
   </sheetData>

--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -470,153 +470,153 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" t="n">
-        <v>26.96035242290749</v>
+        <v>26.12068965517241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>22.20264317180617</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>AHME0710.JUBRAN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>1.05726872246696</v>
+        <v>6.46551724137931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>DAT0626.LIEN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>37.00440528634361</v>
+        <v>1.551724137931034</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="C6" t="n">
-        <v>61.58590308370044</v>
+        <v>40.08620689655172</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>1.585903083700441</v>
+        <v>38.79310344827586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>EDIT0625.DELACRUZ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>41.49779735682819</v>
+        <v>2.586206896551724</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>EDIT0934.TUPINO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1.3215859030837</v>
+        <v>2.068965517241379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>KHINEHAYMAR.THAUNG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>28.01762114537445</v>
+        <v>1.293103448275862</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>172</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>45.4625550660793</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="C12" t="n">
-        <v>6.607929515418502</v>
+        <v>25.08620689655172</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>XUAN754N.LU</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>4.229074889867841</v>
+        <v>12.93103448275862</v>
       </c>
     </row>
     <row r="14">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C14" t="n">
-        <v>29.60352422907489</v>
+        <v>24.56896551724138</v>
       </c>
     </row>
     <row r="15">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2.114537444933921</v>
+        <v>1.551724137931034</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,66 +684,118 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>2.114537444933921</v>
+        <v>4.913793103448276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>13.215859030837</v>
+        <v>0.7758620689655172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>EDGAR.JIMENEZ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.3215859030837</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.585903083700441</v>
+        <v>0.2586206896551724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>JEEW9554.SITUMUDALIG</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.431034482758621</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MAKEDA.OLLIVIERRE</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.810344827586207</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.75862068965517</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.103448275862069</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.3215859030837</v>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5172413793103449</v>
       </c>
     </row>
   </sheetData>
@@ -752,429 +804,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>UserID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>SinglePickQuantity</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UPH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>JEEW9554.SITUMUDALIG</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>30</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7.929515418502203</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MICA0432.RIZKALLAMAR</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>28</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.400881057268723</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>REJWAN.ISLAM</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>107</v>
-      </c>
-      <c r="C4" t="n">
-        <v>28.28193832599119</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>WESL5337.CADETTE</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>102</v>
-      </c>
-      <c r="C5" t="n">
-        <v>26.96035242290749</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>UserID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ReplenishmentPickQuantity</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UPH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>22</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.814977973568282</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AHME0710.JUBRAN</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.643171806167401</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ANASTASIIA.MAKHTOUT</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>197</v>
-      </c>
-      <c r="C4" t="n">
-        <v>52.0704845814978</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ANJALI.BAKSHI</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>183</v>
-      </c>
-      <c r="C5" t="n">
-        <v>48.37004405286343</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BUDD0680.TENNAKOON</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>159</v>
-      </c>
-      <c r="C6" t="n">
-        <v>42.02643171806167</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DEVI789.SINGH</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>35</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.251101321585903</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>DIAN4065.ENTRIALGO</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>30</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.929515418502203</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>GIGNESH.PATEL</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>121</v>
-      </c>
-      <c r="C9" t="n">
-        <v>31.98237885462555</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>IREN797N.CABRERA</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>121</v>
-      </c>
-      <c r="C10" t="n">
-        <v>31.98237885462555</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>JEEW9554.SITUMUDALIG</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>191</v>
-      </c>
-      <c r="C11" t="n">
-        <v>50.48458149779736</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>KADE3054.ZONGO</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>102</v>
-      </c>
-      <c r="C12" t="n">
-        <v>26.96035242290749</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>203</v>
-      </c>
-      <c r="C13" t="n">
-        <v>53.65638766519824</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MICA0432.RIZKALLAMAR</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>204</v>
-      </c>
-      <c r="C14" t="n">
-        <v>53.92070484581498</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PATI2298.ATSIANGBE</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>55</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14.53744493392071</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PRINCE.FORSON</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>71</v>
-      </c>
-      <c r="C16" t="n">
-        <v>18.76651982378855</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>REJWAN.ISLAM</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>47</v>
-      </c>
-      <c r="C17" t="n">
-        <v>12.42290748898678</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>STAN9294.BAUER</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>85</v>
-      </c>
-      <c r="C18" t="n">
-        <v>22.46696035242291</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SURESH.DHAWAN</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>36</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9.515418502202644</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>THIE6554.DIALLO</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>161</v>
-      </c>
-      <c r="C20" t="n">
-        <v>42.55506607929516</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>WESL5337.CADETTE</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>125</v>
-      </c>
-      <c r="C21" t="n">
-        <v>33.03964757709251</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>XUAN754N.LU</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>122</v>
-      </c>
-      <c r="C22" t="n">
-        <v>32.24669603524229</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>38</v>
-      </c>
-      <c r="C23" t="n">
-        <v>10.04405286343612</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>182</v>
-      </c>
-      <c r="C24" t="n">
-        <v>48.1057268722467</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1196,7 +825,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>QuickMoveQuantity</t>
+          <t>SinglePickQuantity</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -1208,105 +837,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>AHMAD.ALMOHAMMED</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>34.09691629955947</v>
+        <v>2.586206896551724</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>26.43171806167401</v>
+        <v>4.655172413793103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5286343612334802</v>
+        <v>13.18965517241379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>FAEZ.MORADZADEH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>17.44493392070484</v>
+        <v>9.827586206896552</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C6" t="n">
-        <v>21.40969162995595</v>
+        <v>30.51724137931035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>HARDEEP.CHAUHAN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>51.80616740088106</v>
+        <v>6.724137931034483</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>26.96035242290749</v>
+        <v>9.827586206896552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>21.14537444933921</v>
+        <v>1.03448275862069</v>
       </c>
     </row>
     <row r="10">
@@ -1316,10 +945,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>41.49779735682819</v>
+        <v>8.793103448275861</v>
       </c>
     </row>
     <row r="11">
@@ -1329,88 +958,641 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="C11" t="n">
-        <v>40.96916299559471</v>
+        <v>11.63793103448276</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>SRISHTI.SRISHTI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C12" t="n">
-        <v>15.85903083700441</v>
+        <v>11.89655172413793</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>VICENTE.LIM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>32.51101321585903</v>
+        <v>3.620689655172414</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="C14" t="n">
-        <v>43.34801762114537</v>
+        <v>18.87931034482759</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C15" t="n">
-        <v>27.48898678414097</v>
+        <v>13.44827586206897</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>XUAN754N.LU</t>
+          <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>15.59471365638767</v>
+        <v>1.03448275862069</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>ZEINAB.MALEKMOHAMMADI</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>27</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.982758620689655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>UserID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ReplenishmentPickQuantity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>UPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ADOL798N.SEEMANNVAZQ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.46551724137931</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BOHD0676.KUSHLIAK</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.362068965517242</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BUDD0680.TENNAKOON</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>69</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17.8448275862069</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DAT0626.LIEN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.03448275862069</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DEVI789.SINGH</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.068965517241379</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DIAN4065.ENTRIALGO</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>35</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.051724137931034</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EDIT0625.DELACRUZ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5172413793103449</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EDIT0934.TUPINO</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.103448275862069</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GIGNESH.PATEL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.103448275862069</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>IREN797N.CABRERA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>172</v>
+      </c>
+      <c r="C11" t="n">
+        <v>44.48275862068966</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>JEEW9554.SITUMUDALIG</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>106</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27.41379310344827</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>61</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15.77586206896552</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LOANA.MBONGO</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>124</v>
+      </c>
+      <c r="C14" t="n">
+        <v>32.06896551724138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LOWRHY-OTIENO.JAOKO</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>114</v>
+      </c>
+      <c r="C15" t="n">
+        <v>29.48275862068965</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MEHD4790.FOURATI</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>258</v>
+      </c>
+      <c r="C16" t="n">
+        <v>66.72413793103448</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MICA0432.RIZKALLAMAR</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23.01724137931035</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.103448275862069</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PATR5027.AMEH</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>42</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10.86206896551724</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>53</v>
+      </c>
+      <c r="C20" t="n">
+        <v>13.70689655172414</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TARANPREET.KAUR</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>79</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20.43103448275862</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>64</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16.55172413793104</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>83</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21.46551724137931</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>94</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.31034482758621</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>YATI0689.YATIN</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>460</v>
-      </c>
-      <c r="C17" t="n">
-        <v>121.5859030837004</v>
+      <c r="B25" t="n">
+        <v>25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.46551724137931</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>74</v>
+      </c>
+      <c r="C26" t="n">
+        <v>19.13793103448276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>UserID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>QuickMoveQuantity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>UPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ADOL798N.SEEMANNVAZQ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>120</v>
+      </c>
+      <c r="C2" t="n">
+        <v>31.03448275862069</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BOHD0676.KUSHLIAK</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>64</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16.55172413793104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DEVI789.SINGH</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.86206896551724</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DIAN4065.ENTRIALGO</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>189</v>
+      </c>
+      <c r="C5" t="n">
+        <v>48.87931034482759</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ESSE0616.UDEH</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>29</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MICA0432.RIZKALLAMAR</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>184</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47.58620689655172</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>178</v>
+      </c>
+      <c r="C8" t="n">
+        <v>46.03448275862069</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SRISHTI.SRISHTI</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.017241379310345</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>27</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.982758620689655</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>165</v>
+      </c>
+      <c r="C11" t="n">
+        <v>42.67241379310344</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>26</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.724137931034483</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>170</v>
+      </c>
+      <c r="C13" t="n">
+        <v>43.96551724137931</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1451,37 +1633,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANASTASIIA.MAKHTOUT</t>
+          <t>AHMAD.ALMOHAMMED</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ANJALI.BAKSHI</t>
+          <t>AHME0710.JUBRAN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6">
@@ -1491,7 +1673,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
@@ -1501,227 +1683,327 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>DAT0626.LIEN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>EDGAR.JIMENEZ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>146</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>EDIT0625.DELACRUZ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>EDIT0934.TUPINO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>FAEZ.MORADZADEH</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>124</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>HARDEEP.CHAUHAN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>124</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PATI2298.ATSIANGBE</t>
+          <t>IREN797N.CABRERA</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>195</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PRINCE.FORSON</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>131</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>REJWAN.ISLAM</t>
+          <t>KHINEHAYMAR.THAUNG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>116</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>MEHD4790.FOURATI</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>XUAN754N.LU</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>SRISHTI.SRISHTI</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TARANPREET.KAUR</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>VICENTE.LIM</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>44</v>
+      <c r="B38" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ZEINAB.MALEKMOHAMMADI</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1775,13 +2057,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-26</v>
+        <v>-3</v>
       </c>
       <c r="C2" t="n">
-        <v>-32</v>
+        <v>-87</v>
       </c>
       <c r="D2" t="n">
-        <v>-594</v>
+        <v>-359</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -1792,16 +2074,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-32</v>
+        <v>-46</v>
       </c>
       <c r="C3" t="n">
-        <v>-24</v>
+        <v>-248</v>
       </c>
       <c r="D3" t="n">
-        <v>-751</v>
+        <v>-461</v>
       </c>
       <c r="E3" t="n">
-        <v>-106</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="4">
@@ -1809,16 +2091,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-12</v>
+        <v>-92</v>
       </c>
       <c r="C4" t="n">
-        <v>-80</v>
+        <v>-170</v>
       </c>
       <c r="D4" t="n">
-        <v>-652</v>
+        <v>-399</v>
       </c>
       <c r="E4" t="n">
-        <v>-670</v>
+        <v>-143</v>
       </c>
     </row>
     <row r="5">
@@ -1826,16 +2108,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="C5" t="n">
-        <v>-131</v>
+        <v>-93</v>
       </c>
       <c r="D5" t="n">
-        <v>-503</v>
+        <v>-411</v>
       </c>
       <c r="E5" t="n">
-        <v>-393</v>
+        <v>-506</v>
       </c>
     </row>
     <row r="6">
@@ -1845,16 +2127,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74</v>
+        <v>-155</v>
       </c>
       <c r="C6" t="n">
-        <v>-267</v>
+        <v>-598</v>
       </c>
       <c r="D6" t="n">
-        <v>-2500</v>
+        <v>-1630</v>
       </c>
       <c r="E6" t="n">
-        <v>-1170</v>
+        <v>-712</v>
       </c>
     </row>
   </sheetData>

--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,179 +470,140 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C2" t="n">
-        <v>26.12068965517241</v>
+        <v>13.98963730569948</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5172413793103449</v>
+        <v>8.393782383419689</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="C4" t="n">
-        <v>6.46551724137931</v>
+        <v>50.05181347150259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DAT0626.LIEN</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>1.551724137931034</v>
+        <v>8.393782383419689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
-        <v>40.08620689655172</v>
+        <v>14.92227979274611</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="C7" t="n">
-        <v>38.79310344827586</v>
+        <v>16.16580310880829</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EDIT0625.DELACRUZ</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2.586206896551724</v>
+        <v>0.6217616580310881</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EDIT0934.TUPINO</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="C9" t="n">
-        <v>2.068965517241379</v>
+        <v>30.77720207253886</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C10" t="n">
-        <v>1.293103448275862</v>
+        <v>32.95336787564766</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>TUSHAR.BHATIA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5172413793103449</v>
+        <v>7.150259067357513</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>25.08620689655172</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>THIE6554.DIALLO</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>50</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12.93103448275862</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>95</v>
-      </c>
-      <c r="C14" t="n">
-        <v>24.56896551724138</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ZAHIDGUL.MINHAS</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.551724137931034</v>
+        <v>1.55440414507772</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,14 +645,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.913793103448276</v>
+        <v>0.310880829015544</v>
       </c>
     </row>
     <row r="3">
@@ -701,101 +662,75 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7758620689655172</v>
+        <v>2.797927461139896</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EDGAR.JIMENEZ</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5172413793103449</v>
+        <v>16.78756476683938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2586206896551724</v>
+        <v>2.487046632124352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>5.431034482758621</v>
+        <v>1.243523316062176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>1.810344827586207</v>
+        <v>9.326424870466321</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>22.75862068965517</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>THIE6554.DIALLO</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>12</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.103448275862069</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ZAHIDGUL.MINHAS</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5172413793103449</v>
+        <v>1.243523316062176</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,209 +772,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AHMAD.ALMOHAMMED</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>2.586206896551724</v>
+        <v>10.88082901554404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>4.655172413793103</v>
+        <v>4.352331606217616</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>13.18965517241379</v>
+        <v>15.5440414507772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FAEZ.MORADZADEH</t>
+          <t>SEPIDEH.AZARIHASHJIN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="C5" t="n">
-        <v>9.827586206896552</v>
+        <v>47.56476683937824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>30.51724137931035</v>
+        <v>26.73575129533679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HARDEEP.CHAUHAN</t>
+          <t>TUSHAR.BHATIA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>6.724137931034483</v>
+        <v>3.730569948186528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>9.827586206896552</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LOANA.MBONGO</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.03448275862069</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MICA0432.RIZKALLAMAR</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>34</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8.793103448275861</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>NESR2403.ATTALAH</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>45</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11.63793103448276</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SRISHTI.SRISHTI</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>46</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11.89655172413793</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>VICENTE.LIM</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.620689655172414</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>WESL5337.CADETTE</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>73</v>
-      </c>
-      <c r="C14" t="n">
-        <v>18.87931034482759</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>52</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13.44827586206897</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.03448275862069</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ZEINAB.MALEKMOHAMMADI</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>27</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.982758620689655</v>
+        <v>4.66321243523316</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,53 +899,53 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C2" t="n">
-        <v>6.46551724137931</v>
+        <v>52.84974093264248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C3" t="n">
-        <v>3.362068965517242</v>
+        <v>25.49222797927461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>17.8448275862069</v>
+        <v>7.150259067357513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DAT0626.LIEN</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="C5" t="n">
-        <v>1.03448275862069</v>
+        <v>34.81865284974093</v>
       </c>
     </row>
     <row r="6">
@@ -1137,10 +955,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="C6" t="n">
-        <v>2.068965517241379</v>
+        <v>27.04663212435233</v>
       </c>
     </row>
     <row r="7">
@@ -1150,257 +968,231 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C7" t="n">
-        <v>9.051724137931034</v>
+        <v>28.29015544041451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EDIT0625.DELACRUZ</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5172413793103449</v>
+        <v>22.69430051813471</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EDIT0934.TUPINO</t>
+          <t>INUK4091.QAVAVAU</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C9" t="n">
-        <v>3.103448275862069</v>
+        <v>29.84455958549223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C10" t="n">
-        <v>3.103448275862069</v>
+        <v>26.1139896373057</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>44.48275862068966</v>
+        <v>15.5440414507772</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C12" t="n">
-        <v>27.41379310344827</v>
+        <v>17.72020725388601</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>15.77586206896552</v>
+        <v>11.50259067357513</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C14" t="n">
-        <v>32.06896551724138</v>
+        <v>32.02072538860104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C15" t="n">
-        <v>29.48275862068965</v>
+        <v>23.62694300518135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MEHD4790.FOURATI</t>
+          <t>OMAR6689.KHAN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>66.72413793103448</v>
+        <v>18.96373056994819</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C17" t="n">
-        <v>23.01724137931035</v>
+        <v>31.39896373056995</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>3.103448275862069</v>
+        <v>10.25906735751295</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C19" t="n">
-        <v>10.86206896551724</v>
+        <v>26.42487046632124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>TUSHAR.BHATIA</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C20" t="n">
-        <v>13.70689655172414</v>
+        <v>30.77720207253886</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TARANPREET.KAUR</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C21" t="n">
-        <v>20.43103448275862</v>
+        <v>25.80310880829015</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>WILDINE.JEUNE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="C22" t="n">
-        <v>16.55172413793104</v>
+        <v>53.47150259067357</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C23" t="n">
-        <v>21.46551724137931</v>
+        <v>34.81865284974093</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C24" t="n">
-        <v>24.31034482758621</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>25</v>
-      </c>
-      <c r="C25" t="n">
-        <v>6.46551724137931</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>74</v>
-      </c>
-      <c r="C26" t="n">
-        <v>19.13793103448276</v>
+        <v>36.68393782383419</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1446,10 +1238,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C2" t="n">
-        <v>31.03448275862069</v>
+        <v>53.78238341968912</v>
       </c>
     </row>
     <row r="3">
@@ -1459,10 +1251,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C3" t="n">
-        <v>16.55172413793104</v>
+        <v>24.55958549222798</v>
       </c>
     </row>
     <row r="4">
@@ -1472,10 +1264,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>25.86206896551724</v>
+        <v>10.25906735751295</v>
       </c>
     </row>
     <row r="5">
@@ -1485,10 +1277,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C5" t="n">
-        <v>48.87931034482759</v>
+        <v>47.87564766839378</v>
       </c>
     </row>
     <row r="6">
@@ -1498,49 +1290,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>321</v>
       </c>
       <c r="C6" t="n">
-        <v>7.5</v>
+        <v>99.79274611398964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>47.58620689655172</v>
+        <v>3.10880829015544</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C8" t="n">
-        <v>46.03448275862069</v>
+        <v>53.16062176165803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SRISHTI.SRISHTI</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C9" t="n">
-        <v>8.017241379310345</v>
+        <v>30.15544041450777</v>
       </c>
     </row>
     <row r="10">
@@ -1550,49 +1342,62 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="C10" t="n">
-        <v>6.982758620689655</v>
+        <v>34.81865284974093</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="C11" t="n">
-        <v>42.67241379310344</v>
+        <v>61.86528497409326</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C12" t="n">
-        <v>6.724137931034483</v>
+        <v>26.73575129533679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>107</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33.26424870466321</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>YATI0689.YATIN</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>170</v>
-      </c>
-      <c r="C13" t="n">
-        <v>43.96551724137931</v>
+      <c r="B14" t="n">
+        <v>42</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.05699481865285</v>
       </c>
     </row>
   </sheetData>
@@ -1606,7 +1411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1633,7 +1438,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
@@ -1643,367 +1448,277 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AHMAD.ALMOHAMMED</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DAT0626.LIEN</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EDGAR.JIMENEZ</t>
+          <t>INUK4091.QAVAVAU</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>221</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EDIT0625.DELACRUZ</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EDIT0934.TUPINO</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>223</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FAEZ.MORADZADEH</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HARDEEP.CHAUHAN</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>OMAR6689.KHAN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>SEPIDEH.AZARIHASHJIN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>196</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MEHD4790.FOURATI</t>
+          <t>TUSHAR.BHATIA</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>WILDINE.JEUNE</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SRISHTI.SRISHTI</t>
+          <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>97</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>TARANPREET.KAUR</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>THIE6554.DIALLO</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>VICENTE.LIM</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>WESL5337.CADETTE</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>WILDINE.JEUNE</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ZAHIDGUL.MINHAS</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>ZEINAB.MALEKMOHAMMADI</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2057,13 +1772,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-3</v>
+        <v>-27</v>
       </c>
       <c r="C2" t="n">
-        <v>-87</v>
+        <v>-24</v>
       </c>
       <c r="D2" t="n">
-        <v>-359</v>
+        <v>-468</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -2074,16 +1789,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-46</v>
+        <v>-41</v>
       </c>
       <c r="C3" t="n">
-        <v>-248</v>
+        <v>-130</v>
       </c>
       <c r="D3" t="n">
-        <v>-461</v>
+        <v>-788</v>
       </c>
       <c r="E3" t="n">
-        <v>-62</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="4">
@@ -2091,16 +1806,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-92</v>
+        <v>-32</v>
       </c>
       <c r="C4" t="n">
-        <v>-170</v>
+        <v>-168</v>
       </c>
       <c r="D4" t="n">
-        <v>-399</v>
+        <v>-645</v>
       </c>
       <c r="E4" t="n">
-        <v>-143</v>
+        <v>-357</v>
       </c>
     </row>
     <row r="5">
@@ -2108,16 +1823,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="C5" t="n">
-        <v>-93</v>
+        <v>-43</v>
       </c>
       <c r="D5" t="n">
-        <v>-411</v>
+        <v>-104</v>
       </c>
       <c r="E5" t="n">
-        <v>-506</v>
+        <v>-156</v>
       </c>
     </row>
     <row r="6">
@@ -2127,16 +1842,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155</v>
+        <v>-110</v>
       </c>
       <c r="C6" t="n">
-        <v>-598</v>
+        <v>-365</v>
       </c>
       <c r="D6" t="n">
-        <v>-1630</v>
+        <v>-2005</v>
       </c>
       <c r="E6" t="n">
-        <v>-712</v>
+        <v>-595</v>
       </c>
     </row>
   </sheetData>

--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -1411,7 +1411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1564,161 +1564,191 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MARI882N.ABDELKADER</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OMAR6689.KHAN</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>OMAR6689.KHAN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>162</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PRINCE.FORSON</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>63</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SEPIDEH.AZARIHASHJIN</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>RARG046N.YEBOAH</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>SEPIDEH.AZARIHASHJIN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>133</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TUSHAR.BHATIA</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>TUSHAR.BHATIA</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>WILDINE.JEUNE</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>140</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B32" t="n">
         <v>83</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1772,16 +1802,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-27</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>-24</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>-468</v>
+        <v>468</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1789,16 +1819,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-41</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>-130</v>
+        <v>130</v>
       </c>
       <c r="D3" t="n">
-        <v>-788</v>
+        <v>788</v>
       </c>
       <c r="E3" t="n">
-        <v>-81</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -1806,16 +1836,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-32</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>-168</v>
+        <v>168</v>
       </c>
       <c r="D4" t="n">
-        <v>-645</v>
+        <v>645</v>
       </c>
       <c r="E4" t="n">
-        <v>-357</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5">
@@ -1823,16 +1853,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>-43</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>-104</v>
+        <v>104</v>
       </c>
       <c r="E5" t="n">
-        <v>-156</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
@@ -1842,16 +1872,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110</v>
+        <v>110</v>
       </c>
       <c r="C6" t="n">
-        <v>-365</v>
+        <v>365</v>
       </c>
       <c r="D6" t="n">
-        <v>-2005</v>
+        <v>2005</v>
       </c>
       <c r="E6" t="n">
-        <v>-595</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>TotalPutwallPickingMinutes</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>UPH</t>
         </is>
       </c>
@@ -470,140 +475,233 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C2" t="n">
-        <v>13.98963730569948</v>
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>173.1428571428571</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ARJUNBHAI.PATEL</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8.393782383419689</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>AHME0710.JUBRAN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>50.05181347150259</v>
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>DAT0626.LIEN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>8.393782383419689</v>
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="C6" t="n">
-        <v>14.92227979274611</v>
+        <v>71</v>
+      </c>
+      <c r="D6" t="n">
+        <v>130.9859154929578</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>16.16580310880829</v>
+        <v>148</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60.81081081081081</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>EDIT0625.DELACRUZ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6217616580310881</v>
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>EDIT0934.TUPINO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>30.77720207253886</v>
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>KHINEHAYMAR.THAUNG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>32.95336787564766</v>
+        <v>97</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.092783505154639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TUSHAR.BHATIA</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>7.150259067357513</v>
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>97</v>
+      </c>
+      <c r="C12" t="n">
+        <v>71</v>
+      </c>
+      <c r="D12" t="n">
+        <v>81.97183098591549</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" t="n">
+        <v>102</v>
+      </c>
+      <c r="D13" t="n">
+        <v>29.41176470588235</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95</v>
+      </c>
+      <c r="C14" t="n">
+        <v>72</v>
+      </c>
+      <c r="D14" t="n">
+        <v>79.16666666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.55440414507772</v>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Average UPH</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>71.32282866378061</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,14 +743,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ARJUNBHAI.PATEL</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>0.310880829015544</v>
+        <v>4.913793103448276</v>
       </c>
     </row>
     <row r="3">
@@ -662,75 +760,101 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>2.797927461139896</v>
+        <v>0.7758620689655172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>EDGAR.JIMENEZ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>16.78756476683938</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MARI882N.ABDELKADER</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2.487046632124352</v>
+        <v>0.2586206896551724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>1.243523316062176</v>
+        <v>5.431034482758621</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>9.326424870466321</v>
+        <v>1.810344827586207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.75862068965517</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.103448275862069</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.243523316062176</v>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5172413793103449</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,92 +896,209 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>AHMAD.ALMOHAMMED</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>10.88082901554404</v>
+        <v>2.586206896551724</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>4.352331606217616</v>
+        <v>4.655172413793103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>15.5440414507772</v>
+        <v>13.18965517241379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SEPIDEH.AZARIHASHJIN</t>
+          <t>FAEZ.MORADZADEH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>47.56476683937824</v>
+        <v>9.827586206896552</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C6" t="n">
-        <v>26.73575129533679</v>
+        <v>30.51724137931035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TUSHAR.BHATIA</t>
+          <t>HARDEEP.CHAUHAN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>3.730569948186528</v>
+        <v>6.724137931034483</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>38</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.827586206896552</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LOANA.MBONGO</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.03448275862069</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MICA0432.RIZKALLAMAR</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>34</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.793103448275861</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.63793103448276</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SRISHTI.SRISHTI</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>46</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11.89655172413793</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>VICENTE.LIM</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>14</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.620689655172414</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>WESL5337.CADETTE</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.66321243523316</v>
+      <c r="B14" t="n">
+        <v>73</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18.87931034482759</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>52</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13.44827586206897</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.03448275862069</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ZEINAB.MALEKMOHAMMADI</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>27</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.982758620689655</v>
       </c>
     </row>
   </sheetData>
@@ -871,7 +1112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -899,53 +1140,53 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>52.84974093264248</v>
+        <v>6.46551724137931</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ARJUNBHAI.PATEL</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>25.49222797927461</v>
+        <v>3.362068965517242</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>7.150259067357513</v>
+        <v>17.8448275862069</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>DAT0626.LIEN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>34.81865284974093</v>
+        <v>1.03448275862069</v>
       </c>
     </row>
     <row r="6">
@@ -955,10 +1196,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>27.04663212435233</v>
+        <v>2.068965517241379</v>
       </c>
     </row>
     <row r="7">
@@ -968,231 +1209,257 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>28.29015544041451</v>
+        <v>9.051724137931034</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>EDIT0625.DELACRUZ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>22.69430051813471</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INUK4091.QAVAVAU</t>
+          <t>EDIT0934.TUPINO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>29.84455958549223</v>
+        <v>3.103448275862069</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>26.1139896373057</v>
+        <v>3.103448275862069</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>IREN797N.CABRERA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="C11" t="n">
-        <v>15.5440414507772</v>
+        <v>44.48275862068966</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C12" t="n">
-        <v>17.72020725388601</v>
+        <v>27.41379310344827</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MARI882N.ABDELKADER</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C13" t="n">
-        <v>11.50259067357513</v>
+        <v>15.77586206896552</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C14" t="n">
-        <v>32.02072538860104</v>
+        <v>32.06896551724138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C15" t="n">
-        <v>23.62694300518135</v>
+        <v>29.48275862068965</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OMAR6689.KHAN</t>
+          <t>MEHD4790.FOURATI</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61</v>
+        <v>258</v>
       </c>
       <c r="C16" t="n">
-        <v>18.96373056994819</v>
+        <v>66.72413793103448</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PRINCE.FORSON</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C17" t="n">
-        <v>31.39896373056995</v>
+        <v>23.01724137931035</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>10.25906735751295</v>
+        <v>3.103448275862069</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="C19" t="n">
-        <v>26.42487046632124</v>
+        <v>10.86206896551724</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TUSHAR.BHATIA</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>30.77720207253886</v>
+        <v>13.70689655172414</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>TARANPREET.KAUR</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C21" t="n">
-        <v>25.80310880829015</v>
+        <v>20.43103448275862</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="C22" t="n">
-        <v>53.47150259067357</v>
+        <v>16.55172413793104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C23" t="n">
-        <v>34.81865284974093</v>
+        <v>21.46551724137931</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>94</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.31034482758621</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.46551724137931</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>118</v>
-      </c>
-      <c r="C24" t="n">
-        <v>36.68393782383419</v>
+      <c r="B26" t="n">
+        <v>74</v>
+      </c>
+      <c r="C26" t="n">
+        <v>19.13793103448276</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1238,10 +1505,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="C2" t="n">
-        <v>53.78238341968912</v>
+        <v>31.03448275862069</v>
       </c>
     </row>
     <row r="3">
@@ -1251,10 +1518,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C3" t="n">
-        <v>24.55958549222798</v>
+        <v>16.55172413793104</v>
       </c>
     </row>
     <row r="4">
@@ -1264,10 +1531,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>10.25906735751295</v>
+        <v>25.86206896551724</v>
       </c>
     </row>
     <row r="5">
@@ -1277,10 +1544,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="C5" t="n">
-        <v>47.87564766839378</v>
+        <v>48.87931034482759</v>
       </c>
     </row>
     <row r="6">
@@ -1290,49 +1557,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>99.79274611398964</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="C7" t="n">
-        <v>3.10880829015544</v>
+        <v>47.58620689655172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C8" t="n">
-        <v>53.16062176165803</v>
+        <v>46.03448275862069</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>SRISHTI.SRISHTI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>30.15544041450777</v>
+        <v>8.017241379310345</v>
       </c>
     </row>
     <row r="10">
@@ -1342,62 +1609,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>34.81865284974093</v>
+        <v>6.982758620689655</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="C11" t="n">
-        <v>61.86528497409326</v>
+        <v>42.67241379310344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>26.73575129533679</v>
+        <v>6.724137931034483</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="C13" t="n">
-        <v>33.26424870466321</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>42</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13.05699481865285</v>
+        <v>43.96551724137931</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1438,7 +1692,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
@@ -1448,307 +1702,377 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ARJUNBHAI.PATEL</t>
+          <t>AHMAD.ALMOHAMMED</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>AHME0710.JUBRAN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>DAT0626.LIEN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INUK4091.QAVAVAU</t>
+          <t>EDGAR.JIMENEZ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>120</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>EDIT0625.DELACRUZ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>EDIT0934.TUPINO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>FAEZ.MORADZADEH</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>149</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MARI882N.ABDELKADER</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>HARDEEP.CHAUHAN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>IREN797N.CABRERA</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OMAR6689.KHAN</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PRINCE.FORSON</t>
+          <t>KHINEHAYMAR.THAUNG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RARG046N.YEBOAH</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SEPIDEH.AZARIHASHJIN</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>51</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>MEHD4790.FOURATI</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TUSHAR.BHATIA</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>SRISHTI.SRISHTI</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>43</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>TARANPREET.KAUR</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>VICENTE.LIM</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ZEINAB.MALEKMOHAMMADI</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>~</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>34</v>
+      <c r="B40" t="n">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1802,13 +2126,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>468</v>
+        <v>359</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -1819,16 +2143,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="D3" t="n">
-        <v>788</v>
+        <v>461</v>
       </c>
       <c r="E3" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1836,16 +2160,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C4" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D4" t="n">
-        <v>645</v>
+        <v>399</v>
       </c>
       <c r="E4" t="n">
-        <v>357</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
@@ -1853,16 +2177,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D5" t="n">
-        <v>104</v>
+        <v>411</v>
       </c>
       <c r="E5" t="n">
-        <v>156</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6">
@@ -1872,16 +2196,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="C6" t="n">
-        <v>365</v>
+        <v>598</v>
       </c>
       <c r="D6" t="n">
-        <v>2005</v>
+        <v>1630</v>
       </c>
       <c r="E6" t="n">
-        <v>595</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>

--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -33,12 +33,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,8 +59,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -447,22 +454,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>UserID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>PutwallPickingQuantity</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>TotalPutwallPickingMinutes</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>UPH</t>
         </is>
@@ -471,110 +478,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>173.1428571428571</v>
+        <v>178.8461538461538</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>173.1428571428571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>162.8571428571429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DAT0626.LIEN</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>152.5423728813559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>130.9859154929578</v>
+        <v>118.7755102040816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>60.81081081081081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EDIT0625.DELACRUZ</t>
+          <t>AHME0710.JUBRAN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -583,14 +590,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EDIT0934.TUPINO</t>
+          <t>DAT0626.LIEN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -599,30 +606,30 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>EDIT0625.DELACRUZ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>3.092783505154639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>EDIT0934.TUPINO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -631,49 +638,49 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>KHINEHAYMAR.THAUNG</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>81.97183098591549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>29.41176470588235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>79.16666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -686,22 +693,22 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>71.32282866378061</v>
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr"/>
+      <c r="D16" s="1" t="n">
+        <v>157.23</v>
       </c>
     </row>
   </sheetData>

--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,94 +478,94 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>178.8461538461538</v>
+        <v>142.0588235294118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>173.1428571428571</v>
+        <v>100.9523809523809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>162.8571428571429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>152.5423728813559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>118.7755102040816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -574,14 +574,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -590,14 +590,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DAT0626.LIEN</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -606,14 +606,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EDIT0625.DELACRUZ</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -622,14 +622,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EDIT0934.TUPINO</t>
+          <t>TUSHAR.BHATIA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -638,77 +638,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MAKEDA.OLLIVIERRE</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>THIE6554.DIALLO</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>50</v>
-      </c>
-      <c r="C14" t="n">
-        <v>21</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ZAHIDGUL.MINHAS</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="n">
-        <v>157.23</v>
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr"/>
+      <c r="D13" s="1" t="n">
+        <v>121.51</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,14 +702,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.913793103448276</v>
+        <v>0.310880829015544</v>
       </c>
     </row>
     <row r="3">
@@ -767,101 +719,75 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7758620689655172</v>
+        <v>2.797927461139896</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EDGAR.JIMENEZ</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5172413793103449</v>
+        <v>16.78756476683938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2586206896551724</v>
+        <v>2.487046632124352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>5.431034482758621</v>
+        <v>1.243523316062176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>1.810344827586207</v>
+        <v>9.326424870466321</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>22.75862068965517</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>THIE6554.DIALLO</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>12</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.103448275862069</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ZAHIDGUL.MINHAS</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5172413793103449</v>
+        <v>1.243523316062176</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,209 +829,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AHMAD.ALMOHAMMED</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>2.586206896551724</v>
+        <v>10.88082901554404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>4.655172413793103</v>
+        <v>4.352331606217616</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>13.18965517241379</v>
+        <v>15.5440414507772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FAEZ.MORADZADEH</t>
+          <t>SEPIDEH.AZARIHASHJIN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="C5" t="n">
-        <v>9.827586206896552</v>
+        <v>47.56476683937824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>30.51724137931035</v>
+        <v>26.73575129533679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HARDEEP.CHAUHAN</t>
+          <t>TUSHAR.BHATIA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>6.724137931034483</v>
+        <v>3.730569948186528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>9.827586206896552</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LOANA.MBONGO</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.03448275862069</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MICA0432.RIZKALLAMAR</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>34</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8.793103448275861</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>NESR2403.ATTALAH</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>45</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11.63793103448276</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SRISHTI.SRISHTI</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>46</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11.89655172413793</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>VICENTE.LIM</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.620689655172414</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>WESL5337.CADETTE</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>73</v>
-      </c>
-      <c r="C14" t="n">
-        <v>18.87931034482759</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>52</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13.44827586206897</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.03448275862069</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ZEINAB.MALEKMOHAMMADI</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>27</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.982758620689655</v>
+        <v>4.66321243523316</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1128,17 +937,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>UserID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>ReplenishmentPickQuantity</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>UPH</t>
         </is>
@@ -1147,326 +961,381 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C2" t="n">
-        <v>6.46551724137931</v>
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>136.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C3" t="n">
-        <v>3.362068965517242</v>
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>106.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>INUK4091.QAVAVAU</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C4" t="n">
-        <v>17.8448275862069</v>
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>82.29000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DAT0626.LIEN</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C5" t="n">
-        <v>1.03448275862069</v>
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="C6" t="n">
-        <v>2.068965517241379</v>
+        <v>126</v>
+      </c>
+      <c r="D6" t="n">
+        <v>80.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>TUSHAR.BHATIA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="C7" t="n">
-        <v>9.051724137931034</v>
+        <v>76</v>
+      </c>
+      <c r="D7" t="n">
+        <v>78.16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EDIT0625.DELACRUZ</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5172413793103449</v>
+        <v>64</v>
+      </c>
+      <c r="D8" t="n">
+        <v>77.81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EDIT0934.TUPINO</t>
+          <t>WILDINE.JEUNE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="C9" t="n">
-        <v>3.103448275862069</v>
+        <v>139</v>
+      </c>
+      <c r="D9" t="n">
+        <v>74.23999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="C10" t="n">
-        <v>3.103448275862069</v>
+        <v>101</v>
+      </c>
+      <c r="D10" t="n">
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="C11" t="n">
-        <v>44.48275862068966</v>
+        <v>49</v>
+      </c>
+      <c r="D11" t="n">
+        <v>69.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>27.41379310344827</v>
+        <v>30</v>
+      </c>
+      <c r="D12" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="C13" t="n">
-        <v>15.77586206896552</v>
+        <v>102</v>
+      </c>
+      <c r="D13" t="n">
+        <v>65.88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C14" t="n">
-        <v>32.06896551724138</v>
+        <v>95</v>
+      </c>
+      <c r="D14" t="n">
+        <v>65.05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>29.48275862068965</v>
+        <v>35</v>
+      </c>
+      <c r="D15" t="n">
+        <v>63.43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MEHD4790.FOURATI</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>258</v>
+        <v>87</v>
       </c>
       <c r="C16" t="n">
-        <v>66.72413793103448</v>
+        <v>92</v>
+      </c>
+      <c r="D16" t="n">
+        <v>56.74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C17" t="n">
-        <v>23.01724137931035</v>
+        <v>81</v>
+      </c>
+      <c r="D17" t="n">
+        <v>56.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C18" t="n">
-        <v>3.103448275862069</v>
+        <v>113</v>
+      </c>
+      <c r="D18" t="n">
+        <v>53.63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C19" t="n">
-        <v>10.86206896551724</v>
+        <v>93</v>
+      </c>
+      <c r="D19" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C20" t="n">
-        <v>13.70689655172414</v>
+        <v>130</v>
+      </c>
+      <c r="D20" t="n">
+        <v>51.69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TARANPREET.KAUR</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C21" t="n">
-        <v>20.43103448275862</v>
+        <v>143</v>
+      </c>
+      <c r="D21" t="n">
+        <v>35.24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>16.55172413793104</v>
+        <v>86</v>
+      </c>
+      <c r="D22" t="n">
+        <v>34.88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>OMAR6689.KHAN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C23" t="n">
-        <v>21.46551724137931</v>
+        <v>108</v>
+      </c>
+      <c r="D23" t="n">
+        <v>33.89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>24.31034482758621</v>
+        <v>19</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>25</v>
-      </c>
-      <c r="C25" t="n">
-        <v>6.46551724137931</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>74</v>
-      </c>
-      <c r="C26" t="n">
-        <v>19.13793103448276</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Average UPH</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr"/>
+      <c r="C25" s="1" t="inlineStr"/>
+      <c r="D25" s="1" t="n">
+        <v>67.86</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,10 +1381,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C2" t="n">
-        <v>31.03448275862069</v>
+        <v>53.78238341968912</v>
       </c>
     </row>
     <row r="3">
@@ -1525,10 +1394,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C3" t="n">
-        <v>16.55172413793104</v>
+        <v>24.55958549222798</v>
       </c>
     </row>
     <row r="4">
@@ -1538,10 +1407,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>25.86206896551724</v>
+        <v>10.25906735751295</v>
       </c>
     </row>
     <row r="5">
@@ -1551,10 +1420,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C5" t="n">
-        <v>48.87931034482759</v>
+        <v>47.87564766839378</v>
       </c>
     </row>
     <row r="6">
@@ -1564,49 +1433,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>321</v>
       </c>
       <c r="C6" t="n">
-        <v>7.5</v>
+        <v>99.79274611398964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>47.58620689655172</v>
+        <v>3.10880829015544</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C8" t="n">
-        <v>46.03448275862069</v>
+        <v>53.16062176165803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SRISHTI.SRISHTI</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C9" t="n">
-        <v>8.017241379310345</v>
+        <v>30.15544041450777</v>
       </c>
     </row>
     <row r="10">
@@ -1616,49 +1485,62 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="C10" t="n">
-        <v>6.982758620689655</v>
+        <v>34.81865284974093</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="C11" t="n">
-        <v>42.67241379310344</v>
+        <v>61.86528497409326</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C12" t="n">
-        <v>6.724137931034483</v>
+        <v>26.73575129533679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>107</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33.26424870466321</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>YATI0689.YATIN</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>170</v>
-      </c>
-      <c r="C13" t="n">
-        <v>43.96551724137931</v>
+      <c r="B14" t="n">
+        <v>42</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.05699481865285</v>
       </c>
     </row>
   </sheetData>
@@ -1672,7 +1554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1699,7 +1581,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
@@ -1709,377 +1591,307 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AHMAD.ALMOHAMMED</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DAT0626.LIEN</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EDGAR.JIMENEZ</t>
+          <t>INUK4091.QAVAVAU</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>221</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EDIT0625.DELACRUZ</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EDIT0934.TUPINO</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>223</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FAEZ.MORADZADEH</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>MARI882N.ABDELKADER</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HARDEEP.CHAUHAN</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>OMAR6689.KHAN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>182</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>RARG046N.YEBOAH</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>SEPIDEH.AZARIHASHJIN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MEHD4790.FOURATI</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>45</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>TUSHAR.BHATIA</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SRISHTI.SRISHTI</t>
+          <t>WILDINE.JEUNE</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>97</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TARANPREET.KAUR</t>
+          <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>VICENTE.LIM</t>
+          <t>~</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>WESL5337.CADETTE</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>WILDINE.JEUNE</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ZAHIDGUL.MINHAS</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>ZEINAB.MALEKMOHAMMADI</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>192</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2133,13 +1945,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>359</v>
+        <v>468</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -2150,16 +1962,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="D3" t="n">
-        <v>461</v>
+        <v>788</v>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -2167,16 +1979,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" t="n">
-        <v>399</v>
+        <v>645</v>
       </c>
       <c r="E4" t="n">
-        <v>143</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5">
@@ -2184,16 +1996,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>411</v>
+        <v>104</v>
       </c>
       <c r="E5" t="n">
-        <v>506</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
@@ -2203,16 +2015,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="C6" t="n">
-        <v>598</v>
+        <v>365</v>
       </c>
       <c r="D6" t="n">
-        <v>1630</v>
+        <v>2005</v>
       </c>
       <c r="E6" t="n">
-        <v>712</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,189 +478,733 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>ARSHPREET.KAUR14726</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>142.0588235294118</v>
+        <v>95.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>GURJOT.SINGH14583</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="D3" t="n">
-        <v>100.9523809523809</v>
+        <v>91.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ARJUNBHAI.PATEL</t>
+          <t>ALI.HEIDARI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>83.54000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>DARKO-MENSAHJNR.KWAKU</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>81.59999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>ARYAN.MORADALIBEYKILANGER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>75.31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>ELHADJ.BAH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>75.29000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>ABAKAR.CHOUKOU</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>73.84999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>73.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TUSHAR.BHATIA</t>
+          <t>RINTHIYA.KANDASAMY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>70.48999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>HARINDERPAL.SINGH14820</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>77</v>
+      </c>
+      <c r="C12" t="n">
+        <v>66</v>
+      </c>
+      <c r="D12" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ABASS.TOUNKARA</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>167</v>
+      </c>
+      <c r="C13" t="n">
+        <v>146</v>
+      </c>
+      <c r="D13" t="n">
+        <v>68.63</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BRIA2870.MCLEISH</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>82</v>
+      </c>
+      <c r="C14" t="n">
+        <v>72</v>
+      </c>
+      <c r="D14" t="n">
+        <v>68.33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ASHIMA.ARORA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>147</v>
+      </c>
+      <c r="C15" t="n">
+        <v>140</v>
+      </c>
+      <c r="D15" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AHMED.ALHADAR</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>73</v>
+      </c>
+      <c r="C16" t="n">
+        <v>70</v>
+      </c>
+      <c r="D16" t="n">
+        <v>62.57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MOUNIRALI.MAHAMATADNAN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>102</v>
+      </c>
+      <c r="C17" t="n">
+        <v>99</v>
+      </c>
+      <c r="D17" t="n">
+        <v>61.82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SIMRANDEEP.KAUR14873</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>37</v>
+      </c>
+      <c r="D18" t="n">
+        <v>61.62</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>122</v>
+      </c>
+      <c r="C19" t="n">
+        <v>119</v>
+      </c>
+      <c r="D19" t="n">
+        <v>61.51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AYMAN.KHALIL</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>148</v>
+      </c>
+      <c r="C20" t="n">
+        <v>148</v>
+      </c>
+      <c r="D20" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AMRITPALSINGH.PUREWAL</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>111</v>
+      </c>
+      <c r="C21" t="n">
+        <v>115</v>
+      </c>
+      <c r="D21" t="n">
+        <v>57.91</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ALEXANDER.NOISETTE</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>127</v>
+      </c>
+      <c r="C22" t="n">
+        <v>151</v>
+      </c>
+      <c r="D22" t="n">
+        <v>50.46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>IDRIS.JEMAL</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>48</v>
+      </c>
+      <c r="C23" t="n">
+        <v>60</v>
+      </c>
+      <c r="D23" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>KIRANDEEP.KAUR16155</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>103</v>
+      </c>
+      <c r="C24" t="n">
+        <v>136</v>
+      </c>
+      <c r="D24" t="n">
+        <v>45.44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AYMEN.AMIN</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>76</v>
+      </c>
+      <c r="C25" t="n">
+        <v>102</v>
+      </c>
+      <c r="D25" t="n">
+        <v>44.71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MANVENDER.MANVENDER14806</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>106</v>
+      </c>
+      <c r="C26" t="n">
+        <v>148</v>
+      </c>
+      <c r="D26" t="n">
+        <v>42.97</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ALIISMAIL.ALI</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>44</v>
+      </c>
+      <c r="C27" t="n">
+        <v>65</v>
+      </c>
+      <c r="D27" t="n">
+        <v>40.62</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MEHD4790.FOURATI</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TUSHAR.BHATIA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PRITOM.SAMANTAPICKLU</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>32</v>
+      </c>
+      <c r="C30" t="n">
+        <v>20</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AGNE8120.CARUTH</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ADOL798N.SEEMANNVAZQ</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SUPRIYA.THAKUR</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ARJUNBHAI.PATEL</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>KHINEHAYMAR.THAUNG</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MAKEDA.OLLIVIERRE</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LOANA.MBONGO</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>LANDRYGILDAS.MUHIZI</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>20</v>
+      </c>
+      <c r="C38" t="n">
+        <v>13</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>KANIKA.KANIKA14970</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>24</v>
+      </c>
+      <c r="C40" t="n">
+        <v>19</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>JEEW9554.SITUMUDALIG</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>JAYLICIA.BELLINGY</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>FLORIDA.MAZON</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>24</v>
+      </c>
+      <c r="C43" t="n">
+        <v>13</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CELI2428.OXARAN</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>15</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BOHD0676.KUSHLIAK</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>12</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C46" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr"/>
-      <c r="D13" s="1" t="n">
-        <v>121.51</v>
+      <c r="B47" s="1" t="inlineStr"/>
+      <c r="C47" s="1" t="inlineStr"/>
+      <c r="D47" s="1" t="n">
+        <v>65.94</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +1218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -702,92 +1246,690 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ARJUNBHAI.PATEL</t>
+          <t>ABHISHEK.SHARMA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.310880829015544</v>
+        <v>3.228699551569507</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>ADELINENTUMBA.KANKU</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>2.797927461139896</v>
+        <v>3.228699551569507</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>16.78756476683938</v>
+        <v>4.573991031390134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MARI882N.ABDELKADER</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2.487046632124352</v>
+        <v>1.614349775784753</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>ALI.HEIDARI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="C6" t="n">
-        <v>1.243523316062176</v>
+        <v>46.00896860986547</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>AMINE.KARIMOU</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>9.326424870466321</v>
+        <v>3.228699551569507</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>AMRITPAL.SINGH16190</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1.243523316062176</v>
+        <v>1.614349775784753</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ARJUNBHAI.PATEL</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5381165919282511</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ARYAN.MORADALIBEYKILANGER</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.497757847533632</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AYOUB.DEHBI</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.766816143497758</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BOHD0676.KUSHLIAK</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8071748878923767</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CHEIKH.TOURABI</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>22</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.919282511210763</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CHERIFHAMID.ZAKARIA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.228699551569507</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DARKO-MENSAHJNR.KWAKU</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2690582959641256</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DAVID.NDAYIZEYE</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.959641255605381</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DEVI789.SINGH</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>227</v>
+      </c>
+      <c r="C17" t="n">
+        <v>61.0762331838565</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DIAN4065.ENTRIALGO</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>33</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.878923766816143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FAIZAN.ALI</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.152466367713004</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FAMOUS.ERHUNMWUNSEE</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>37</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9.955156950672645</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FATEMEH.EBRAHIMI</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.690582959641255</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FRIDAY.OCHUBA</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.84304932735426</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GARV.SEHGAL</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.228699551569507</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HARINDERPAL.SINGH14820</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.690582959641255</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HARMANDEEP.SINGH16001</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.228699551569507</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>IFEANYI.UGWUADU</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>65</v>
+      </c>
+      <c r="C26" t="n">
+        <v>17.48878923766816</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>IREN797N.CABRERA</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>632</v>
+      </c>
+      <c r="C27" t="n">
+        <v>170.0448430493273</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>JAYLICIA.BELLINGY</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5381165919282511</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>JEAN9755.MURENZI</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2690582959641256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>JEEW9554.SITUMUDALIG</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.883408071748879</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>KANIKA.KANIKA14970</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>15</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.035874439461884</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>KHUSHWINDERSINGH.SHERGILL</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>14</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.766816143497758</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>KINGSLEY.ANIKE</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>12</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.228699551569507</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>KOMALDEEP.KAUR14903</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.345291479820628</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LANDRYGILDAS.MUHIZI</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2690582959641256</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LAWRENCE.VIRAY</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>32</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.609865470852018</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LEMA6769.DOSSO</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.614349775784753</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>LOWRHY-OTIENO.JAOKO</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.2690582959641256</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MAKEDA.OLLIVIERRE</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.345291479820628</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MEHRNAZ.BARZEGARNOU</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>13</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.497757847533632</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MELA6559.ROCHETTE</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>73</v>
+      </c>
+      <c r="C41" t="n">
+        <v>19.64125560538116</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MOHAMEDABDUL.KOROMA</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>32</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8.609865470852018</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MOHAMMAD.ROSTAMI</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>12</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.228699551569507</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NAVPREET.KAUR14535</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>20</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5.381165919282511</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>179</v>
+      </c>
+      <c r="C45" t="n">
+        <v>48.16143497757847</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>OUSMANE.KIEMTORE</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.228699551569507</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PRITOM.SAMANTAPICKLU</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>28</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7.533632286995515</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RAVEENA.RAVEENA</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>18</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.84304932735426</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SAHIL.KUMAR14868</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>16</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.304932735426009</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SONIA.BHARTI</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>13</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.497757847533632</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>34</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9.147982062780269</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SUPRIYA.THAKUR</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.2690582959641256</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SYLVIA.NWOKENKWO</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>6</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.614349775784753</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.614349775784753</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +1943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,92 +1971,677 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>ABAKAR.CHOUKOU</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>10.88082901554404</v>
+        <v>3.228699551569507</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>ABHISHEK.SHARMA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>4.352331606217616</v>
+        <v>13.7219730941704</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>AKIK.BASHAR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>15.5440414507772</v>
+        <v>1.883408071748879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SEPIDEH.AZARIHASHJIN</t>
+          <t>ALEXANDER.NOISETTE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>47.56476683937824</v>
+        <v>9.955156950672645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>AMAN.GIR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
-        <v>26.73575129533679</v>
+        <v>11.83856502242153</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TUSHAR.BHATIA</t>
+          <t>AMINE.KARIMOU</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C7" t="n">
-        <v>3.730569948186528</v>
+        <v>15.33632286995516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>ARSHDEEP.KAUR16280</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.304932735426009</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CHEIKH.TOURABI</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>27</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.26457399103139</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CHERIF.DIALLO</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.919282511210763</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CHERIFHAMID.ZAKARIA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>69</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18.56502242152466</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DARKO-MENSAHJNR.KWAKU</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>80</v>
+      </c>
+      <c r="C12" t="n">
+        <v>21.52466367713004</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DIAN4065.ENTRIALGO</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.959641255605381</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DINESH.DINESH16161</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>76</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20.44843049327354</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EDENABUOHIEN.ARNOLD</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>82</v>
+      </c>
+      <c r="C15" t="n">
+        <v>22.06278026905829</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELHADJ.BAH</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>149</v>
+      </c>
+      <c r="C16" t="n">
+        <v>40.08968609865471</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FAIZAN.ALI</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>21</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.650224215246636</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FAMOUS.ERHUNMWUNSEE</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>40</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10.76233183856502</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FATEMEH.EBRAHIMI</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>86</v>
+      </c>
+      <c r="C19" t="n">
+        <v>23.1390134529148</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FLORENCEMBOMBO.MBUYI</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>42</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11.30044843049327</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FRIDAY.OCHUBA</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>59</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15.87443946188341</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GARV.SEHGAL</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>60</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16.14349775784753</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HARMANDEEP.SINGH16001</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>29</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7.802690582959641</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>IMAMHOSSAIN.CHOWDHURY</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>15</v>
       </c>
-      <c r="C8" t="n">
-        <v>4.66321243523316</v>
+      <c r="C24" t="n">
+        <v>4.035874439461884</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>JASMEEN.KAUR14691</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.42152466367713</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>JOY.KIZA</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>58</v>
+      </c>
+      <c r="C26" t="n">
+        <v>15.60538116591928</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>KANIKA.KANIKA14970</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.614349775784753</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>KHUSHWINDERSINGH.SHERGILL</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>98</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26.3677130044843</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>KINGSLEY.ANIKE</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.345291479820628</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>KIRANDEEP.KAUR15582</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.690582959641255</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>KOMALDEEP.KAUR14903</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8071748878923767</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LAWRENCE.VIRAY</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>49</v>
+      </c>
+      <c r="C32" t="n">
+        <v>13.18385650224215</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LEMA6769.DOSSO</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>73</v>
+      </c>
+      <c r="C33" t="n">
+        <v>19.64125560538116</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>LIKEDEEP.SINGH15949</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>22</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.919282511210763</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MAHAMATABAKAR.MAHAMAT</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>13</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.497757847533632</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MAMADOU.GANDODIALLO</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>29</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.802690582959641</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MAY.BELLOSILLO</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5381165919282511</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NANDAN.DUTT</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>33</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8.878923766816143</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NAVPREET.KAUR14535</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>42</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11.30044843049327</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NIDA6944.CHANG</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>139</v>
+      </c>
+      <c r="C40" t="n">
+        <v>37.39910313901346</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NOUHAILAZIAD.ELAMRI</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>54</v>
+      </c>
+      <c r="C41" t="n">
+        <v>14.52914798206278</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PEMO.VICTOR</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.152466367713004</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>RAJAT.SHARMA</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11.30044843049327</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RAVEENA.RAVEENA</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>109</v>
+      </c>
+      <c r="C44" t="n">
+        <v>29.32735426008968</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RIJO.RAJAN</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>28</v>
+      </c>
+      <c r="C45" t="n">
+        <v>7.533632286995515</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>RINTHIYA.KANDASAMY</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.5381165919282511</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SAHIL.KUMAR14868</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>66</v>
+      </c>
+      <c r="C47" t="n">
+        <v>17.75784753363229</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SAJEELUR.REHMAN15006</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>88</v>
+      </c>
+      <c r="C48" t="n">
+        <v>23.67713004484305</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SONIA.BHARTI</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>21</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5.650224215246636</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>75</v>
+      </c>
+      <c r="C50" t="n">
+        <v>20.17937219730942</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SUSHMITA.PAUL</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>38</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10.22421524663677</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SYLVIA.NWOKENKWO</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>40</v>
+      </c>
+      <c r="C52" t="n">
+        <v>10.76233183856502</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>28</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7.533632286995515</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +2655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -965,377 +2692,1113 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>136.5</v>
+        <v>114.89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>LAWRENCE.VIRAY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>106.25</v>
+        <v>81.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INUK4091.QAVAVAU</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>82.29000000000001</v>
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>SAJEELUR.REHMAN15006</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>81.11</v>
+        <v>79.43000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>SURESH.DHAWAN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="C6" t="n">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="D6" t="n">
-        <v>80.95</v>
+        <v>76.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TUSHAR.BHATIA</t>
+          <t>NAVPREET.KAUR14535</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D7" t="n">
-        <v>78.16</v>
+        <v>74.31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>KANIKA.KANIKA14970</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D8" t="n">
-        <v>77.81</v>
+        <v>73.70999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>KINGSLEY.ANIKE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C9" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" t="n">
-        <v>74.23999999999999</v>
+        <v>71.81999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>NIDA6944.CHANG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C10" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>70.09999999999999</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>GAMAL.ALI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="C11" t="n">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="D11" t="n">
-        <v>69.8</v>
+        <v>69.43000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>SIMRAN.SIMRAN14162</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="D12" t="n">
-        <v>66</v>
+        <v>66.77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="C13" t="n">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="D13" t="n">
-        <v>65.88</v>
+        <v>65.84999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>DINESH.DINESH16161</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C14" t="n">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="D14" t="n">
-        <v>65.05</v>
+        <v>65.81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MARI882N.ABDELKADER</t>
+          <t>OMAR.BAHAMID</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="D15" t="n">
-        <v>63.43</v>
+        <v>64.04000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>KOMALDEEP.KAUR14903</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>87</v>
       </c>
       <c r="C16" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D16" t="n">
-        <v>56.74</v>
+        <v>62.14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>AYOUB.DEHBI</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="C17" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D17" t="n">
-        <v>56.3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PRINCE.FORSON</t>
+          <t>OUSMANE.KIEMTORE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C18" t="n">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D18" t="n">
-        <v>53.63</v>
+        <v>61.91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ARJUNBHAI.PATEL</t>
+          <t>AMINE.KARIMOU</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C19" t="n">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D19" t="n">
-        <v>52.9</v>
+        <v>61.76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>FAIZAN.ALI</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C20" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="D20" t="n">
-        <v>51.69</v>
+        <v>61.41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>SUSHMITA.PAUL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C21" t="n">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="D21" t="n">
-        <v>35.24</v>
+        <v>61.33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>ARWIND.KUMAR</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C22" t="n">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="D22" t="n">
-        <v>34.88</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OMAR6689.KHAN</t>
+          <t>MOHAMMED.SALEM</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C23" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D23" t="n">
-        <v>33.89</v>
+        <v>58.86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>SYLVIA.NWOKENKWO</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>50</v>
+      </c>
+      <c r="D24" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MOHAMEDABDUL.KOROMA</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>69</v>
+      </c>
+      <c r="C25" t="n">
+        <v>72</v>
+      </c>
+      <c r="D25" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HARMANDEEP.SINGH16001</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>75</v>
+      </c>
+      <c r="C26" t="n">
+        <v>79</v>
+      </c>
+      <c r="D26" t="n">
+        <v>56.96</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CHERIFHAMID.ZAKARIA</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>71</v>
+      </c>
+      <c r="C27" t="n">
+        <v>75</v>
+      </c>
+      <c r="D27" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ADELINENTUMBA.KANKU</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>78</v>
+      </c>
+      <c r="C28" t="n">
+        <v>83</v>
+      </c>
+      <c r="D28" t="n">
+        <v>56.39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DAVID.NDAYIZEYE</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>134</v>
+      </c>
+      <c r="C29" t="n">
+        <v>145</v>
+      </c>
+      <c r="D29" t="n">
+        <v>55.45</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>RIJO.RAJAN</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>126</v>
+      </c>
+      <c r="C30" t="n">
+        <v>138</v>
+      </c>
+      <c r="D30" t="n">
+        <v>54.78</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>JOY.KIZA</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>79</v>
+      </c>
+      <c r="C31" t="n">
+        <v>87</v>
+      </c>
+      <c r="D31" t="n">
+        <v>54.48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ANDRIX.JULIEN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>126</v>
+      </c>
+      <c r="C32" t="n">
+        <v>152</v>
+      </c>
+      <c r="D32" t="n">
+        <v>49.74</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MAY.BELLOSILLO</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>121</v>
+      </c>
+      <c r="C33" t="n">
+        <v>146</v>
+      </c>
+      <c r="D33" t="n">
+        <v>49.73</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>LIKEDEEP.SINGH15949</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>45</v>
+      </c>
+      <c r="C34" t="n">
+        <v>55</v>
+      </c>
+      <c r="D34" t="n">
+        <v>49.09</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LEMA6769.DOSSO</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>68</v>
+      </c>
+      <c r="C35" t="n">
+        <v>84</v>
+      </c>
+      <c r="D35" t="n">
+        <v>48.57</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ESSIE.DOVONOU</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>146</v>
+      </c>
+      <c r="C36" t="n">
+        <v>181</v>
+      </c>
+      <c r="D36" t="n">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SONIA.BHARTI</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>53</v>
+      </c>
+      <c r="C37" t="n">
+        <v>67</v>
+      </c>
+      <c r="D37" t="n">
+        <v>47.46</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SANJANA.DANDYAN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>60</v>
+      </c>
+      <c r="C38" t="n">
+        <v>77</v>
+      </c>
+      <c r="D38" t="n">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>122</v>
+      </c>
+      <c r="C39" t="n">
+        <v>157</v>
+      </c>
+      <c r="D39" t="n">
+        <v>46.62</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>OSCARJOHNREY.CANETE</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>70</v>
+      </c>
+      <c r="C40" t="n">
+        <v>91</v>
+      </c>
+      <c r="D40" t="n">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AMRITPAL.SINGH16190</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>81</v>
+      </c>
+      <c r="C41" t="n">
+        <v>106</v>
+      </c>
+      <c r="D41" t="n">
+        <v>45.85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ARSHDEEP.KAUR16280</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>86</v>
+      </c>
+      <c r="C42" t="n">
+        <v>113</v>
+      </c>
+      <c r="D42" t="n">
+        <v>45.66</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BUDD0680.TENNAKOON</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>69</v>
+      </c>
+      <c r="C43" t="n">
+        <v>97</v>
+      </c>
+      <c r="D43" t="n">
+        <v>42.68</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ADEMOLA.SAMUELFAGBORO</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>123</v>
+      </c>
+      <c r="C44" t="n">
+        <v>178</v>
+      </c>
+      <c r="D44" t="n">
+        <v>41.46</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MOHAMMAD.ROSTAMI</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>78</v>
+      </c>
+      <c r="C45" t="n">
+        <v>116</v>
+      </c>
+      <c r="D45" t="n">
+        <v>40.34</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AKIK.BASHAR</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>36</v>
+      </c>
+      <c r="C46" t="n">
+        <v>54</v>
+      </c>
+      <c r="D46" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MIRYAMIN.ALI14605</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>93</v>
+      </c>
+      <c r="C47" t="n">
+        <v>141</v>
+      </c>
+      <c r="D47" t="n">
+        <v>39.57</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>90</v>
+      </c>
+      <c r="C48" t="n">
+        <v>139</v>
+      </c>
+      <c r="D48" t="n">
+        <v>38.85</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MAHAMATABAKAR.MAHAMAT</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
         <v>23</v>
       </c>
-      <c r="C24" t="n">
-        <v>19</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C49" t="n">
+        <v>37</v>
+      </c>
+      <c r="D49" t="n">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>GARV.SEHGAL</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>21</v>
+      </c>
+      <c r="C50" t="n">
+        <v>37</v>
+      </c>
+      <c r="D50" t="n">
+        <v>34.05</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>KIRANDEEP.KAUR15582</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>85</v>
+      </c>
+      <c r="C51" t="n">
+        <v>150</v>
+      </c>
+      <c r="D51" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>JASMEEN.KAUR14691</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>82</v>
+      </c>
+      <c r="C52" t="n">
+        <v>151</v>
+      </c>
+      <c r="D52" t="n">
+        <v>32.58</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CHERIF.DIALLO</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>46</v>
+      </c>
+      <c r="C53" t="n">
+        <v>85</v>
+      </c>
+      <c r="D53" t="n">
+        <v>32.47</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ABHISHEK.SHARMA</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>28</v>
+      </c>
+      <c r="C54" t="n">
+        <v>53</v>
+      </c>
+      <c r="D54" t="n">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MEHR9667.SHARIFIAN</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>16</v>
+      </c>
+      <c r="C55" t="n">
+        <v>31</v>
+      </c>
+      <c r="D55" t="n">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>IMAMHOSSAIN.CHOWDHURY</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>57</v>
+      </c>
+      <c r="C56" t="n">
+        <v>113</v>
+      </c>
+      <c r="D56" t="n">
+        <v>30.27</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CHEIKH.TOURABI</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>15</v>
+      </c>
+      <c r="C57" t="n">
+        <v>30</v>
+      </c>
+      <c r="D57" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>AMAN.GIR</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>29</v>
+      </c>
+      <c r="C58" t="n">
+        <v>58</v>
+      </c>
+      <c r="D58" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>RAJAT.SHARMA</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>33</v>
+      </c>
+      <c r="C59" t="n">
+        <v>69</v>
+      </c>
+      <c r="D59" t="n">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SARVJEET.SINGH14910</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>70</v>
+      </c>
+      <c r="C60" t="n">
+        <v>149</v>
+      </c>
+      <c r="D60" t="n">
+        <v>28.19</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NANDAN.DUTT</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>36</v>
+      </c>
+      <c r="C61" t="n">
+        <v>101</v>
+      </c>
+      <c r="D61" t="n">
+        <v>21.39</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MAMADOU.GANDODIALLO</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>17</v>
+      </c>
+      <c r="C62" t="n">
+        <v>22</v>
+      </c>
+      <c r="D62" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PRITOM.SAMANTAPICKLU</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>13</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>IFEANYI.UGWUADU</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>11</v>
+      </c>
+      <c r="C64" t="n">
+        <v>16</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>FRIDAY.OCHUBA</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>FATEMEH.EBRAHIMI</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>FAMOUS.ERHUNMWUNSEE</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>11</v>
+      </c>
+      <c r="C67" t="n">
+        <v>15</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>EDENABUOHIEN.ARNOLD</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>13</v>
+      </c>
+      <c r="C68" t="n">
+        <v>8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BRIA2870.MCLEISH</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>12</v>
+      </c>
+      <c r="C69" t="n">
+        <v>9</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>KHUSHWINDERSINGH.SHERGILL</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>11</v>
+      </c>
+      <c r="C70" t="n">
+        <v>13</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr"/>
-      <c r="C25" s="1" t="inlineStr"/>
-      <c r="D25" s="1" t="n">
-        <v>67.86</v>
+      <c r="B71" s="1" t="inlineStr"/>
+      <c r="C71" s="1" t="inlineStr"/>
+      <c r="D71" s="1" t="n">
+        <v>52.76</v>
       </c>
     </row>
   </sheetData>
@@ -1349,7 +3812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1377,170 +3840,521 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>ABAKAR.CHOUKOU</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="C2" t="n">
-        <v>53.78238341968912</v>
+        <v>23.1390134529148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>AHME0710.JUBRAN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>24.55958549222798</v>
+        <v>0.8071748878923767</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>AHMED.ALHADAR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C4" t="n">
-        <v>10.25906735751295</v>
+        <v>20.71748878923767</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>ALEXANDER.NOISETTE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>47.87564766839378</v>
+        <v>0.2690582959641256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>ALI.HEIDARI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>321</v>
+        <v>114</v>
       </c>
       <c r="C6" t="n">
-        <v>99.79274611398964</v>
+        <v>30.67264573991031</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>ALIISMAIL.ALI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="C7" t="n">
-        <v>3.10880829015544</v>
+        <v>46.54708520179372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>AMRITPALSINGH.PUREWAL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>53.16062176165803</v>
+        <v>6.457399103139013</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>ARSHPREET.KAUR14726</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="C9" t="n">
-        <v>30.15544041450777</v>
+        <v>49.5067264573991</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>ARYAN.MORADALIBEYKILANGER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="C10" t="n">
-        <v>34.81865284974093</v>
+        <v>59.19282511210762</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>ASHIMA.ARORA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="C11" t="n">
-        <v>61.86528497409326</v>
+        <v>29.59641255605381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>AYMAN.KHALIL</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>86</v>
       </c>
       <c r="C12" t="n">
-        <v>26.73575129533679</v>
+        <v>23.1390134529148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>AYMEN.AMIN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>33.26424870466321</v>
+        <v>14.26008968609865</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>BRIA2870.MCLEISH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C14" t="n">
-        <v>13.05699481865285</v>
+        <v>27.44394618834081</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DARKO-MENSAHJNR.KWAKU</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8071748878923767</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DEVI789.SINGH</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.919282511210763</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DIAN4065.ENTRIALGO</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23.94618834080718</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FATEMEH.EBRAHIMI</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>23</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.188340807174888</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FLORIDA.MAZON</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>497</v>
+      </c>
+      <c r="C19" t="n">
+        <v>133.7219730941704</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GURJOT.SINGH14583</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>61</v>
+      </c>
+      <c r="C20" t="n">
+        <v>16.41255605381166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HARINDERPAL.SINGH14820</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>222</v>
+      </c>
+      <c r="C21" t="n">
+        <v>59.73094170403587</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>IDRIS.JEMAL</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>235</v>
+      </c>
+      <c r="C22" t="n">
+        <v>63.22869955156951</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>INUK4091.QAVAVAU</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.304932735426009</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>IREN797N.CABRERA</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.533632286995515</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>381</v>
+      </c>
+      <c r="C25" t="n">
+        <v>102.5112107623318</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>KANIKA.KANIKA14970</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>46</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12.37668161434978</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>KIRANDEEP.KAUR16155</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>54</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14.52914798206278</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LANDRYGILDAS.MUHIZI</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>31</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.340807174887892</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LOWRHY-OTIENO.JAOKO</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>80</v>
+      </c>
+      <c r="C29" t="n">
+        <v>21.52466367713004</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MANVENDER.MANVENDER14806</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>38</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10.22421524663677</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MOUNIRALI.MAHAMATADNAN</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>177</v>
+      </c>
+      <c r="C31" t="n">
+        <v>47.62331838565022</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>33</v>
+      </c>
+      <c r="C32" t="n">
+        <v>8.878923766816143</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NIDA6944.CHANG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>24</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.457399103139013</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PRITOM.SAMANTAPICKLU</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>452</v>
+      </c>
+      <c r="C34" t="n">
+        <v>121.6143497757847</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>RAMANDEEP.KAUR2</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2690582959641256</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RAMI9087.SAIHI</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>74</v>
+      </c>
+      <c r="C36" t="n">
+        <v>19.91031390134529</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RINTHIYA.KANDASAMY</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9.417040358744394</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SIMRANDEEP.KAUR14873</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>334</v>
+      </c>
+      <c r="C38" t="n">
+        <v>89.86547085201794</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SONIA.BHARTI</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>44</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11.83856502242153</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>147</v>
+      </c>
+      <c r="C40" t="n">
+        <v>39.55156950672646</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>22</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5.919282511210763</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +4368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1577,107 +4391,107 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>ABAKAR.CHOUKOU</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>ABASS.TOUNKARA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ARJUNBHAI.PATEL</t>
+          <t>ABHISHEK.SHARMA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>ADELINENTUMBA.KANKU</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>ADEMOLA.SAMUELFAGBORO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>AHME0710.JUBRAN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>AHMED.ALHADAR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INUK4091.QAVAVAU</t>
+          <t>AKIK.BASHAR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>ALEXANDER.NOISETTE</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1687,211 +4501,1161 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>ALI.HEIDARI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>ALIISMAIL.ALI</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>AMAN.GIR</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>149</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MARI882N.ABDELKADER</t>
+          <t>AMINE.KARIMOU</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>AMRITPAL.SINGH16190</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>AMRITPALSINGH.PUREWAL</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OMAR6689.KHAN</t>
+          <t>ANDRIX.JULIEN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>ARJUNBHAI.PATEL</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>138</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PRINCE.FORSON</t>
+          <t>ARSHDEEP.KAUR16280</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RARG046N.YEBOAH</t>
+          <t>ARSHPREET.KAUR14726</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SEPIDEH.AZARIHASHJIN</t>
+          <t>ARWIND.KUMAR</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>ARYAN.MORADALIBEYKILANGER</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SURESH.DHAWAN</t>
+          <t>ASHIMA.ARORA</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>AYMAN.KHALIL</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TUSHAR.BHATIA</t>
+          <t>AYMEN.AMIN</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>AYOUB.DEHBI</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>43</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>BRIA2870.MCLEISH</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>CELI2428.OXARAN</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>83</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CHEIKH.TOURABI</t>
         </is>
       </c>
       <c r="B33" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CHERIF.DIALLO</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CHERIFHAMID.ZAKARIA</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DARKO-MENSAHJNR.KWAKU</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DAVID.NDAYIZEYE</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DEVI789.SINGH</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DIAN4065.ENTRIALGO</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DINESH.DINESH16161</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>EDENABUOHIEN.ARNOLD</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ELHADJ.BAH</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ESSIE.DOVONOU</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>FAIZAN.ALI</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>FAMOUS.ERHUNMWUNSEE</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>FATEMEH.EBRAHIMI</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>FLORENCEMBOMBO.MBUYI</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>FLORIDA.MAZON</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>FRIDAY.OCHUBA</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>GAGA4290.KALSI</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>GAMAL.ALI</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>GARV.SEHGAL</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>GURJOT.SINGH14583</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HARINDERPAL.SINGH14820</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HARMANDEEP.SINGH16001</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>IDRIS.JEMAL</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>IFEANYI.UGWUADU</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>IMAMHOSSAIN.CHOWDHURY</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>INUK4091.QAVAVAU</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>IREN797N.CABRERA</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>JASMEEN.KAUR14691</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>JAYLICIA.BELLINGY</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>JEAN9755.MURENZI</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>JEEW9554.SITUMUDALIG</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>JOY.KIZA</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>KANIKA.KANIKA14970</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>KHINEHAYMAR.THAUNG</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>KHUSHWINDERSINGH.SHERGILL</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>KINGSLEY.ANIKE</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>KIRANDEEP.KAUR15582</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>KIRANDEEP.KAUR16155</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>KOMALDEEP.KAUR14903</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>LANDRYGILDAS.MUHIZI</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>LAWRENCE.VIRAY</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>LEMA6769.DOSSO</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
         <v>34</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>LIKEDEEP.SINGH15949</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>LOANA.MBONGO</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>LOWRHY-OTIENO.JAOKO</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MAHAMATABAKAR.MAHAMAT</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MAKEDA.OLLIVIERRE</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MAMADOU.GANDODIALLO</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MANVENDER.MANVENDER14806</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MAY.BELLOSILLO</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MEHD4790.FOURATI</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MEHR9667.SHARIFIAN</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MEHRNAZ.BARZEGARNOU</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MELA6559.ROCHETTE</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MICA0432.RIZKALLAMAR</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MIRYAMIN.ALI14605</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MOHAMEDABDUL.KOROMA</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>MOHAMMAD.ROSTAMI</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MOHAMMED.SALEM</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MOUNIRALI.MAHAMATADNAN</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>NANDAN.DUTT</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>NAVPREET.KAUR14535</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NIDA6944.CHANG</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NOUHAILAZIAD.ELAMRI</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>OMAR.BAHAMID</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>OSCARJOHNREY.CANETE</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>OUSMANE.KIEMTORE</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>PEMO.VICTOR</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>PRITOM.SAMANTAPICKLU</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>RAJAT.SHARMA</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>RAMANDEEP.KAUR2</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>RAMI9087.SAIHI</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>RAVEENA.RAVEENA</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>RIJO.RAJAN</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>RINTHIYA.KANDASAMY</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SAHIL.KUMAR14868</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SAJEELUR.REHMAN15006</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SANJANA.DANDYAN</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SARVJEET.SINGH14910</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SIMRAN.SIMRAN14162</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SIMRANDEEP.KAUR14873</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SONIA.BHARTI</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SUPRIYA.THAKUR</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SURESH.DHAWAN</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SUSHMITA.PAUL</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SYLVIA.NWOKENKWO</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>TUSHAR.BHATIA</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1945,16 +5709,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>595</v>
       </c>
       <c r="D2" t="n">
-        <v>468</v>
+        <v>916</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3">
@@ -1962,16 +5726,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>605</v>
       </c>
       <c r="C3" t="n">
-        <v>130</v>
+        <v>915</v>
       </c>
       <c r="D3" t="n">
-        <v>788</v>
+        <v>1303</v>
       </c>
       <c r="E3" t="n">
-        <v>81</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4">
@@ -1979,16 +5743,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>596</v>
       </c>
       <c r="C4" t="n">
-        <v>168</v>
+        <v>580</v>
       </c>
       <c r="D4" t="n">
-        <v>645</v>
+        <v>1782</v>
       </c>
       <c r="E4" t="n">
-        <v>357</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="5">
@@ -1996,16 +5760,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>659</v>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="D5" t="n">
-        <v>104</v>
+        <v>1599</v>
       </c>
       <c r="E5" t="n">
-        <v>156</v>
+        <v>743</v>
       </c>
     </row>
     <row r="6">
@@ -2015,16 +5779,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110</v>
+        <v>1942</v>
       </c>
       <c r="C6" t="n">
-        <v>365</v>
+        <v>2283</v>
       </c>
       <c r="D6" t="n">
-        <v>2005</v>
+        <v>5600</v>
       </c>
       <c r="E6" t="n">
-        <v>595</v>
+        <v>2881</v>
       </c>
     </row>
   </sheetData>

--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -9,12 +9,13 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="PUTWALL PICKING" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="REGULAR PICK" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="SINGLE PICK" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="REPLENISHMENT PICK" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="QUICK MOVE" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="IDLE TIME" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Total Units picked by hour" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="SINGLE PACKING" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="REGULAR PICK" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SINGLE PICK" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="REPLENISHMENT PICK" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="QUICK MOVE" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="IDLE TIME" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Total Units picked by hour" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,125 +479,685 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>MARIA.GALDAMEZ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>113.79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>WINSELMAE.CASTRO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>90.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PATI2298.ATSIANGBE</t>
+          <t>AILYNCASSANDRA.BANGUG</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>MARY0067.BOULIANNEBL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TANI2739.HOSSAINISLA</t>
+          <t>REX.GOTERA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>55.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>SUKHVEER.SINGH16064</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>53.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>XUAN754N.LU</t>
+          <t>ASHL1578.PETIQUAY</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>53.11</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>JASMEEN.KAUR14691</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>61</v>
+      </c>
+      <c r="C9" t="n">
+        <v>77</v>
+      </c>
+      <c r="D9" t="n">
+        <v>47.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>OMOWONUOLA.BELLO</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>144</v>
+      </c>
+      <c r="C10" t="n">
+        <v>182</v>
+      </c>
+      <c r="D10" t="n">
+        <v>47.47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GEOR950N.PEREZ</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>130</v>
+      </c>
+      <c r="C11" t="n">
+        <v>166</v>
+      </c>
+      <c r="D11" t="n">
+        <v>46.99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PRABHJOT.KAUR14909</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>33</v>
+      </c>
+      <c r="C12" t="n">
+        <v>47</v>
+      </c>
+      <c r="D12" t="n">
+        <v>42.13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ZULQERNAIN.SHAIKH</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>117</v>
+      </c>
+      <c r="C13" t="n">
+        <v>180</v>
+      </c>
+      <c r="D13" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KANIKA.KANIKA14970</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>38</v>
+      </c>
+      <c r="C14" t="n">
+        <v>61</v>
+      </c>
+      <c r="D14" t="n">
+        <v>37.38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ALABA.ADEGBEYENI</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>78</v>
+      </c>
+      <c r="C15" t="n">
+        <v>133</v>
+      </c>
+      <c r="D15" t="n">
+        <v>35.19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ARIEL.EVANGELISTAREYES</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>82</v>
+      </c>
+      <c r="C16" t="n">
+        <v>144</v>
+      </c>
+      <c r="D16" t="n">
+        <v>34.17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NANDAN.DUTT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>33</v>
+      </c>
+      <c r="C17" t="n">
+        <v>60</v>
+      </c>
+      <c r="D17" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BIJENDER.KUMAR16185</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>74</v>
+      </c>
+      <c r="C18" t="n">
+        <v>136</v>
+      </c>
+      <c r="D18" t="n">
+        <v>32.65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PRECIOU.ABIMBOLA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>57</v>
+      </c>
+      <c r="C19" t="n">
+        <v>107</v>
+      </c>
+      <c r="D19" t="n">
+        <v>31.96</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>VICTORY.IHEMEJE</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>53</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GURJOT.SINGH14583</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>73</v>
+      </c>
+      <c r="D21" t="n">
+        <v>29.59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RAHMIE.TAJIDEEN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>59</v>
+      </c>
+      <c r="D22" t="n">
+        <v>28.47</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CHEI145N.BOCOUM</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>27</v>
+      </c>
+      <c r="C23" t="n">
+        <v>61</v>
+      </c>
+      <c r="D23" t="n">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MILA1082.PEREZ</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>61</v>
+      </c>
+      <c r="C24" t="n">
+        <v>142</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25.77</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BRADLEY.ST-PHARDPHILIPPE</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>65</v>
+      </c>
+      <c r="C25" t="n">
+        <v>152</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25.66</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>JOEL.NIXON</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>128</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25.31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MARIO.OUIMET</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>58</v>
+      </c>
+      <c r="C27" t="n">
+        <v>138</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MOHAMEDAMINE.SASSOUI</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>65</v>
+      </c>
+      <c r="C28" t="n">
+        <v>159</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24.53</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PAWANKUMAR.BHATTI</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>50</v>
+      </c>
+      <c r="C29" t="n">
+        <v>126</v>
+      </c>
+      <c r="D29" t="n">
+        <v>23.81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FLOYD.MCLEISH</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>40</v>
+      </c>
+      <c r="C30" t="n">
+        <v>102</v>
+      </c>
+      <c r="D30" t="n">
+        <v>23.53</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RASHADAL.ABD</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>81</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20.74</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ANAGUI.ALI.MAHAMAT</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>35</v>
+      </c>
+      <c r="C32" t="n">
+        <v>102</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20.59</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BLOCHE.BAKELA</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>23</v>
+      </c>
+      <c r="C33" t="n">
+        <v>69</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ABDULLAH.SALEM.AHMED.BARH</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>112</v>
+      </c>
+      <c r="D34" t="n">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MURSAL.MADADYAR</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>28</v>
+      </c>
+      <c r="C35" t="n">
+        <v>95</v>
+      </c>
+      <c r="D35" t="n">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ASSANE.NDIAYE</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>33</v>
+      </c>
+      <c r="C36" t="n">
+        <v>115</v>
+      </c>
+      <c r="D36" t="n">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TOMA9753.LANDUKULUPE</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>13</v>
+      </c>
+      <c r="C37" t="n">
+        <v>49</v>
+      </c>
+      <c r="D37" t="n">
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RACHELLE.LEWIS-HOLDER</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RASHIDA.SPEEDE</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NANCY.WOOD</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>KATEIRENE.TABLADA</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>JUDITH.BARTHOLD</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NICO0711.JANSON</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr"/>
-      <c r="C9" s="1" t="inlineStr"/>
-      <c r="D9" s="1" t="n">
-        <v>0</v>
+      <c r="B44" s="1" t="inlineStr"/>
+      <c r="C44" s="1" t="inlineStr"/>
+      <c r="D44" s="1" t="n">
+        <v>37.4</v>
       </c>
     </row>
   </sheetData>
@@ -610,7 +1171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,17 +1180,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>UserID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>RegularPickQuantity</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SinglePackingQuantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>UPH</t>
         </is>
@@ -638,14 +1204,685 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TANI2739.HOSSAINISLA</t>
+          <t>MARIA.GALDAMEZ</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>110</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>113.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WINSELMAE.CASTRO</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74</v>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AILYNCASSANDRA.BANGUG</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MARY0067.BOULIANNEBL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>148</v>
+      </c>
+      <c r="C5" t="n">
+        <v>158</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>REX.GOTERA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>79</v>
+      </c>
+      <c r="C6" t="n">
+        <v>86</v>
+      </c>
+      <c r="D6" t="n">
+        <v>55.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SUKHVEER.SINGH16064</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>96</v>
+      </c>
+      <c r="C7" t="n">
+        <v>107</v>
+      </c>
+      <c r="D7" t="n">
+        <v>53.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ASHL1578.PETIQUAY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>131</v>
+      </c>
+      <c r="C8" t="n">
+        <v>148</v>
+      </c>
+      <c r="D8" t="n">
+        <v>53.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>JASMEEN.KAUR14691</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>61</v>
+      </c>
+      <c r="C9" t="n">
+        <v>77</v>
+      </c>
+      <c r="D9" t="n">
+        <v>47.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>OMOWONUOLA.BELLO</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>144</v>
+      </c>
+      <c r="C10" t="n">
+        <v>182</v>
+      </c>
+      <c r="D10" t="n">
+        <v>47.47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GEOR950N.PEREZ</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>130</v>
+      </c>
+      <c r="C11" t="n">
+        <v>166</v>
+      </c>
+      <c r="D11" t="n">
+        <v>46.99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PRABHJOT.KAUR14909</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>33</v>
+      </c>
+      <c r="C12" t="n">
+        <v>47</v>
+      </c>
+      <c r="D12" t="n">
+        <v>42.13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ZULQERNAIN.SHAIKH</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>117</v>
+      </c>
+      <c r="C13" t="n">
+        <v>180</v>
+      </c>
+      <c r="D13" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KANIKA.KANIKA14970</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>38</v>
+      </c>
+      <c r="C14" t="n">
+        <v>61</v>
+      </c>
+      <c r="D14" t="n">
+        <v>37.38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ALABA.ADEGBEYENI</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>78</v>
+      </c>
+      <c r="C15" t="n">
+        <v>133</v>
+      </c>
+      <c r="D15" t="n">
+        <v>35.19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ARIEL.EVANGELISTAREYES</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>82</v>
+      </c>
+      <c r="C16" t="n">
+        <v>144</v>
+      </c>
+      <c r="D16" t="n">
+        <v>34.17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NANDAN.DUTT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>33</v>
+      </c>
+      <c r="C17" t="n">
+        <v>60</v>
+      </c>
+      <c r="D17" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BIJENDER.KUMAR16185</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>74</v>
+      </c>
+      <c r="C18" t="n">
+        <v>136</v>
+      </c>
+      <c r="D18" t="n">
+        <v>32.65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PRECIOU.ABIMBOLA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>57</v>
+      </c>
+      <c r="C19" t="n">
+        <v>107</v>
+      </c>
+      <c r="D19" t="n">
+        <v>31.96</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>VICTORY.IHEMEJE</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>53</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GURJOT.SINGH14583</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>73</v>
+      </c>
+      <c r="D21" t="n">
+        <v>29.59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RAHMIE.TAJIDEEN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>59</v>
+      </c>
+      <c r="D22" t="n">
+        <v>28.47</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CHEI145N.BOCOUM</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>27</v>
+      </c>
+      <c r="C23" t="n">
+        <v>61</v>
+      </c>
+      <c r="D23" t="n">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MILA1082.PEREZ</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>61</v>
+      </c>
+      <c r="C24" t="n">
+        <v>142</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25.77</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BRADLEY.ST-PHARDPHILIPPE</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>65</v>
+      </c>
+      <c r="C25" t="n">
+        <v>152</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25.66</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>JOEL.NIXON</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>128</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25.31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MARIO.OUIMET</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>58</v>
+      </c>
+      <c r="C27" t="n">
+        <v>138</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MOHAMEDAMINE.SASSOUI</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>65</v>
+      </c>
+      <c r="C28" t="n">
+        <v>159</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24.53</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PAWANKUMAR.BHATTI</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>50</v>
+      </c>
+      <c r="C29" t="n">
+        <v>126</v>
+      </c>
+      <c r="D29" t="n">
+        <v>23.81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FLOYD.MCLEISH</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>40</v>
+      </c>
+      <c r="C30" t="n">
+        <v>102</v>
+      </c>
+      <c r="D30" t="n">
+        <v>23.53</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RASHADAL.ABD</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>81</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20.74</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ANAGUI.ALI.MAHAMAT</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>35</v>
+      </c>
+      <c r="C32" t="n">
+        <v>102</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20.59</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BLOCHE.BAKELA</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>23</v>
+      </c>
+      <c r="C33" t="n">
+        <v>69</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ABDULLAH.SALEM.AHMED.BARH</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>112</v>
+      </c>
+      <c r="D34" t="n">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MURSAL.MADADYAR</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>28</v>
+      </c>
+      <c r="C35" t="n">
+        <v>95</v>
+      </c>
+      <c r="D35" t="n">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ASSANE.NDIAYE</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>33</v>
+      </c>
+      <c r="C36" t="n">
+        <v>115</v>
+      </c>
+      <c r="D36" t="n">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TOMA9753.LANDUKULUPE</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>13</v>
+      </c>
+      <c r="C37" t="n">
+        <v>49</v>
+      </c>
+      <c r="D37" t="n">
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RACHELLE.LEWIS-HOLDER</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RASHIDA.SPEEDE</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NANCY.WOOD</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.3658536585365854</v>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>KATEIRENE.TABLADA</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>JUDITH.BARTHOLD</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NICO0711.JANSON</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Average UPH</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr"/>
+      <c r="C44" s="1" t="inlineStr"/>
+      <c r="D44" s="1" t="n">
+        <v>37.4</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +1896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,22 +1905,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>UserID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SinglePickQuantity</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>RegularPickQuantity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>UPH</t>
         </is>
@@ -692,157 +1924,482 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XUAN754N.LU</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>86.2</v>
+        <v>0.2727272727272728</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>AMOY8935.VICTOR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
-      </c>
-      <c r="D3" t="n">
-        <v>62.3</v>
+        <v>0.5454545454545455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>AMRITPAL.SINGH16190</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
-      </c>
-      <c r="D4" t="n">
-        <v>60.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>AZAD.KIKI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
-      </c>
-      <c r="D5" t="n">
-        <v>53.8</v>
+        <v>0.2727272727272728</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>41.8</v>
+        <v>0.5454545454545455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OMAR6689.KHAN</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
-      </c>
-      <c r="D7" t="n">
-        <v>34.3</v>
+        <v>2.181818181818182</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>EDIT0934.TUPINO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+        <v>0.2727272727272728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TANI2739.HOSSAINISLA</t>
+          <t>FATEMEH.EBRAHIMI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+        <v>0.2727272727272728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>GAMAL.ALI</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.909090909090909</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GARV.SEHGAL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.454545454545455</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HARJEET.SINGH</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HARLEEN.KAUR165211</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HARMANDEEP.SINGH16001</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.181818181818182</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HARPREET.SINGHBARDHAN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.181818181818182</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>IREN797N.CABRERA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2727272727272728</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ISABELLE.FAYE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.181818181818182</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>JOY.KIZA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.090909090909091</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.636363636363637</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>KINGSLEY.ANIKE</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>23</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.272727272727273</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>KIRAN.JOT</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5454545454545455</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>KOMALDEEP.KAUR14903</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.636363636363636</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LEMA6769.DOSSO</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.181818181818182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LIKEDEEP.SINGH15949</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.090909090909091</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LOVELEEN.KAUR14293</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.363636363636364</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OMAR.BAHAMID</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>13</v>
       </c>
-      <c r="C10" t="n">
-        <v>10</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Average UPH</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr"/>
-      <c r="C11" s="1" t="inlineStr"/>
-      <c r="D11" s="1" t="n">
-        <v>56.5</v>
+      <c r="C26" t="n">
+        <v>3.545454545454545</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PATI2298.ATSIANGBE</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.363636363636364</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PATR5027.AMEH</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>RAJAT.SHARMA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>RAMI9087.SAIHI</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>26</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7.090909090909091</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RAVEENA.RAVEENA</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.181818181818182</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RIJO.RAJAN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.090909090909091</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SAHIL.KUMAR14868</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>13</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.545454545454545</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SAJEELUR.REHMAN15006</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.636363636363636</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SIMRAN.SIMRAN14162</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>16</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.363636363636364</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SYLVIA.NWOKENKWO</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>23</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6.272727272727273</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>22</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>20</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5.454545454545455</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,7 +2429,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ReplenishmentPickQuantity</t>
+          <t>SinglePickQuantity</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -889,301 +2446,1549 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>CHOROMA.ADOUM.BAYE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>104.1</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>MATHIEU.GIASSON</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>98.8</v>
+        <v>121.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="D4" t="n">
-        <v>98.2</v>
+        <v>118.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>OUMAR.DIOP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>49.2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>MAHAMAT.YAKHOUB.HABIB</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>41.1</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>MAMADOU.ADAMS.BARRY</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
-        <v>40.5</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OMAR6689.KHAN</t>
+          <t>HAMID.ABDOULAYE.MAHAMAT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
-        <v>35.6</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>ANDRIX.JULIEN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C9" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D9" t="n">
-        <v>34.7</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>OSCARJOHNREY.CANETE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>XUAN754N.LU</t>
+          <t>WILDINE.JEUNE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>MURLIMANOHAR.MOTWANIBHATI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>64.59999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>BOUBA.BAKARI.ALI</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>ADELINENTUMBA.KANKU</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RARG046N.YEBOAH</t>
+          <t>MACLY.BEAUBRUN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>JOY.KIZA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>RIJO.RAJAN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>PRAJWAL.SINGH14607</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>63</v>
+      </c>
+      <c r="C19" t="n">
+        <v>72</v>
+      </c>
+      <c r="D19" t="n">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PRINCE.FORSON</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>64</v>
+      </c>
+      <c r="C20" t="n">
+        <v>74</v>
+      </c>
+      <c r="D20" t="n">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MAHAMAT.SALEH.OUMAR</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31</v>
+      </c>
+      <c r="D21" t="n">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LEONARDO.MEJIAMEJIA</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>46</v>
+      </c>
+      <c r="C22" t="n">
+        <v>57</v>
+      </c>
+      <c r="D22" t="n">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>OLUMIDE.SANUSI</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>36</v>
+      </c>
+      <c r="C23" t="n">
+        <v>45</v>
+      </c>
+      <c r="D23" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MOHA9588.BADAHMAN</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>92</v>
+      </c>
+      <c r="C24" t="n">
+        <v>117</v>
+      </c>
+      <c r="D24" t="n">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CHEIKH.TOURABI</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>114</v>
+      </c>
+      <c r="C25" t="n">
+        <v>145</v>
+      </c>
+      <c r="D25" t="n">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>JASKARAN.SINGH16665</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>30</v>
+      </c>
+      <c r="C26" t="n">
+        <v>39</v>
+      </c>
+      <c r="D26" t="n">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ABDELLAHI.LY</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>37</v>
+      </c>
+      <c r="C27" t="n">
+        <v>48</v>
+      </c>
+      <c r="D27" t="n">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SAMREET.SINGH16186</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>119</v>
+      </c>
+      <c r="C28" t="n">
+        <v>156</v>
+      </c>
+      <c r="D28" t="n">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>JEAN.ABI.HACHEM</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>73</v>
+      </c>
+      <c r="C29" t="n">
+        <v>103</v>
+      </c>
+      <c r="D29" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EDIT0934.TUPINO</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>56</v>
+      </c>
+      <c r="C30" t="n">
+        <v>82</v>
+      </c>
+      <c r="D30" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LOVEDEEP.SINGH</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>22</v>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ELVIS.NOE.GAHIRWA</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>23</v>
+      </c>
+      <c r="C32" t="n">
+        <v>37</v>
+      </c>
+      <c r="D32" t="n">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MAHAMATABAKAR.MAHAMAT</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>57</v>
+      </c>
+      <c r="C33" t="n">
+        <v>92</v>
+      </c>
+      <c r="D33" t="n">
+        <v>37.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AHMAT.ABAKAR.BOUKAR</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>21</v>
+      </c>
+      <c r="C34" t="n">
+        <v>35</v>
+      </c>
+      <c r="D34" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ABDUL.KHALIL.ADEL</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>64</v>
+      </c>
+      <c r="C35" t="n">
+        <v>107</v>
+      </c>
+      <c r="D35" t="n">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CHAMKAUR.SINGH</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>103</v>
+      </c>
+      <c r="C36" t="n">
+        <v>174</v>
+      </c>
+      <c r="D36" t="n">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CHERIFHAMID.ZAKARIA</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>66</v>
+      </c>
+      <c r="C37" t="n">
+        <v>112</v>
+      </c>
+      <c r="D37" t="n">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ATIEH.SEDIGH</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>93</v>
+      </c>
+      <c r="C38" t="n">
+        <v>165</v>
+      </c>
+      <c r="D38" t="n">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BASSIM.DIJIDDO</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>18</v>
+      </c>
+      <c r="C39" t="n">
+        <v>33</v>
+      </c>
+      <c r="D39" t="n">
+        <v>32.7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>JATHUSHAN.KARTHIGESAR</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>52</v>
+      </c>
+      <c r="C40" t="n">
+        <v>98</v>
+      </c>
+      <c r="D40" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FREDRICK.ADEBOGUN</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>26</v>
+      </c>
+      <c r="C41" t="n">
+        <v>51</v>
+      </c>
+      <c r="D41" t="n">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MOR.FAYE</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>25</v>
+      </c>
+      <c r="C42" t="n">
+        <v>49</v>
+      </c>
+      <c r="D42" t="n">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MOUSTAPHA.KEBE</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
         <v>17</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C43" t="n">
+        <v>34</v>
+      </c>
+      <c r="D43" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ERICKA.TCHAMABEU</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>26</v>
+      </c>
+      <c r="C44" t="n">
+        <v>54</v>
+      </c>
+      <c r="D44" t="n">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BIANCA.SIMEONE</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
         <v>23</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="C45" t="n">
+        <v>49</v>
+      </c>
+      <c r="D45" t="n">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AKIK.BASHAR</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>63</v>
+      </c>
+      <c r="C46" t="n">
+        <v>143</v>
+      </c>
+      <c r="D46" t="n">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ABDRAMANE.HASSAN.ISSA</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>33</v>
+      </c>
+      <c r="C47" t="n">
+        <v>82</v>
+      </c>
+      <c r="D47" t="n">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ELYON.ASOMBO</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>19</v>
+      </c>
+      <c r="C48" t="n">
+        <v>52</v>
+      </c>
+      <c r="D48" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>OLAWALE.MUBARAK.ABIODUN</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>17</v>
+      </c>
+      <c r="C49" t="n">
+        <v>18</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>OMAR.BAHAMID</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>14</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NAWAF.HAGE.CHEHADE</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" t="n">
+        <v>8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NAVPREET.KAUR14535</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>17</v>
+      </c>
+      <c r="C52" t="n">
+        <v>16</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ABAKAR.CHOUKOU</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>22</v>
+      </c>
+      <c r="C53" t="n">
+        <v>23</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>OUSMANE.KIEMTORE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>18</v>
+      </c>
+      <c r="C54" t="n">
+        <v>18</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>OYETUNJI.HABEEB.OLALEKAN</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>22</v>
+      </c>
+      <c r="C55" t="n">
+        <v>19</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PATRICK.NIYONKURU</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>14</v>
+      </c>
+      <c r="C56" t="n">
+        <v>16</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PIYUSH.SINGLA</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>15</v>
+      </c>
+      <c r="C57" t="n">
+        <v>23</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>RAJAT.SHARMA</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>RAJWINDER.KAUR164355</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>20</v>
+      </c>
+      <c r="C59" t="n">
+        <v>22</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>RAVEENA.RAVEENA</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SAHIL.KUMAR14868</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SAJEELUR.REHMAN15006</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>27</v>
+      </c>
+      <c r="C62" t="n">
+        <v>25</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SAMI.LAMOURI</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SIMRAN.SIMRAN14162</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>7</v>
+      </c>
+      <c r="C64" t="n">
+        <v>8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SONIA.BHARTI</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>4</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SYLVIA.NWOKENKWO</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>14</v>
+      </c>
+      <c r="C66" t="n">
+        <v>15</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>YAHAYA.CAMARA</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>21</v>
+      </c>
+      <c r="C67" t="n">
+        <v>20</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>RFBASE</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>LEMA6769.DOSSO</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MOHAMMED.SALEM</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>28</v>
+      </c>
+      <c r="C70" t="n">
+        <v>25</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MD.ANOWAR.HOSSAIN</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ABDRAMANE.YAYA.BECHIR</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>19</v>
+      </c>
+      <c r="C72" t="n">
+        <v>29</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ADEMOLA.SAMUELFAGBORO</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>AMANDEEP.KAUR3</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>15</v>
+      </c>
+      <c r="C74" t="n">
+        <v>14</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>AMRITPAL.SINGH16190</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>7</v>
+      </c>
+      <c r="C75" t="n">
+        <v>8</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>AMRITPALSINGH.PUREWAL</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>16</v>
+      </c>
+      <c r="C76" t="n">
+        <v>15</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ANWAR.ALAGDAL</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>14</v>
+      </c>
+      <c r="C77" t="n">
+        <v>10</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ARSENE.LOULENDO</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>36</v>
+      </c>
+      <c r="C78" t="n">
+        <v>26</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CHERIF.DIALLO</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>11</v>
+      </c>
+      <c r="C79" t="n">
+        <v>9</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>10</v>
+      </c>
+      <c r="C80" t="n">
+        <v>18</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>FAIZAN.ALI</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>16</v>
+      </c>
+      <c r="C81" t="n">
+        <v>23</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>GAMAL.ALI</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>34</v>
+      </c>
+      <c r="C82" t="n">
+        <v>24</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>GARV.SEHGAL</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>GLORIA.MUTONI</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>19</v>
+      </c>
+      <c r="C84" t="n">
+        <v>25</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>HARLEEN.KAUR165211</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>21</v>
+      </c>
+      <c r="C85" t="n">
+        <v>29</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>HARMANDEEP.SINGH16001</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>5</v>
+      </c>
+      <c r="C86" t="n">
+        <v>7</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ISSA.MAHAMAT.EZEDINE</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>16</v>
+      </c>
+      <c r="C87" t="n">
+        <v>17</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>KATHYANN.SUDAY</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>25</v>
+      </c>
+      <c r="C88" t="n">
+        <v>23</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>KEYURIBEN.DHORAJIYA</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>16</v>
+      </c>
+      <c r="C89" t="n">
+        <v>22</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>KINGSLEY.ANIKE</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>16</v>
+      </c>
+      <c r="C90" t="n">
+        <v>12</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>KOMALDEEP.KAUR14903</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>10</v>
+      </c>
+      <c r="C91" t="n">
+        <v>9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>LIKEDEEP.SINGH15949</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>12</v>
+      </c>
+      <c r="C92" t="n">
+        <v>17</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>LOVELEEN.KAUR14293</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>LOWRHY-OTIENO.JAOKO</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>73</v>
+      </c>
+      <c r="C94" t="n">
+        <v>28</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MADIEULINE.JEANLOUIS</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>10</v>
+      </c>
+      <c r="C95" t="n">
+        <v>8</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MAMADOU.GANDODIALLO</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>26</v>
+      </c>
+      <c r="C96" t="n">
+        <v>21</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>YOUSSOUF.NAHAR.ISSA</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>11</v>
+      </c>
+      <c r="C97" t="n">
+        <v>12</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr"/>
-      <c r="C20" s="1" t="inlineStr"/>
-      <c r="D20" s="1" t="n">
-        <v>62.8</v>
+      <c r="B98" s="1" t="inlineStr"/>
+      <c r="C98" s="1" t="inlineStr"/>
+      <c r="D98" s="1" t="n">
+        <v>54.9</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +4002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,17 +4011,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>UserID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>QuickMoveQuantity</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ReplenishmentPickQuantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>UPH</t>
         </is>
@@ -1225,79 +4035,1517 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>NAVPREET.KAUR14535</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5609756097561</v>
+        <v>68</v>
+      </c>
+      <c r="D2" t="n">
+        <v>96.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OMAR6689.KHAN</t>
+          <t>KOMALDEEP.KAUR14903</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="C3" t="n">
-        <v>3.658536585365854</v>
+        <v>86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>GAMAL.ALI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C4" t="n">
-        <v>14.63414634146342</v>
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TANI2739.HOSSAINISLA</t>
+          <t>AMANDEEP.KAUR3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="C5" t="n">
-        <v>6.951219512195122</v>
+        <v>71</v>
+      </c>
+      <c r="D5" t="n">
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="C6" t="n">
-        <v>21.58536585365854</v>
+        <v>88</v>
+      </c>
+      <c r="D6" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>XUAN754N.LU</t>
+          <t>AMRITPALSINGH.PUREWAL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C7" t="n">
-        <v>1.463414634146341</v>
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FAIZAN.ALI</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>47</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>OMAR.BAHAMID</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>75</v>
+      </c>
+      <c r="C9" t="n">
+        <v>53</v>
+      </c>
+      <c r="D9" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CHERIFHAMID.ZAKARIA</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>65</v>
+      </c>
+      <c r="C10" t="n">
+        <v>48</v>
+      </c>
+      <c r="D10" t="n">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ANWAR.ALAGDAL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>86</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64</v>
+      </c>
+      <c r="D11" t="n">
+        <v>80.59999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MOHAMMED.SALEM</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>88</v>
+      </c>
+      <c r="C12" t="n">
+        <v>66</v>
+      </c>
+      <c r="D12" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>YAHAYA.CAMARA</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>135</v>
+      </c>
+      <c r="C13" t="n">
+        <v>103</v>
+      </c>
+      <c r="D13" t="n">
+        <v>78.59999999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MURLIMANOHAR.MOTWANIBHATI</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>86</v>
+      </c>
+      <c r="C14" t="n">
+        <v>67</v>
+      </c>
+      <c r="D14" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ANDRIX.JULIEN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>117</v>
+      </c>
+      <c r="C15" t="n">
+        <v>94</v>
+      </c>
+      <c r="D15" t="n">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SONIA.BHARTI</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>125</v>
+      </c>
+      <c r="C16" t="n">
+        <v>101</v>
+      </c>
+      <c r="D16" t="n">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AMINE.MAHAMAT.TAHIR</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>78</v>
+      </c>
+      <c r="C17" t="n">
+        <v>64</v>
+      </c>
+      <c r="D17" t="n">
+        <v>73.09999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>YOUSSOUF.NAHAR.ISSA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>67</v>
+      </c>
+      <c r="C18" t="n">
+        <v>61</v>
+      </c>
+      <c r="D18" t="n">
+        <v>65.90000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KATHYANN.SUDAY</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>106</v>
+      </c>
+      <c r="C19" t="n">
+        <v>97</v>
+      </c>
+      <c r="D19" t="n">
+        <v>65.59999999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GAGA4290.KALSI</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>43</v>
+      </c>
+      <c r="C20" t="n">
+        <v>42</v>
+      </c>
+      <c r="D20" t="n">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AMRITPAL.SINGH16190</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>56</v>
+      </c>
+      <c r="C21" t="n">
+        <v>57</v>
+      </c>
+      <c r="D21" t="n">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>KAYLEY.GRAY-CYR</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>124</v>
+      </c>
+      <c r="C22" t="n">
+        <v>127</v>
+      </c>
+      <c r="D22" t="n">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ADAM.MOUSSA.MAHAMAT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>90</v>
+      </c>
+      <c r="C23" t="n">
+        <v>96</v>
+      </c>
+      <c r="D23" t="n">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RAJAT.SHARMA</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>69</v>
+      </c>
+      <c r="C24" t="n">
+        <v>74</v>
+      </c>
+      <c r="D24" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RIJO.RAJAN</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>73</v>
+      </c>
+      <c r="C25" t="n">
+        <v>80</v>
+      </c>
+      <c r="D25" t="n">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LOVELEEN.KAUR14293</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>70</v>
+      </c>
+      <c r="C26" t="n">
+        <v>77</v>
+      </c>
+      <c r="D26" t="n">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RAVEENA.RAVEENA</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>48</v>
+      </c>
+      <c r="C27" t="n">
+        <v>53</v>
+      </c>
+      <c r="D27" t="n">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HARLEEN.KAUR165211</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>87</v>
+      </c>
+      <c r="C28" t="n">
+        <v>98</v>
+      </c>
+      <c r="D28" t="n">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ARSHDEEP.KAUR16280</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>56</v>
+      </c>
+      <c r="C29" t="n">
+        <v>63</v>
+      </c>
+      <c r="D29" t="n">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SIMRAN.SIMRAN14162</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>69</v>
+      </c>
+      <c r="C30" t="n">
+        <v>78</v>
+      </c>
+      <c r="D30" t="n">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>KINGSLEY.ANIKE</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>68</v>
+      </c>
+      <c r="C31" t="n">
+        <v>77</v>
+      </c>
+      <c r="D31" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SATINDER.PAL.SINGH.RATHOR</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>114</v>
+      </c>
+      <c r="C32" t="n">
+        <v>136</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>JOY.KIZA</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>39</v>
+      </c>
+      <c r="C33" t="n">
+        <v>49</v>
+      </c>
+      <c r="D33" t="n">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MAY.BELLOSILLO</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>75</v>
+      </c>
+      <c r="C34" t="n">
+        <v>97</v>
+      </c>
+      <c r="D34" t="n">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LEMA6769.DOSSO</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>63</v>
+      </c>
+      <c r="C35" t="n">
+        <v>82</v>
+      </c>
+      <c r="D35" t="n">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MIRYAMIN.ALI14605</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>40</v>
+      </c>
+      <c r="C36" t="n">
+        <v>53</v>
+      </c>
+      <c r="D36" t="n">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BORIS.GURAU</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>27</v>
+      </c>
+      <c r="C37" t="n">
+        <v>36</v>
+      </c>
+      <c r="D37" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HARMANDEEP.SINGH16001</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>50</v>
+      </c>
+      <c r="C38" t="n">
+        <v>67</v>
+      </c>
+      <c r="D38" t="n">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>GARV.SEHGAL</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>35</v>
+      </c>
+      <c r="C39" t="n">
+        <v>47</v>
+      </c>
+      <c r="D39" t="n">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LIKEDEEP.SINGH15949</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>23</v>
+      </c>
+      <c r="C40" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" t="n">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MAHAMATABAKAR.MAHAMAT</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>45</v>
+      </c>
+      <c r="C41" t="n">
+        <v>61</v>
+      </c>
+      <c r="D41" t="n">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SAHIL.KUMAR14868</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>29</v>
+      </c>
+      <c r="C42" t="n">
+        <v>42</v>
+      </c>
+      <c r="D42" t="n">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>RAJWINDER.KAUR164355</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>52</v>
+      </c>
+      <c r="C43" t="n">
+        <v>79</v>
+      </c>
+      <c r="D43" t="n">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MACLY.BEAUBRUN</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>64</v>
+      </c>
+      <c r="D44" t="n">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ABDRAMANE.HASSAN.ISSA</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>23</v>
+      </c>
+      <c r="C45" t="n">
+        <v>35</v>
+      </c>
+      <c r="D45" t="n">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PIYUSH.SINGLA</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>73</v>
+      </c>
+      <c r="C46" t="n">
+        <v>113</v>
+      </c>
+      <c r="D46" t="n">
+        <v>38.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ARWIND.KUMAR</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>27</v>
+      </c>
+      <c r="C47" t="n">
+        <v>42</v>
+      </c>
+      <c r="D47" t="n">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BUDD0680.TENNAKOON</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>23</v>
+      </c>
+      <c r="C48" t="n">
+        <v>36</v>
+      </c>
+      <c r="D48" t="n">
+        <v>38.3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CHERIF.DIALLO</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>73</v>
+      </c>
+      <c r="C49" t="n">
+        <v>116</v>
+      </c>
+      <c r="D49" t="n">
+        <v>37.8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SHIVA.KUMAR.MIRYALA</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>21</v>
+      </c>
+      <c r="C50" t="n">
+        <v>34</v>
+      </c>
+      <c r="D50" t="n">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ADEMOLA.SAMUELFAGBORO</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>80</v>
+      </c>
+      <c r="C51" t="n">
+        <v>132</v>
+      </c>
+      <c r="D51" t="n">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MOUSTAPHA.ADAM.ABDERAHIM</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>30</v>
+      </c>
+      <c r="C52" t="n">
+        <v>51</v>
+      </c>
+      <c r="D52" t="n">
+        <v>35.3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ADELINENTUMBA.KANKU</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>53</v>
+      </c>
+      <c r="C53" t="n">
+        <v>90</v>
+      </c>
+      <c r="D53" t="n">
+        <v>35.3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ABDELLAHI.LY</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>21</v>
+      </c>
+      <c r="C54" t="n">
+        <v>36</v>
+      </c>
+      <c r="D54" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MAMADOU.GANDODIALLO</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>49</v>
+      </c>
+      <c r="C55" t="n">
+        <v>85</v>
+      </c>
+      <c r="D55" t="n">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MOUSTAPHA.KEBE</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>21</v>
+      </c>
+      <c r="C56" t="n">
+        <v>37</v>
+      </c>
+      <c r="D56" t="n">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MD.ANOWAR.HOSSAIN</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>51</v>
+      </c>
+      <c r="C57" t="n">
+        <v>90</v>
+      </c>
+      <c r="D57" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>17</v>
+      </c>
+      <c r="C58" t="n">
+        <v>30</v>
+      </c>
+      <c r="D58" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>AHMAT.ABAKAR.BOUKAR</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>44</v>
+      </c>
+      <c r="C59" t="n">
+        <v>81</v>
+      </c>
+      <c r="D59" t="n">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MAHAMAT.SALEH.OUMAR</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>72</v>
+      </c>
+      <c r="C60" t="n">
+        <v>135</v>
+      </c>
+      <c r="D60" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>OSCARJOHNREY.CANETE</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>62</v>
+      </c>
+      <c r="C61" t="n">
+        <v>117</v>
+      </c>
+      <c r="D61" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>YEVA.NAZARKINA</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>26</v>
+      </c>
+      <c r="C62" t="n">
+        <v>49</v>
+      </c>
+      <c r="D62" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>KEYURIBEN.DHORAJIYA</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>64</v>
+      </c>
+      <c r="C63" t="n">
+        <v>125</v>
+      </c>
+      <c r="D63" t="n">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SAMI.LAMOURI</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>64</v>
+      </c>
+      <c r="C64" t="n">
+        <v>126</v>
+      </c>
+      <c r="D64" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>BASSIM.DIJIDDO</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>36</v>
+      </c>
+      <c r="C65" t="n">
+        <v>73</v>
+      </c>
+      <c r="D65" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>28</v>
+      </c>
+      <c r="C66" t="n">
+        <v>59</v>
+      </c>
+      <c r="D66" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>YASER.KABOUDANI</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>17</v>
+      </c>
+      <c r="C67" t="n">
+        <v>36</v>
+      </c>
+      <c r="D67" t="n">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CHEIKH.TIDIANE.GUEYE</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>19</v>
+      </c>
+      <c r="C68" t="n">
+        <v>41</v>
+      </c>
+      <c r="D68" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CARL.NITCHELL.LUCCE</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>23</v>
+      </c>
+      <c r="C69" t="n">
+        <v>51</v>
+      </c>
+      <c r="D69" t="n">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MUSKANPREET.KAUR</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>22</v>
+      </c>
+      <c r="C70" t="n">
+        <v>49</v>
+      </c>
+      <c r="D70" t="n">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>KHALIL.OUSMAN.ABDELMOUNIM</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>17</v>
+      </c>
+      <c r="C71" t="n">
+        <v>38</v>
+      </c>
+      <c r="D71" t="n">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>FAMOUS.ERHUNMWUNSEE</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>25</v>
+      </c>
+      <c r="C72" t="n">
+        <v>58</v>
+      </c>
+      <c r="D72" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ASSANE.DIOP</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>55</v>
+      </c>
+      <c r="C73" t="n">
+        <v>130</v>
+      </c>
+      <c r="D73" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SYLVIA.NWOKENKWO</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>14</v>
+      </c>
+      <c r="C74" t="n">
+        <v>20</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ELYON.ASOMBO</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ABDUL.KHALIL.ADEL</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>16</v>
+      </c>
+      <c r="C76" t="n">
+        <v>28</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ALEXANDRE.NDUNGI.ITELA</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>FREDRICK.ADEBOGUN</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>11</v>
+      </c>
+      <c r="C78" t="n">
+        <v>14</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>FLORENCEMBOMBO.MBUYI</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>13</v>
+      </c>
+      <c r="C79" t="n">
+        <v>21</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SAJEELUR.REHMAN15006</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>14</v>
+      </c>
+      <c r="C80" t="n">
+        <v>20</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>GLORIA.MUTONI</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>12</v>
+      </c>
+      <c r="C81" t="n">
+        <v>25</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MADIEULINE.JEANLOUIS</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>8</v>
+      </c>
+      <c r="C82" t="n">
+        <v>7</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>DEYE.DJAMAL.YOUSSOUF</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>JEAN.ABI.HACHEM</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>21</v>
+      </c>
+      <c r="C84" t="n">
+        <v>29</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>KANIKA.KANIKA14970</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>26</v>
+      </c>
+      <c r="C85" t="n">
+        <v>18</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>OLUMIDE.SANUSI</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>11</v>
+      </c>
+      <c r="C86" t="n">
+        <v>13</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>NAWAF.HAGE.CHEHADE</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>9</v>
+      </c>
+      <c r="C87" t="n">
+        <v>11</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>BIANCA.SIMEONE</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>10</v>
+      </c>
+      <c r="C88" t="n">
+        <v>22</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MOR.FAYE</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>21</v>
+      </c>
+      <c r="C89" t="n">
+        <v>26</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MOHA9588.BADAHMAN</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>8</v>
+      </c>
+      <c r="C90" t="n">
+        <v>9</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>LAMI4482.TARIKT</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>LEONARDO.MEJIAMEJIA</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>18</v>
+      </c>
+      <c r="C92" t="n">
+        <v>14</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MAMATA.SORGHO</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>20</v>
+      </c>
+      <c r="C93" t="n">
+        <v>21</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>LOVEDEEP.SINGH</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>15</v>
+      </c>
+      <c r="C94" t="n">
+        <v>13</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ERICKA.TCHAMABEU</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>12</v>
+      </c>
+      <c r="C95" t="n">
+        <v>18</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Average UPH</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="inlineStr"/>
+      <c r="C96" s="1" t="inlineStr"/>
+      <c r="D96" s="1" t="n">
+        <v>50.9</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +5559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,228 +5575,390 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>TotalIdleTime</t>
+          <t>QuickMoveQuantity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>UPH</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>ABAKAR.CHOUKOU</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.45454545454546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>ALIISMAIL.ALI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>375</v>
+      </c>
+      <c r="C3" t="n">
+        <v>102.2727272727273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>ARWIND.KUMAR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150</v>
+        <v>17</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.636363636363637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>AYMAN.KHALIL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>142</v>
+        <v>308</v>
+      </c>
+      <c r="C5" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>AYMEN.AMIN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138</v>
+        <v>174</v>
+      </c>
+      <c r="C6" t="n">
+        <v>47.45454545454545</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>AYOUB.DEHBI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>134</v>
+        <v>211</v>
+      </c>
+      <c r="C7" t="n">
+        <v>57.54545454545455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>BORIS.GURAU</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142</v>
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>CARL.NITCHELL.LUCCE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>136</v>
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.363636363636364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>CHEIKH.TIDIANE.GUEYE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144</v>
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5454545454545455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OMAR6689.KHAN</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51</v>
+        <v>83</v>
+      </c>
+      <c r="C11" t="n">
+        <v>22.63636363636364</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PATI2298.ATSIANGBE</t>
+          <t>DEYE.DJAMAL.YOUSSOUF</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37</v>
+        <v>339</v>
+      </c>
+      <c r="C12" t="n">
+        <v>92.45454545454545</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>165</v>
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.363636363636364</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>GURJOT.SINGH14583</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2727272727272728</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RARG046N.YEBOAH</t>
+          <t>HARPREET.SINGHBARDHAN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>152</v>
+        <v>127</v>
+      </c>
+      <c r="C15" t="n">
+        <v>34.63636363636364</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>KHALIL.OUSMAN.ABDELMOUNIM</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2727272727272728</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TANI2739.HOSSAINISLA</t>
+          <t>KIRAN.JOT</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>74</v>
+        <v>101</v>
+      </c>
+      <c r="C17" t="n">
+        <v>27.54545454545455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>MAMATA.SORGHO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37</v>
+        <v>246</v>
+      </c>
+      <c r="C18" t="n">
+        <v>67.09090909090909</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>MIRYAMIN.ALI14605</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132</v>
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.454545454545455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>MUSKANPREET.KAUR</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5454545454545455</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>XUAN754N.LU</t>
+          <t>NOUHAILAZIAD.ELAMRI</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63</v>
+        <v>202</v>
+      </c>
+      <c r="C21" t="n">
+        <v>55.09090909090909</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>OUSMANE.KIEMTORE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59</v>
+        <v>240</v>
+      </c>
+      <c r="C22" t="n">
+        <v>65.45454545454545</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>135</v>
+        <v>25</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.818181818181818</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SARVJEET.SINGH14910</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>126</v>
+      </c>
+      <c r="C24" t="n">
+        <v>34.36363636363637</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SHIVA.KUMAR.MIRYALA</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SONIA.BHARTI</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>33</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>110</v>
+      </c>
+      <c r="C27" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>YASER.KABOUDANI</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2727272727272728</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>191</v>
+      </c>
+      <c r="C29" t="n">
+        <v>52.09090909090909</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>YEVA.NAZARKINA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5454545454545455</v>
       </c>
     </row>
   </sheetData>
@@ -1557,6 +5967,1947 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B192"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>UserID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>TotalIdleTime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ABAKAR.CHOUKOU</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ABDELLAHI.LY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ABDRAMANE.HASSAN.ISSA</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ABDRAMANE.YAYA.BECHIR</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ABDUL.KHALIL.ADEL</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ABDULLAH.SALEM.AHMED.BARH</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ADAM.MOUSSA.MAHAMAT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ADELINENTUMBA.KANKU</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ADEMOLA.SAMUELFAGBORO</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AGNE8120.CARUTH</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AHMAT.ABAKAR.BOUKAR</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AILYNCASSANDRA.BANGUG</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AKIK.BASHAR</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ALABA.ADEGBEYENI</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ALEXANDRE.NDUNGI.ITELA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ALIISMAIL.ALI</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AMANDEEP.KAUR3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AMINE.MAHAMAT.TAHIR</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AMOY8935.VICTOR</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AMRITPAL.SINGH16190</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AMRITPALSINGH.PUREWAL</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ANAGUI.ALI.MAHAMAT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ANDRIX.JULIEN</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ANWAR.ALAGDAL</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ARIEL.EVANGELISTAREYES</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ARSENE.LOULENDO</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ARSHDEEP.KAUR16280</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ARWIND.KUMAR</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ASHL1578.PETIQUAY</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ASSANE.DIOP</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ASSANE.NDIAYE</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ATIEH.SEDIGH</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AYMAN.KHALIL</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AYMEN.AMIN</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AYOUB.DEHBI</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AZAD.KIKI</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BASSIM.DIJIDDO</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BIANCA.SIMEONE</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BIJENDER.KUMAR16185</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BLOCHE.BAKELA</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BORIS.GURAU</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BOUBA.BAKARI.ALI</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BRADLEY.ST-PHARDPHILIPPE</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BUDD0680.TENNAKOON</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CARL.NITCHELL.LUCCE</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CHAMKAUR.SINGH</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CHEI145N.BOCOUM</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CHEIKH.TIDIANE.GUEYE</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CHEIKH.TOURABI</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CHERIF.DIALLO</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CHERIFHAMID.ZAKARIA</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CHOROMA.ADOUM.BAYE</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>DEVI789.SINGH</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DEYE.DJAMAL.YOUSSOUF</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>DIAN4065.ENTRIALGO</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>EDIT0934.TUPINO</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ELVIS.NOE.GAHIRWA</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ELYON.ASOMBO</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ERICKA.TCHAMABEU</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>FAIZAN.ALI</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>FAMOUS.ERHUNMWUNSEE</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>FATEMEH.EBRAHIMI</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>FLORENCEMBOMBO.MBUYI</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>FLOYD.MCLEISH</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>FREDRICK.ADEBOGUN</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>GAGA4290.KALSI</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>GAMAL.ALI</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>GARV.SEHGAL</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>GEOR950N.PEREZ</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>GLORIA.MUTONI</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>GURJOT.SINGH14583</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>HAMID.ABDOULAYE.MAHAMAT</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>HARJEET.SINGH</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>HARLEEN.KAUR165211</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>HARMANDEEP.SINGH16001</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>HARPREET.SINGHBARDHAN</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>IREN797N.CABRERA</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ISABELLE.FAYE</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ISSA.MAHAMAT.EZEDINE</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>JASKARAN.SINGH16665</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>JASMEEN.KAUR14691</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>JATHUSHAN.KARTHIGESAR</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>JEAN.ABI.HACHEM</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>JOEL.NIXON</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>JOY.KIZA</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>JUDITH.BARTHOLD</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>KANIKA.KANIKA14970</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>KATEIRENE.TABLADA</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>KATHYANN.SUDAY</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>KAYLEY.GRAY-CYR</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>KEYURIBEN.DHORAJIYA</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>KHALIL.OUSMAN.ABDELMOUNIM</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>KINGSLEY.ANIKE</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>KIRAN.JOT</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>KOMALDEEP.KAUR14903</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>LAMI4482.TARIKT</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>LEMA6769.DOSSO</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>LEONARDO.MEJIAMEJIA</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>LIKEDEEP.SINGH15949</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>LOANA.MBONGO</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>LOVEDEEP.SINGH</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>LOVELEEN.KAUR14293</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>LOWRHY-OTIENO.JAOKO</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>MACLY.BEAUBRUN</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>MADIEULINE.JEANLOUIS</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>MAHAMAT.SALEH.OUMAR</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>MAHAMAT.YAKHOUB.HABIB</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>MAHAMATABAKAR.MAHAMAT</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>MAKEDA.OLLIVIERRE</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>MAMADOU.ADAMS.BARRY</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MAMADOU.GANDODIALLO</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>MAMATA.SORGHO</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>MARIA.GALDAMEZ</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>MARIO.OUIMET</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>MARY0067.BOULIANNEBL</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>MATHIEU.GIASSON</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>MAY.BELLOSILLO</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>MD.ANOWAR.HOSSAIN</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>MICA0432.RIZKALLAMAR</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>MILA1082.PEREZ</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>MIRYAMIN.ALI14605</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>MOHA9588.BADAHMAN</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>MOHAMEDAMINE.SASSOUI</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>MOHAMMED.SALEM</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>MOR.FAYE</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>MOUSTAPHA.ADAM.ABDERAHIM</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>MOUSTAPHA.KEBE</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>MURLIMANOHAR.MOTWANIBHATI</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>MURSAL.MADADYAR</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>MUSKANPREET.KAUR</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>NANCY.WOOD</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>NANDAN.DUTT</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>NAVPREET.KAUR14535</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>NAWAF.HAGE.CHEHADE</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>NICO0711.JANSON</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>NOUHAILAZIAD.ELAMRI</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>OLAWALE.MUBARAK.ABIODUN</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>OLUMIDE.SANUSI</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>OMAR.BAHAMID</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>OMOWONUOLA.BELLO</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>OSCARJOHNREY.CANETE</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>OUMAR.DIOP</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>OUSMANE.KIEMTORE</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>OYETUNJI.HABEEB.OLALEKAN</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>PATI2298.ATSIANGBE</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>PATR5027.AMEH</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>PATRICK.NIYONKURU</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>PAWANKUMAR.BHATTI</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>PIYUSH.SINGLA</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>PRABHJOT.KAUR14909</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>PRAJWAL.SINGH14607</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>PRECIOU.ABIMBOLA</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>PRINCE.FORSON</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>RACHELLE.LEWIS-HOLDER</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>RAHMIE.TAJIDEEN</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>RAJAT.SHARMA</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>RAJWINDER.KAUR164355</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>RAMI9087.SAIHI</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>RASHADAL.ABD</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>RASHIDA.SPEEDE</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>RAVEENA.RAVEENA</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>REX.GOTERA</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>RFBASE</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>RIJO.RAJAN</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>SAHIL.KUMAR14868</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>SAJEELUR.REHMAN15006</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>SAMI.LAMOURI</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>SAMREET.SINGH16186</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>SARVJEET.SINGH14910</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>SATINDER.PAL.SINGH.RATHOR</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>SHIVA.KUMAR.MIRYALA</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>SIMRAN.SIMRAN14162</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>SONIA.BHARTI</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SUKHVEER.SINGH16064</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>SYLVIA.NWOKENKWO</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>TOMA9753.LANDUKULUPE</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>VICTORY.IHEMEJE</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>WINSELMAE.CASTRO</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>YAHAYA.CAMARA</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>YASER.KABOUDANI</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>YEVA.NAZARKINA</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>YOUSSOUF.NAHAR.ISSA</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ZULQERNAIN.SHAIKH</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1602,16 +7953,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="D2" t="n">
-        <v>366</v>
+        <v>1038</v>
       </c>
       <c r="E2" t="n">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
@@ -1619,16 +7970,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C3" t="n">
-        <v>160</v>
+        <v>1385</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>1290</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4">
@@ -1636,16 +7987,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>876</v>
       </c>
       <c r="D4" t="n">
-        <v>96</v>
+        <v>1216</v>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5">
@@ -1653,16 +8004,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1085</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6">
@@ -1672,16 +8023,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="C6" t="n">
-        <v>333</v>
+        <v>3589</v>
       </c>
       <c r="D6" t="n">
-        <v>482</v>
+        <v>4594</v>
       </c>
       <c r="E6" t="n">
-        <v>346</v>
+        <v>2334</v>
       </c>
     </row>
   </sheetData>

--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -10,12 +10,13 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="PUTWALL PICKING" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="SINGLE PACKING" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="REGULAR PICK" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SINGLE PICK" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="REPLENISHMENT PICK" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="QUICK MOVE" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="IDLE TIME" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Total Units picked by hour" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="multi PACKING" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="REGULAR PICK" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SINGLE PICK" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="REPLENISHMENT PICK" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="QUICK MOVE" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="IDLE TIME" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Total Units picked by hour" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,6 +441,139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Regular Pick</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Single Pick</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Replenishment Pick</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Putwall Pick</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n">
+        <v>44</v>
+      </c>
+      <c r="C2" t="n">
+        <v>243</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1038</v>
+      </c>
+      <c r="E2" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="n">
+        <v>83</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1385</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1290</v>
+      </c>
+      <c r="E3" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="n">
+        <v>95</v>
+      </c>
+      <c r="C4" t="n">
+        <v>876</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1216</v>
+      </c>
+      <c r="E4" t="n">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5" t="n">
+        <v>135</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1085</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E5" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>357</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3589</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4594</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1896,6 +2030,731 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>UserID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>multiPackingQuantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>UPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MARIA.GALDAMEZ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>110</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>113.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WINSELMAE.CASTRO</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74</v>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AILYNCASSANDRA.BANGUG</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MARY0067.BOULIANNEBL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>148</v>
+      </c>
+      <c r="C5" t="n">
+        <v>158</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>REX.GOTERA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>79</v>
+      </c>
+      <c r="C6" t="n">
+        <v>86</v>
+      </c>
+      <c r="D6" t="n">
+        <v>55.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SUKHVEER.SINGH16064</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>96</v>
+      </c>
+      <c r="C7" t="n">
+        <v>107</v>
+      </c>
+      <c r="D7" t="n">
+        <v>53.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ASHL1578.PETIQUAY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>131</v>
+      </c>
+      <c r="C8" t="n">
+        <v>148</v>
+      </c>
+      <c r="D8" t="n">
+        <v>53.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>JASMEEN.KAUR14691</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>61</v>
+      </c>
+      <c r="C9" t="n">
+        <v>77</v>
+      </c>
+      <c r="D9" t="n">
+        <v>47.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>OMOWONUOLA.BELLO</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>144</v>
+      </c>
+      <c r="C10" t="n">
+        <v>182</v>
+      </c>
+      <c r="D10" t="n">
+        <v>47.47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GEOR950N.PEREZ</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>130</v>
+      </c>
+      <c r="C11" t="n">
+        <v>166</v>
+      </c>
+      <c r="D11" t="n">
+        <v>46.99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PRABHJOT.KAUR14909</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>33</v>
+      </c>
+      <c r="C12" t="n">
+        <v>47</v>
+      </c>
+      <c r="D12" t="n">
+        <v>42.13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ZULQERNAIN.SHAIKH</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>117</v>
+      </c>
+      <c r="C13" t="n">
+        <v>180</v>
+      </c>
+      <c r="D13" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KANIKA.KANIKA14970</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>38</v>
+      </c>
+      <c r="C14" t="n">
+        <v>61</v>
+      </c>
+      <c r="D14" t="n">
+        <v>37.38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ALABA.ADEGBEYENI</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>78</v>
+      </c>
+      <c r="C15" t="n">
+        <v>133</v>
+      </c>
+      <c r="D15" t="n">
+        <v>35.19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ARIEL.EVANGELISTAREYES</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>82</v>
+      </c>
+      <c r="C16" t="n">
+        <v>144</v>
+      </c>
+      <c r="D16" t="n">
+        <v>34.17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NANDAN.DUTT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>33</v>
+      </c>
+      <c r="C17" t="n">
+        <v>60</v>
+      </c>
+      <c r="D17" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BIJENDER.KUMAR16185</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>74</v>
+      </c>
+      <c r="C18" t="n">
+        <v>136</v>
+      </c>
+      <c r="D18" t="n">
+        <v>32.65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PRECIOU.ABIMBOLA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>57</v>
+      </c>
+      <c r="C19" t="n">
+        <v>107</v>
+      </c>
+      <c r="D19" t="n">
+        <v>31.96</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>VICTORY.IHEMEJE</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>53</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GURJOT.SINGH14583</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>73</v>
+      </c>
+      <c r="D21" t="n">
+        <v>29.59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RAHMIE.TAJIDEEN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>59</v>
+      </c>
+      <c r="D22" t="n">
+        <v>28.47</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CHEI145N.BOCOUM</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>27</v>
+      </c>
+      <c r="C23" t="n">
+        <v>61</v>
+      </c>
+      <c r="D23" t="n">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MILA1082.PEREZ</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>61</v>
+      </c>
+      <c r="C24" t="n">
+        <v>142</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25.77</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BRADLEY.ST-PHARDPHILIPPE</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>65</v>
+      </c>
+      <c r="C25" t="n">
+        <v>152</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25.66</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>JOEL.NIXON</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>128</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25.31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MARIO.OUIMET</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>58</v>
+      </c>
+      <c r="C27" t="n">
+        <v>138</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MOHAMEDAMINE.SASSOUI</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>65</v>
+      </c>
+      <c r="C28" t="n">
+        <v>159</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24.53</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PAWANKUMAR.BHATTI</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>50</v>
+      </c>
+      <c r="C29" t="n">
+        <v>126</v>
+      </c>
+      <c r="D29" t="n">
+        <v>23.81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FLOYD.MCLEISH</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>40</v>
+      </c>
+      <c r="C30" t="n">
+        <v>102</v>
+      </c>
+      <c r="D30" t="n">
+        <v>23.53</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RASHADAL.ABD</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>81</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20.74</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ANAGUI.ALI.MAHAMAT</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>35</v>
+      </c>
+      <c r="C32" t="n">
+        <v>102</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20.59</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BLOCHE.BAKELA</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>23</v>
+      </c>
+      <c r="C33" t="n">
+        <v>69</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ABDULLAH.SALEM.AHMED.BARH</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>112</v>
+      </c>
+      <c r="D34" t="n">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MURSAL.MADADYAR</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>28</v>
+      </c>
+      <c r="C35" t="n">
+        <v>95</v>
+      </c>
+      <c r="D35" t="n">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ASSANE.NDIAYE</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>33</v>
+      </c>
+      <c r="C36" t="n">
+        <v>115</v>
+      </c>
+      <c r="D36" t="n">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TOMA9753.LANDUKULUPE</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>13</v>
+      </c>
+      <c r="C37" t="n">
+        <v>49</v>
+      </c>
+      <c r="D37" t="n">
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RACHELLE.LEWIS-HOLDER</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RASHIDA.SPEEDE</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NANCY.WOOD</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>KATEIRENE.TABLADA</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>JUDITH.BARTHOLD</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NICO0711.JANSON</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Average UPH</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr"/>
+      <c r="C44" s="1" t="inlineStr"/>
+      <c r="D44" s="1" t="n">
+        <v>37.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2407,7 +3266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3996,7 +4855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5553,7 +6412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5966,7 +6825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7905,137 +8764,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Regular Pick</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Single Pick</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Replenishment Pick</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Putwall Pick</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B2" t="n">
-        <v>44</v>
-      </c>
-      <c r="C2" t="n">
-        <v>243</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1038</v>
-      </c>
-      <c r="E2" t="n">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>21</v>
-      </c>
-      <c r="B3" t="n">
-        <v>83</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1385</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1290</v>
-      </c>
-      <c r="E3" t="n">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>22</v>
-      </c>
-      <c r="B4" t="n">
-        <v>95</v>
-      </c>
-      <c r="C4" t="n">
-        <v>876</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1216</v>
-      </c>
-      <c r="E4" t="n">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>23</v>
-      </c>
-      <c r="B5" t="n">
-        <v>135</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1085</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1050</v>
-      </c>
-      <c r="E5" t="n">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>357</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3589</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4594</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2334</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -487,16 +487,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="C2" t="n">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="D2" t="n">
-        <v>1038</v>
+        <v>951</v>
       </c>
       <c r="E2" t="n">
-        <v>276</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3">
@@ -504,16 +504,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C3" t="n">
-        <v>1385</v>
+        <v>348</v>
       </c>
       <c r="D3" t="n">
-        <v>1290</v>
+        <v>1922</v>
       </c>
       <c r="E3" t="n">
-        <v>784</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4">
@@ -521,16 +521,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
-        <v>876</v>
+        <v>301</v>
       </c>
       <c r="D4" t="n">
-        <v>1216</v>
+        <v>1669</v>
       </c>
       <c r="E4" t="n">
-        <v>765</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="5">
@@ -538,16 +538,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
-        <v>1085</v>
+        <v>277</v>
       </c>
       <c r="D5" t="n">
-        <v>1050</v>
+        <v>1277</v>
       </c>
       <c r="E5" t="n">
-        <v>509</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="6">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C6" t="n">
-        <v>3589</v>
+        <v>1223</v>
       </c>
       <c r="D6" t="n">
-        <v>4594</v>
+        <v>5819</v>
       </c>
       <c r="E6" t="n">
-        <v>2334</v>
+        <v>3202</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,685 +613,573 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MARIA.GALDAMEZ</t>
+          <t>AMINE.MAHAMAT.TAHIR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>113.79</v>
+        <v>142.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WINSELMAE.CASTRO</t>
+          <t>AYOUB.DEHBI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>90.61</v>
+        <v>138.57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AILYNCASSANDRA.BANGUG</t>
+          <t>ADAM.MOUSSA.MAHAMAT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>76.59999999999999</v>
+        <v>134.55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MARY0067.BOULIANNEBL</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
-        <v>56.2</v>
+        <v>133.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>REX.GOTERA</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="C6" t="n">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D6" t="n">
-        <v>55.12</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SUKHVEER.SINGH16064</t>
+          <t>DEYE.DJAMAL.YOUSSOUF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C7" t="n">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D7" t="n">
-        <v>53.83</v>
+        <v>126.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ASHL1578.PETIQUAY</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="C8" t="n">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="D8" t="n">
-        <v>53.11</v>
+        <v>124.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JASMEEN.KAUR14691</t>
+          <t>LOVEDEEP.SINGH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="C9" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D9" t="n">
-        <v>47.53</v>
+        <v>122.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OMOWONUOLA.BELLO</t>
+          <t>AYMAN.KHALIL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>54</v>
       </c>
       <c r="D10" t="n">
-        <v>47.47</v>
+        <v>121.11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GEOR950N.PEREZ</t>
+          <t>CHAMKAUR.SINGH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C11" t="n">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="D11" t="n">
-        <v>46.99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PRABHJOT.KAUR14909</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>42.13</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ZULQERNAIN.SHAIKH</t>
+          <t>ADEMOLA.SAMUELFAGBORO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C13" t="n">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KANIKA.KANIKA14970</t>
+          <t>MAMATA.SORGHO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="C14" t="n">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="D14" t="n">
-        <v>37.38</v>
+        <v>104.61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ALABA.ADEGBEYENI</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="C15" t="n">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D15" t="n">
-        <v>35.19</v>
+        <v>99.81999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ARIEL.EVANGELISTAREYES</t>
+          <t>MAHAMAT.SALEH.OUMAR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>34.17</v>
+        <v>98.70999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NANDAN.DUTT</t>
+          <t>MAHAMATABAKAR.MAHAMAT</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>94.78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BIJENDER.KUMAR16185</t>
+          <t>FREDRICK.ADEBOGUN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="C18" t="n">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D18" t="n">
-        <v>32.65</v>
+        <v>92.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PRECIOU.ABIMBOLA</t>
+          <t>SAMI.LAMOURI</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="C19" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D19" t="n">
-        <v>31.96</v>
+        <v>85.95999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VICTORY.IHEMEJE</t>
+          <t>ALIISMAIL.ALI</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="D20" t="n">
-        <v>31.8</v>
+        <v>85.56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GURJOT.SINGH14583</t>
+          <t>AMRITPAL.SINGH16190</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="C21" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D21" t="n">
-        <v>29.59</v>
+        <v>85.34999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RAHMIE.TAJIDEEN</t>
+          <t>SYLVIA.NWOKENKWO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="C22" t="n">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="D22" t="n">
-        <v>28.47</v>
+        <v>54.95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEI145N.BOCOUM</t>
+          <t>FATEMEH.EBRAHIMI</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
-        <v>26.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MILA1082.PEREZ</t>
+          <t>OLA.ATTAR</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
-        <v>25.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BRADLEY.ST-PHARDPHILIPPE</t>
+          <t>ARSHDEEP.KAUR16280</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C25" t="n">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D25" t="n">
-        <v>25.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JOEL.NIXON</t>
+          <t>PRAJWAL.SINGH14607</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C26" t="n">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="D26" t="n">
-        <v>25.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MARIO.OUIMET</t>
+          <t>OMAR2415.BAHAMID</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>25.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MOHAMEDAMINE.SASSOUI</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>159</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>24.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PAWANKUMAR.BHATTI</t>
+          <t>IRENEMAE.CABRERA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>23.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FLOYD.MCLEISH</t>
+          <t>NANDAN.DUTT</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>23.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RASHADAL.ABD</t>
+          <t>ALI.HEIDARI</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>20.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ANAGUI.ALI.MAHAMAT</t>
+          <t>AZAD.KIKI</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C32" t="n">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>20.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BLOCHE.BAKELA</t>
+          <t>DINESH.DINESH16161</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C33" t="n">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ABDULLAH.SALEM.AHMED.BARH</t>
+          <t>ELVIS.NOE.GAHIRWA</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C34" t="n">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>17.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MURSAL.MADADYAR</t>
+          <t>LANDRYGILDAS.MUHIZI</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>17.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ASSANE.NDIAYE</t>
+          <t>AMANDEEP.KAUR3</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C36" t="n">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>17.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>TOMA9753.LANDUKULUPE</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>13</v>
-      </c>
-      <c r="C37" t="n">
-        <v>49</v>
-      </c>
-      <c r="D37" t="n">
-        <v>15.92</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>RACHELLE.LEWIS-HOLDER</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>4</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>RASHIDA.SPEEDE</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>7</v>
-      </c>
-      <c r="C39" t="n">
-        <v>5</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>NANCY.WOOD</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>KATEIRENE.TABLADA</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>12</v>
-      </c>
-      <c r="C41" t="n">
-        <v>10</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>JUDITH.BARTHOLD</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>6</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>NICO0711.JANSON</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>6</v>
-      </c>
-      <c r="C43" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr"/>
-      <c r="C44" s="1" t="inlineStr"/>
-      <c r="D44" s="1" t="n">
-        <v>37.4</v>
+      <c r="B37" s="1" t="inlineStr"/>
+      <c r="C37" s="1" t="inlineStr"/>
+      <c r="D37" s="1" t="n">
+        <v>110.5</v>
       </c>
     </row>
   </sheetData>
@@ -1305,7 +1193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1338,685 +1226,573 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MARIA.GALDAMEZ</t>
+          <t>AMINE.MAHAMAT.TAHIR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>113.79</v>
+        <v>142.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WINSELMAE.CASTRO</t>
+          <t>AYOUB.DEHBI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>90.61</v>
+        <v>138.57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AILYNCASSANDRA.BANGUG</t>
+          <t>ADAM.MOUSSA.MAHAMAT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>76.59999999999999</v>
+        <v>134.55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MARY0067.BOULIANNEBL</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
-        <v>56.2</v>
+        <v>133.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>REX.GOTERA</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="C6" t="n">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D6" t="n">
-        <v>55.12</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SUKHVEER.SINGH16064</t>
+          <t>DEYE.DJAMAL.YOUSSOUF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C7" t="n">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D7" t="n">
-        <v>53.83</v>
+        <v>126.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ASHL1578.PETIQUAY</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="C8" t="n">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="D8" t="n">
-        <v>53.11</v>
+        <v>124.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JASMEEN.KAUR14691</t>
+          <t>LOVEDEEP.SINGH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="C9" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D9" t="n">
-        <v>47.53</v>
+        <v>122.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OMOWONUOLA.BELLO</t>
+          <t>AYMAN.KHALIL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>54</v>
       </c>
       <c r="D10" t="n">
-        <v>47.47</v>
+        <v>121.11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GEOR950N.PEREZ</t>
+          <t>CHAMKAUR.SINGH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C11" t="n">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="D11" t="n">
-        <v>46.99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PRABHJOT.KAUR14909</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>42.13</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ZULQERNAIN.SHAIKH</t>
+          <t>ADEMOLA.SAMUELFAGBORO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C13" t="n">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KANIKA.KANIKA14970</t>
+          <t>MAMATA.SORGHO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="C14" t="n">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="D14" t="n">
-        <v>37.38</v>
+        <v>104.61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ALABA.ADEGBEYENI</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="C15" t="n">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D15" t="n">
-        <v>35.19</v>
+        <v>99.81999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ARIEL.EVANGELISTAREYES</t>
+          <t>MAHAMAT.SALEH.OUMAR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>34.17</v>
+        <v>98.70999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NANDAN.DUTT</t>
+          <t>MAHAMATABAKAR.MAHAMAT</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>94.78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BIJENDER.KUMAR16185</t>
+          <t>FREDRICK.ADEBOGUN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="C18" t="n">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D18" t="n">
-        <v>32.65</v>
+        <v>92.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PRECIOU.ABIMBOLA</t>
+          <t>SAMI.LAMOURI</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="C19" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D19" t="n">
-        <v>31.96</v>
+        <v>85.95999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VICTORY.IHEMEJE</t>
+          <t>ALIISMAIL.ALI</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="D20" t="n">
-        <v>31.8</v>
+        <v>85.56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GURJOT.SINGH14583</t>
+          <t>AMRITPAL.SINGH16190</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="C21" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D21" t="n">
-        <v>29.59</v>
+        <v>85.34999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RAHMIE.TAJIDEEN</t>
+          <t>SYLVIA.NWOKENKWO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="C22" t="n">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="D22" t="n">
-        <v>28.47</v>
+        <v>54.95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEI145N.BOCOUM</t>
+          <t>FATEMEH.EBRAHIMI</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
-        <v>26.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MILA1082.PEREZ</t>
+          <t>OLA.ATTAR</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
-        <v>25.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BRADLEY.ST-PHARDPHILIPPE</t>
+          <t>ARSHDEEP.KAUR16280</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C25" t="n">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D25" t="n">
-        <v>25.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JOEL.NIXON</t>
+          <t>PRAJWAL.SINGH14607</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C26" t="n">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="D26" t="n">
-        <v>25.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MARIO.OUIMET</t>
+          <t>OMAR2415.BAHAMID</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>25.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MOHAMEDAMINE.SASSOUI</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>159</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>24.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PAWANKUMAR.BHATTI</t>
+          <t>IRENEMAE.CABRERA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>23.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FLOYD.MCLEISH</t>
+          <t>NANDAN.DUTT</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>23.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RASHADAL.ABD</t>
+          <t>ALI.HEIDARI</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>20.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ANAGUI.ALI.MAHAMAT</t>
+          <t>AZAD.KIKI</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C32" t="n">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>20.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BLOCHE.BAKELA</t>
+          <t>DINESH.DINESH16161</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C33" t="n">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ABDULLAH.SALEM.AHMED.BARH</t>
+          <t>ELVIS.NOE.GAHIRWA</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C34" t="n">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>17.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MURSAL.MADADYAR</t>
+          <t>LANDRYGILDAS.MUHIZI</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>17.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ASSANE.NDIAYE</t>
+          <t>AMANDEEP.KAUR3</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C36" t="n">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>17.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>TOMA9753.LANDUKULUPE</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>13</v>
-      </c>
-      <c r="C37" t="n">
-        <v>49</v>
-      </c>
-      <c r="D37" t="n">
-        <v>15.92</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>RACHELLE.LEWIS-HOLDER</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>4</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>RASHIDA.SPEEDE</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>7</v>
-      </c>
-      <c r="C39" t="n">
-        <v>5</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>NANCY.WOOD</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>KATEIRENE.TABLADA</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>12</v>
-      </c>
-      <c r="C41" t="n">
-        <v>10</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>JUDITH.BARTHOLD</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>6</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>NICO0711.JANSON</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>6</v>
-      </c>
-      <c r="C43" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr"/>
-      <c r="C44" s="1" t="inlineStr"/>
-      <c r="D44" s="1" t="n">
-        <v>37.4</v>
+      <c r="B37" s="1" t="inlineStr"/>
+      <c r="C37" s="1" t="inlineStr"/>
+      <c r="D37" s="1" t="n">
+        <v>110.5</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +1806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2063,685 +1839,573 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MARIA.GALDAMEZ</t>
+          <t>AMINE.MAHAMAT.TAHIR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>113.79</v>
+        <v>142.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WINSELMAE.CASTRO</t>
+          <t>AYOUB.DEHBI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>90.61</v>
+        <v>138.57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AILYNCASSANDRA.BANGUG</t>
+          <t>ADAM.MOUSSA.MAHAMAT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>76.59999999999999</v>
+        <v>134.55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MARY0067.BOULIANNEBL</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
-        <v>56.2</v>
+        <v>133.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>REX.GOTERA</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="C6" t="n">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D6" t="n">
-        <v>55.12</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SUKHVEER.SINGH16064</t>
+          <t>DEYE.DJAMAL.YOUSSOUF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C7" t="n">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D7" t="n">
-        <v>53.83</v>
+        <v>126.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ASHL1578.PETIQUAY</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="C8" t="n">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="D8" t="n">
-        <v>53.11</v>
+        <v>124.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JASMEEN.KAUR14691</t>
+          <t>LOVEDEEP.SINGH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="C9" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D9" t="n">
-        <v>47.53</v>
+        <v>122.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OMOWONUOLA.BELLO</t>
+          <t>AYMAN.KHALIL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>54</v>
       </c>
       <c r="D10" t="n">
-        <v>47.47</v>
+        <v>121.11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GEOR950N.PEREZ</t>
+          <t>CHAMKAUR.SINGH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C11" t="n">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="D11" t="n">
-        <v>46.99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PRABHJOT.KAUR14909</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="C12" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>42.13</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ZULQERNAIN.SHAIKH</t>
+          <t>ADEMOLA.SAMUELFAGBORO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C13" t="n">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KANIKA.KANIKA14970</t>
+          <t>MAMATA.SORGHO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="C14" t="n">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="D14" t="n">
-        <v>37.38</v>
+        <v>104.61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ALABA.ADEGBEYENI</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="C15" t="n">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D15" t="n">
-        <v>35.19</v>
+        <v>99.81999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ARIEL.EVANGELISTAREYES</t>
+          <t>MAHAMAT.SALEH.OUMAR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>34.17</v>
+        <v>98.70999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NANDAN.DUTT</t>
+          <t>MAHAMATABAKAR.MAHAMAT</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>94.78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BIJENDER.KUMAR16185</t>
+          <t>FREDRICK.ADEBOGUN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="C18" t="n">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D18" t="n">
-        <v>32.65</v>
+        <v>92.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PRECIOU.ABIMBOLA</t>
+          <t>SAMI.LAMOURI</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="C19" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D19" t="n">
-        <v>31.96</v>
+        <v>85.95999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VICTORY.IHEMEJE</t>
+          <t>ALIISMAIL.ALI</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="D20" t="n">
-        <v>31.8</v>
+        <v>85.56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GURJOT.SINGH14583</t>
+          <t>AMRITPAL.SINGH16190</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="C21" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D21" t="n">
-        <v>29.59</v>
+        <v>85.34999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RAHMIE.TAJIDEEN</t>
+          <t>SYLVIA.NWOKENKWO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="C22" t="n">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="D22" t="n">
-        <v>28.47</v>
+        <v>54.95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEI145N.BOCOUM</t>
+          <t>FATEMEH.EBRAHIMI</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
-        <v>26.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MILA1082.PEREZ</t>
+          <t>OLA.ATTAR</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
-        <v>25.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BRADLEY.ST-PHARDPHILIPPE</t>
+          <t>ARSHDEEP.KAUR16280</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C25" t="n">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="D25" t="n">
-        <v>25.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JOEL.NIXON</t>
+          <t>PRAJWAL.SINGH14607</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C26" t="n">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="D26" t="n">
-        <v>25.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MARIO.OUIMET</t>
+          <t>OMAR2415.BAHAMID</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>25.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MOHAMEDAMINE.SASSOUI</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>159</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>24.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PAWANKUMAR.BHATTI</t>
+          <t>IRENEMAE.CABRERA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>23.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FLOYD.MCLEISH</t>
+          <t>NANDAN.DUTT</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>23.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RASHADAL.ABD</t>
+          <t>ALI.HEIDARI</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>20.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ANAGUI.ALI.MAHAMAT</t>
+          <t>AZAD.KIKI</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C32" t="n">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>20.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BLOCHE.BAKELA</t>
+          <t>DINESH.DINESH16161</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C33" t="n">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ABDULLAH.SALEM.AHMED.BARH</t>
+          <t>ELVIS.NOE.GAHIRWA</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C34" t="n">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>17.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MURSAL.MADADYAR</t>
+          <t>LANDRYGILDAS.MUHIZI</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>17.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ASSANE.NDIAYE</t>
+          <t>AMANDEEP.KAUR3</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C36" t="n">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>17.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>TOMA9753.LANDUKULUPE</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>13</v>
-      </c>
-      <c r="C37" t="n">
-        <v>49</v>
-      </c>
-      <c r="D37" t="n">
-        <v>15.92</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>RACHELLE.LEWIS-HOLDER</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>4</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>RASHIDA.SPEEDE</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>7</v>
-      </c>
-      <c r="C39" t="n">
-        <v>5</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>NANCY.WOOD</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>KATEIRENE.TABLADA</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>12</v>
-      </c>
-      <c r="C41" t="n">
-        <v>10</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>JUDITH.BARTHOLD</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>6</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>NICO0711.JANSON</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>6</v>
-      </c>
-      <c r="C43" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr"/>
-      <c r="C44" s="1" t="inlineStr"/>
-      <c r="D44" s="1" t="n">
-        <v>37.4</v>
+      <c r="B37" s="1" t="inlineStr"/>
+      <c r="C37" s="1" t="inlineStr"/>
+      <c r="D37" s="1" t="n">
+        <v>110.5</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +2419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2783,365 +2447,365 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>ADAM.MOUSSA.MAHAMAT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2727272727272728</v>
+        <v>8.755364806866952</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMOY8935.VICTOR</t>
+          <t>ADEMOLA.SAMUELFAGBORO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5454545454545455</v>
+        <v>10.30042918454936</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMRITPAL.SINGH16190</t>
+          <t>ALI.HEIDARI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2.832618025751073</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AZAD.KIKI</t>
+          <t>ALIISMAIL.ALI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2727272727272728</v>
+        <v>1.28755364806867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
+          <t>AMINE.MAHAMAT.TAHIR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5454545454545455</v>
+        <v>4.120171673819742</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>AYOUB.DEHBI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>2.181818181818182</v>
+        <v>5.407725321888412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EDIT0934.TUPINO</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2727272727272728</v>
+        <v>0.2575107296137339</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FATEMEH.EBRAHIMI</t>
+          <t>CHAMKAUR.SINGH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2727272727272728</v>
+        <v>9.270386266094421</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GAMAL.ALI</t>
+          <t>DEYE.DJAMAL.YOUSSOUF</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>1.909090909090909</v>
+        <v>4.635193133047211</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GARV.SEHGAL</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2.454545454545455</v>
+        <v>0.2575107296137339</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HARJEET.SINGH</t>
+          <t>FATEMEH.EBRAHIMI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.5150214592274678</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HARLEEN.KAUR165211</t>
+          <t>GAMAL.ALI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8181818181818182</v>
+        <v>1.545064377682403</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HARMANDEEP.SINGH16001</t>
+          <t>JATHUSHAN.KARTHIGESAR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>5.181818181818182</v>
+        <v>1.802575107296137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HARPREET.SINGHBARDHAN</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>2.181818181818182</v>
+        <v>0.7725321888412017</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>KAYLEY.GRAY-CYR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2727272727272728</v>
+        <v>1.030042918454936</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ISABELLE.FAYE</t>
+          <t>KHINEHAYMAR.THAUNG</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>5.181818181818182</v>
+        <v>0.5150214592274678</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JOY.KIZA</t>
+          <t>LANDRYGILDAS.MUHIZI</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>1.090909090909091</v>
+        <v>2.060085836909871</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>4.636363636363637</v>
+        <v>1.030042918454936</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KINGSLEY.ANIKE</t>
+          <t>MAHAMAT.SALEH.OUMAR</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>6.272727272727273</v>
+        <v>4.635193133047211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KIRAN.JOT</t>
+          <t>MELA6559.ROCHETTE</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5454545454545455</v>
+        <v>3.862660944206008</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KOMALDEEP.KAUR14903</t>
+          <t>MIKAEL.SAMUEL</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C22" t="n">
-        <v>1.636363636363636</v>
+        <v>5.92274678111588</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LEMA6769.DOSSO</t>
+          <t>MOR.FAYE</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2.181818181818182</v>
+        <v>0.2575107296137339</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LIKEDEEP.SINGH15949</t>
+          <t>MUSKANPREET.KAUR</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>1.090909090909091</v>
+        <v>2.060085836909871</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LOVELEEN.KAUR14293</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>4.363636363636364</v>
+        <v>0.2575107296137339</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OMAR.BAHAMID</t>
+          <t>OLA.ATTAR</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>3.545454545454545</v>
+        <v>0.2575107296137339</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PATI2298.ATSIANGBE</t>
+          <t>OLUMIDE.SANUSI</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>1.363636363636364</v>
+        <v>0.7725321888412017</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>OUMOU.DOUKOURE</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8181818181818182</v>
+        <v>1.28755364806867</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RAJAT.SHARMA</t>
+          <t>PRAJWAL.SINGH14607</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4.377682403433476</v>
       </c>
     </row>
     <row r="30">
@@ -3151,114 +2815,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>7.090909090909091</v>
+        <v>3.862660944206008</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RAVEENA.RAVEENA</t>
+          <t>SAMI.LAMOURI</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>2.181818181818182</v>
+        <v>3.862660944206008</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RIJO.RAJAN</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C32" t="n">
-        <v>1.090909090909091</v>
+        <v>4.635193133047211</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SAHIL.KUMAR14868</t>
+          <t>XYZE1559.MACASIL</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>3.545454545454545</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>SAJEELUR.REHMAN15006</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>6</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1.636363636363636</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>SIMRAN.SIMRAN14162</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>16</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4.363636363636364</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>SYLVIA.NWOKENKWO</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>23</v>
-      </c>
-      <c r="C36" t="n">
-        <v>6.272727272727273</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>THIE6554.DIALLO</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>22</v>
-      </c>
-      <c r="C37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ZAHIDGUL.MINHAS</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>20</v>
-      </c>
-      <c r="C38" t="n">
-        <v>5.454545454545455</v>
+        <v>0.2575107296137339</v>
       </c>
     </row>
   </sheetData>
@@ -3272,7 +2871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3305,1549 +2904,541 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHOROMA.ADOUM.BAYE</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>216</v>
+        <v>115.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MATHIEU.GIASSON</t>
+          <t>ABDUL.KHALIL.ADEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>121.6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>MUSKANPREET.KAUR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224</v>
+        <v>59</v>
       </c>
       <c r="C4" t="n">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="D4" t="n">
-        <v>118.9</v>
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OUMAR.DIOP</t>
+          <t>MOHAMMED.SALEM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D5" t="n">
-        <v>110</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAHAMAT.YAKHOUB.HABIB</t>
+          <t>PATRICK.NIYONKURU</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>89.3</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAMADOU.ADAMS.BARRY</t>
+          <t>KAYLEY.GRAY-CYR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>75.8</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HAMID.ABDOULAYE.MAHAMAT</t>
+          <t>OUSMANE.KIEMTORE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D8" t="n">
-        <v>74.2</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ANDRIX.JULIEN</t>
+          <t>HAMID.ABDOULAYE.MAHAMAT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C9" t="n">
         <v>62</v>
       </c>
       <c r="D9" t="n">
-        <v>70.59999999999999</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GAGA4290.KALSI</t>
+          <t>MIKAEL.SAMUEL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10" t="n">
-        <v>69.7</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OSCARJOHNREY.CANETE</t>
+          <t>YEVA.NAZARKINA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D11" t="n">
-        <v>69.59999999999999</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>MACLY.BEAUBRUN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>221</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="D12" t="n">
-        <v>65.59999999999999</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MURLIMANOHAR.MOTWANIBHATI</t>
+          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C13" t="n">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="D13" t="n">
-        <v>64.59999999999999</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BOUBA.BAKARI.ALI</t>
+          <t>HARLEEN.KAUR165211</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C14" t="n">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="D14" t="n">
-        <v>64.3</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ADELINENTUMBA.KANKU</t>
+          <t>JEAN.ABI.HACHEM</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MACLY.BEAUBRUN</t>
+          <t>YASER.KABOUDANI</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C16" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
-        <v>58.9</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JOY.KIZA</t>
+          <t>CHOROMA.ADOUM.BAYE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="D17" t="n">
-        <v>55.9</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RIJO.RAJAN</t>
+          <t>OMAR.BAHAMID</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D18" t="n">
-        <v>52.5</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PRAJWAL.SINGH14607</t>
+          <t>KATHYANN.SUDAY</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>52.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PRINCE.FORSON</t>
+          <t>MOHA9588.BADAHMAN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D20" t="n">
-        <v>51.9</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MAHAMAT.SALEH.OUMAR</t>
+          <t>ASSANE.DIOP</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C21" t="n">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="D21" t="n">
-        <v>50.3</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LEONARDO.MEJIAMEJIA</t>
+          <t>ANWAR.ALAGDAL</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C22" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D22" t="n">
-        <v>48.4</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OLUMIDE.SANUSI</t>
+          <t>CARL.NITCHELL.LUCCE</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C23" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" t="n">
-        <v>48</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MOHA9588.BADAHMAN</t>
+          <t>SHIVA.KUMAR.MIRYALA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="C24" t="n">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>47.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEIKH.TOURABI</t>
+          <t>BASSIM.DIJIDDO</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>47.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JASKARAN.SINGH16665</t>
+          <t>OUMOU.DOUKOURE</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C26" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D26" t="n">
-        <v>46.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ABDELLAHI.LY</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C27" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>46.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SAMREET.SINGH16186</t>
+          <t>OLUMIDE.SANUSI</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>45.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>JEAN.ABI.HACHEM</t>
+          <t>MOR.FAYE</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>42.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EDIT0934.TUPINO</t>
+          <t>CHERIF.DIALLO</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LOVEDEEP.SINGH</t>
+          <t>GAMAL.ALI</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ELVIS.NOE.GAHIRWA</t>
+          <t>JATHUSHAN.KARTHIGESAR</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>37.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MAHAMATABAKAR.MAHAMAT</t>
+          <t>FAIZAN.ALI</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="D33" t="n">
-        <v>37.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AHMAT.ABAKAR.BOUKAR</t>
+          <t>KANIKA.KANIKA14970</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>ABDUL.KHALIL.ADEL</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>64</v>
-      </c>
-      <c r="C35" t="n">
-        <v>107</v>
-      </c>
-      <c r="D35" t="n">
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>CHAMKAUR.SINGH</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>103</v>
-      </c>
-      <c r="C36" t="n">
-        <v>174</v>
-      </c>
-      <c r="D36" t="n">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>CHERIFHAMID.ZAKARIA</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>66</v>
-      </c>
-      <c r="C37" t="n">
-        <v>112</v>
-      </c>
-      <c r="D37" t="n">
-        <v>35.4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ATIEH.SEDIGH</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>93</v>
-      </c>
-      <c r="C38" t="n">
-        <v>165</v>
-      </c>
-      <c r="D38" t="n">
-        <v>33.8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>BASSIM.DIJIDDO</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>18</v>
-      </c>
-      <c r="C39" t="n">
-        <v>33</v>
-      </c>
-      <c r="D39" t="n">
-        <v>32.7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>JATHUSHAN.KARTHIGESAR</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>52</v>
-      </c>
-      <c r="C40" t="n">
-        <v>98</v>
-      </c>
-      <c r="D40" t="n">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>FREDRICK.ADEBOGUN</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>26</v>
-      </c>
-      <c r="C41" t="n">
-        <v>51</v>
-      </c>
-      <c r="D41" t="n">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>MOR.FAYE</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>25</v>
-      </c>
-      <c r="C42" t="n">
-        <v>49</v>
-      </c>
-      <c r="D42" t="n">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>MOUSTAPHA.KEBE</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>17</v>
-      </c>
-      <c r="C43" t="n">
-        <v>34</v>
-      </c>
-      <c r="D43" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>ERICKA.TCHAMABEU</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>26</v>
-      </c>
-      <c r="C44" t="n">
-        <v>54</v>
-      </c>
-      <c r="D44" t="n">
-        <v>28.9</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>BIANCA.SIMEONE</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>23</v>
-      </c>
-      <c r="C45" t="n">
-        <v>49</v>
-      </c>
-      <c r="D45" t="n">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>AKIK.BASHAR</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>63</v>
-      </c>
-      <c r="C46" t="n">
-        <v>143</v>
-      </c>
-      <c r="D46" t="n">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>ABDRAMANE.HASSAN.ISSA</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>33</v>
-      </c>
-      <c r="C47" t="n">
-        <v>82</v>
-      </c>
-      <c r="D47" t="n">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ELYON.ASOMBO</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>19</v>
-      </c>
-      <c r="C48" t="n">
-        <v>52</v>
-      </c>
-      <c r="D48" t="n">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>OLAWALE.MUBARAK.ABIODUN</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>17</v>
-      </c>
-      <c r="C49" t="n">
-        <v>18</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>OMAR.BAHAMID</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>14</v>
-      </c>
-      <c r="C50" t="n">
-        <v>9</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>NAWAF.HAGE.CHEHADE</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>7</v>
-      </c>
-      <c r="C51" t="n">
-        <v>8</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>NAVPREET.KAUR14535</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>17</v>
-      </c>
-      <c r="C52" t="n">
-        <v>16</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>ABAKAR.CHOUKOU</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>22</v>
-      </c>
-      <c r="C53" t="n">
-        <v>23</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>OUSMANE.KIEMTORE</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>18</v>
-      </c>
-      <c r="C54" t="n">
-        <v>18</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>OYETUNJI.HABEEB.OLALEKAN</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>22</v>
-      </c>
-      <c r="C55" t="n">
-        <v>19</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>PATRICK.NIYONKURU</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>14</v>
-      </c>
-      <c r="C56" t="n">
-        <v>16</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>PIYUSH.SINGLA</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>15</v>
-      </c>
-      <c r="C57" t="n">
-        <v>23</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>RAJAT.SHARMA</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>3</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>RAJWINDER.KAUR164355</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>20</v>
-      </c>
-      <c r="C59" t="n">
-        <v>22</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>RAVEENA.RAVEENA</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3</v>
-      </c>
-      <c r="C60" t="n">
-        <v>7</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>SAHIL.KUMAR14868</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>4</v>
-      </c>
-      <c r="C61" t="n">
-        <v>6</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>SAJEELUR.REHMAN15006</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>27</v>
-      </c>
-      <c r="C62" t="n">
-        <v>25</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>SAMI.LAMOURI</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>SIMRAN.SIMRAN14162</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>7</v>
-      </c>
-      <c r="C64" t="n">
-        <v>8</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>SONIA.BHARTI</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>4</v>
-      </c>
-      <c r="C65" t="n">
-        <v>4</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>SYLVIA.NWOKENKWO</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>14</v>
-      </c>
-      <c r="C66" t="n">
-        <v>15</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>YAHAYA.CAMARA</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>21</v>
-      </c>
-      <c r="C67" t="n">
-        <v>20</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>RFBASE</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>LEMA6769.DOSSO</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>5</v>
-      </c>
-      <c r="C69" t="n">
-        <v>7</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>MOHAMMED.SALEM</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>28</v>
-      </c>
-      <c r="C70" t="n">
-        <v>25</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>MD.ANOWAR.HOSSAIN</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>5</v>
-      </c>
-      <c r="C71" t="n">
-        <v>9</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>ABDRAMANE.YAYA.BECHIR</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>19</v>
-      </c>
-      <c r="C72" t="n">
-        <v>29</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>ADEMOLA.SAMUELFAGBORO</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>AMANDEEP.KAUR3</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>15</v>
-      </c>
-      <c r="C74" t="n">
-        <v>14</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>AMRITPAL.SINGH16190</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>7</v>
-      </c>
-      <c r="C75" t="n">
-        <v>8</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>AMRITPALSINGH.PUREWAL</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>16</v>
-      </c>
-      <c r="C76" t="n">
-        <v>15</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>ANWAR.ALAGDAL</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>14</v>
-      </c>
-      <c r="C77" t="n">
-        <v>10</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>ARSENE.LOULENDO</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>36</v>
-      </c>
-      <c r="C78" t="n">
-        <v>26</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>CHERIF.DIALLO</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>11</v>
-      </c>
-      <c r="C79" t="n">
-        <v>9</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>10</v>
-      </c>
-      <c r="C80" t="n">
-        <v>18</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>FAIZAN.ALI</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>16</v>
-      </c>
-      <c r="C81" t="n">
-        <v>23</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>GAMAL.ALI</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>34</v>
-      </c>
-      <c r="C82" t="n">
-        <v>24</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>GARV.SEHGAL</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>4</v>
-      </c>
-      <c r="C83" t="n">
-        <v>5</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>GLORIA.MUTONI</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>19</v>
-      </c>
-      <c r="C84" t="n">
-        <v>25</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>HARLEEN.KAUR165211</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>21</v>
-      </c>
-      <c r="C85" t="n">
-        <v>29</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>HARMANDEEP.SINGH16001</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>5</v>
-      </c>
-      <c r="C86" t="n">
-        <v>7</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>ISSA.MAHAMAT.EZEDINE</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>16</v>
-      </c>
-      <c r="C87" t="n">
-        <v>17</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>KATHYANN.SUDAY</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>25</v>
-      </c>
-      <c r="C88" t="n">
-        <v>23</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>KEYURIBEN.DHORAJIYA</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>16</v>
-      </c>
-      <c r="C89" t="n">
-        <v>22</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>KINGSLEY.ANIKE</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>16</v>
-      </c>
-      <c r="C90" t="n">
-        <v>12</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>KOMALDEEP.KAUR14903</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>10</v>
-      </c>
-      <c r="C91" t="n">
-        <v>9</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>LIKEDEEP.SINGH15949</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>12</v>
-      </c>
-      <c r="C92" t="n">
-        <v>17</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>LOVELEEN.KAUR14293</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>2</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>73</v>
-      </c>
-      <c r="C94" t="n">
-        <v>28</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>MADIEULINE.JEANLOUIS</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>10</v>
-      </c>
-      <c r="C95" t="n">
-        <v>8</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>MAMADOU.GANDODIALLO</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>26</v>
-      </c>
-      <c r="C96" t="n">
-        <v>21</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>YOUSSOUF.NAHAR.ISSA</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>11</v>
-      </c>
-      <c r="C97" t="n">
-        <v>12</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B98" s="1" t="inlineStr"/>
-      <c r="C98" s="1" t="inlineStr"/>
-      <c r="D98" s="1" t="n">
-        <v>54.9</v>
+      <c r="B35" s="1" t="inlineStr"/>
+      <c r="C35" s="1" t="inlineStr"/>
+      <c r="D35" s="1" t="n">
+        <v>48.2</v>
       </c>
     </row>
   </sheetData>
@@ -4861,7 +3452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4894,1517 +3485,989 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NAVPREET.KAUR14535</t>
+          <t>SONIA.BHARTI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109</v>
+        <v>374</v>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="D2" t="n">
-        <v>96.2</v>
+        <v>143.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KOMALDEEP.KAUR14903</t>
+          <t>OMAR.BAHAMID</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="C3" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>95.59999999999999</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GAMAL.ALI</t>
+          <t>YEVA.NAZARKINA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D4" t="n">
-        <v>94.40000000000001</v>
+        <v>84.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AMANDEEP.KAUR3</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="D5" t="n">
-        <v>92.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>ANWAR.ALAGDAL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>87.3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMRITPALSINGH.PUREWAL</t>
+          <t>GAMAL.ALI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="D7" t="n">
-        <v>87</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FAIZAN.ALI</t>
+          <t>MUSKANPREET.KAUR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D8" t="n">
-        <v>85.5</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OMAR.BAHAMID</t>
+          <t>OUSMANE.KIEMTORE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="C9" t="n">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="D9" t="n">
-        <v>84.90000000000001</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHERIFHAMID.ZAKARIA</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>81.2</v>
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ANWAR.ALAGDAL</t>
+          <t>RAJWINDER.KAUR164355</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="C11" t="n">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="D11" t="n">
-        <v>80.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MOHAMMED.SALEM</t>
+          <t>YASER.KABOUDANI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C12" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>YAHAYA.CAMARA</t>
+          <t>SATINDER.PAL.SINGH.RATHOR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C13" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D13" t="n">
-        <v>78.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MURLIMANOHAR.MOTWANIBHATI</t>
+          <t>SHAKSHI.BANSAL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="C14" t="n">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="D14" t="n">
-        <v>77</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ANDRIX.JULIEN</t>
+          <t>KATHYANN.SUDAY</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D15" t="n">
-        <v>74.7</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SONIA.BHARTI</t>
+          <t>SAJEELUR.REHMAN15006</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="C16" t="n">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="D16" t="n">
-        <v>74.3</v>
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AMINE.MAHAMAT.TAHIR</t>
+          <t>OLUMIDE.SANUSI</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="C17" t="n">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="D17" t="n">
-        <v>73.09999999999999</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>YOUSSOUF.NAHAR.ISSA</t>
+          <t>JEAN.ABI.HACHEM</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="C18" t="n">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="D18" t="n">
-        <v>65.90000000000001</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KATHYANN.SUDAY</t>
+          <t>HAMID.ABDOULAYE.MAHAMAT</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="C19" t="n">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="D19" t="n">
-        <v>65.59999999999999</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GAGA4290.KALSI</t>
+          <t>MOR.FAYE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="C20" t="n">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="D20" t="n">
-        <v>61.4</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AMRITPAL.SINGH16190</t>
+          <t>ABDUL.KHALIL.ADEL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="C21" t="n">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="D21" t="n">
-        <v>58.9</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KAYLEY.GRAY-CYR</t>
+          <t>MELA6559.ROCHETTE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C22" t="n">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D22" t="n">
-        <v>58.6</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ADAM.MOUSSA.MAHAMAT</t>
+          <t>KAYLEY.GRAY-CYR</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C23" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D23" t="n">
-        <v>56.2</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RAJAT.SHARMA</t>
+          <t>MOHAMMED.SALEM</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C24" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D24" t="n">
-        <v>55.9</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RIJO.RAJAN</t>
+          <t>MIKAEL.SAMUEL</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
-        <v>54.8</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LOVELEEN.KAUR14293</t>
+          <t>OUMOU.DOUKOURE</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C26" t="n">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D26" t="n">
-        <v>54.5</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RAVEENA.RAVEENA</t>
+          <t>BASSIM.DIJIDDO</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C27" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D27" t="n">
-        <v>54.3</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HARLEEN.KAUR165211</t>
+          <t>SHIVA.KUMAR.MIRYALA</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C28" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D28" t="n">
-        <v>53.3</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ARSHDEEP.KAUR16280</t>
+          <t>MAY.BELLOSILLO</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="C29" t="n">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="D29" t="n">
-        <v>53.3</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SIMRAN.SIMRAN14162</t>
+          <t>PATRICK.NIYONKURU</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C30" t="n">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D30" t="n">
-        <v>53.1</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KINGSLEY.ANIKE</t>
+          <t>MD.ANOWAR.HOSSAIN</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C31" t="n">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="D31" t="n">
-        <v>53</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SATINDER.PAL.SINGH.RATHOR</t>
+          <t>SUSHMITA.PAUL</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C32" t="n">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D32" t="n">
-        <v>50.3</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JOY.KIZA</t>
+          <t>OSCARJOHNREY.CANETE</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="C33" t="n">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="D33" t="n">
-        <v>47.8</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAY.BELLOSILLO</t>
+          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="C34" t="n">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="D34" t="n">
-        <v>46.4</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LEMA6769.DOSSO</t>
+          <t>YOUSSOUF.NAHAR.ISSA</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="C35" t="n">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="D35" t="n">
-        <v>46.1</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MIRYAMIN.ALI14605</t>
+          <t>CHERIF.DIALLO</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="C36" t="n">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="D36" t="n">
-        <v>45.3</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BORIS.GURAU</t>
+          <t>FAIZAN.ALI</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="C37" t="n">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="D37" t="n">
-        <v>45</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HARMANDEEP.SINGH16001</t>
+          <t>MIRYAMIN.ALI14605</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C38" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D38" t="n">
-        <v>44.8</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GARV.SEHGAL</t>
+          <t>KANIKA.KANIKA14970</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C39" t="n">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="D39" t="n">
-        <v>44.7</v>
+        <v>40.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LIKEDEEP.SINGH15949</t>
+          <t>MOHA9588.BADAHMAN</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C40" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D40" t="n">
-        <v>44.5</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MAHAMATABAKAR.MAHAMAT</t>
+          <t>JATHUSHAN.KARTHIGESAR</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C41" t="n">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="D41" t="n">
-        <v>44.3</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SAHIL.KUMAR14868</t>
+          <t>ABDRAMANE.YAYA.BECHIR</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="C42" t="n">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="D42" t="n">
-        <v>41.4</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RAJWINDER.KAUR164355</t>
+          <t>ARSENE.LOULENDO</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C43" t="n">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="D43" t="n">
-        <v>39.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MACLY.BEAUBRUN</t>
+          <t>CARL.NITCHELL.LUCCE</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C44" t="n">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="D44" t="n">
-        <v>39.4</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ABDRAMANE.HASSAN.ISSA</t>
+          <t>SIMRAN.SIMRAN14162</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="D45" t="n">
-        <v>39.4</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PIYUSH.SINGLA</t>
+          <t>MAMADOU.ADAMS.BARRY</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C46" t="n">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="D46" t="n">
-        <v>38.8</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ARWIND.KUMAR</t>
+          <t>MACLY.BEAUBRUN</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C47" t="n">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="D47" t="n">
-        <v>38.6</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>AHMAT.ABAKAR.BOUKAR</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C48" t="n">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="D48" t="n">
-        <v>38.3</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHERIF.DIALLO</t>
+          <t>ARSHDEEP.KAUR16280</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C49" t="n">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D49" t="n">
-        <v>37.8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SHIVA.KUMAR.MIRYALA</t>
+          <t>BOUBA.BAKARI.ALI</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="C50" t="n">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="D50" t="n">
-        <v>37.1</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ADEMOLA.SAMUELFAGBORO</t>
+          <t>OUMAR.DIOP</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>80</v>
       </c>
       <c r="C51" t="n">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="D51" t="n">
-        <v>36.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MOUSTAPHA.ADAM.ABDERAHIM</t>
+          <t>AMANDEEP.KAUR3</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D52" t="n">
-        <v>35.3</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ADELINENTUMBA.KANKU</t>
+          <t>LOVELEEN.KAUR14293</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C53" t="n">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D53" t="n">
-        <v>35.3</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ABDELLAHI.LY</t>
+          <t>NANDAN.DUTT</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C54" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D54" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MAMADOU.GANDODIALLO</t>
+          <t>MANVENDER.MANVENDER14806</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C55" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D55" t="n">
-        <v>34.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MOUSTAPHA.KEBE</t>
+          <t>HARLEEN.KAUR165211</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C56" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>34.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MD.ANOWAR.HOSSAIN</t>
+          <t>DINESH.DINESH16161</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C57" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
+          <t>CHOROMA.ADOUM.BAYE</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C58" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AHMAT.ABAKAR.BOUKAR</t>
+          <t>ASSANE.DIOP</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C59" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D59" t="n">
-        <v>32.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MAHAMAT.SALEH.OUMAR</t>
+          <t>AMINE.KARIMOU</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C60" t="n">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="D60" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>OSCARJOHNREY.CANETE</t>
+          <t>ADEMOLA.SAMUELFAGBORO</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C61" t="n">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>31.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>YEVA.NAZARKINA</t>
+          <t>ABDRAMANE.HASSAN.ISSA</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C62" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>31.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>KEYURIBEN.DHORAJIYA</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>64</v>
-      </c>
-      <c r="C63" t="n">
-        <v>125</v>
-      </c>
-      <c r="D63" t="n">
-        <v>30.7</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>SAMI.LAMOURI</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>64</v>
-      </c>
-      <c r="C64" t="n">
-        <v>126</v>
-      </c>
-      <c r="D64" t="n">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>BASSIM.DIJIDDO</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>36</v>
-      </c>
-      <c r="C65" t="n">
-        <v>73</v>
-      </c>
-      <c r="D65" t="n">
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>28</v>
-      </c>
-      <c r="C66" t="n">
-        <v>59</v>
-      </c>
-      <c r="D66" t="n">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>YASER.KABOUDANI</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>17</v>
-      </c>
-      <c r="C67" t="n">
-        <v>36</v>
-      </c>
-      <c r="D67" t="n">
-        <v>28.3</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>CHEIKH.TIDIANE.GUEYE</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>19</v>
-      </c>
-      <c r="C68" t="n">
-        <v>41</v>
-      </c>
-      <c r="D68" t="n">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>CARL.NITCHELL.LUCCE</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>23</v>
-      </c>
-      <c r="C69" t="n">
-        <v>51</v>
-      </c>
-      <c r="D69" t="n">
-        <v>27.1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>MUSKANPREET.KAUR</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>22</v>
-      </c>
-      <c r="C70" t="n">
-        <v>49</v>
-      </c>
-      <c r="D70" t="n">
-        <v>26.9</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>KHALIL.OUSMAN.ABDELMOUNIM</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>17</v>
-      </c>
-      <c r="C71" t="n">
-        <v>38</v>
-      </c>
-      <c r="D71" t="n">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>FAMOUS.ERHUNMWUNSEE</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>25</v>
-      </c>
-      <c r="C72" t="n">
-        <v>58</v>
-      </c>
-      <c r="D72" t="n">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>ASSANE.DIOP</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>55</v>
-      </c>
-      <c r="C73" t="n">
-        <v>130</v>
-      </c>
-      <c r="D73" t="n">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>SYLVIA.NWOKENKWO</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>14</v>
-      </c>
-      <c r="C74" t="n">
-        <v>20</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>ELYON.ASOMBO</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>ABDUL.KHALIL.ADEL</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>16</v>
-      </c>
-      <c r="C76" t="n">
-        <v>28</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>ALEXANDRE.NDUNGI.ITELA</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>2</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>FREDRICK.ADEBOGUN</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>11</v>
-      </c>
-      <c r="C78" t="n">
-        <v>14</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>FLORENCEMBOMBO.MBUYI</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>13</v>
-      </c>
-      <c r="C79" t="n">
-        <v>21</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>SAJEELUR.REHMAN15006</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>14</v>
-      </c>
-      <c r="C80" t="n">
-        <v>20</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>GLORIA.MUTONI</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>12</v>
-      </c>
-      <c r="C81" t="n">
-        <v>25</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>MADIEULINE.JEANLOUIS</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>8</v>
-      </c>
-      <c r="C82" t="n">
-        <v>7</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>DEYE.DJAMAL.YOUSSOUF</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>6</v>
-      </c>
-      <c r="C83" t="n">
-        <v>10</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>JEAN.ABI.HACHEM</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>21</v>
-      </c>
-      <c r="C84" t="n">
-        <v>29</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>KANIKA.KANIKA14970</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>26</v>
-      </c>
-      <c r="C85" t="n">
-        <v>18</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>OLUMIDE.SANUSI</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>11</v>
-      </c>
-      <c r="C86" t="n">
-        <v>13</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>NAWAF.HAGE.CHEHADE</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>9</v>
-      </c>
-      <c r="C87" t="n">
-        <v>11</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>BIANCA.SIMEONE</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>10</v>
-      </c>
-      <c r="C88" t="n">
-        <v>22</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>MOR.FAYE</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>21</v>
-      </c>
-      <c r="C89" t="n">
-        <v>26</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>MOHA9588.BADAHMAN</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>8</v>
-      </c>
-      <c r="C90" t="n">
-        <v>9</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>LAMI4482.TARIKT</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>2</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>LEONARDO.MEJIAMEJIA</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>18</v>
-      </c>
-      <c r="C92" t="n">
-        <v>14</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>MAMATA.SORGHO</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>20</v>
-      </c>
-      <c r="C93" t="n">
-        <v>21</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>LOVEDEEP.SINGH</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>15</v>
-      </c>
-      <c r="C94" t="n">
-        <v>13</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>ERICKA.TCHAMABEU</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>12</v>
-      </c>
-      <c r="C95" t="n">
-        <v>18</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B96" s="1" t="inlineStr"/>
-      <c r="C96" s="1" t="inlineStr"/>
-      <c r="D96" s="1" t="n">
-        <v>50.9</v>
+      <c r="B63" s="1" t="inlineStr"/>
+      <c r="C63" s="1" t="inlineStr"/>
+      <c r="D63" s="1" t="n">
+        <v>55.2</v>
       </c>
     </row>
   </sheetData>
@@ -6418,7 +4481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6446,378 +4509,443 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABAKAR.CHOUKOU</t>
+          <t>ADAM.MOUSSA.MAHAMAT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C2" t="n">
-        <v>14.45454545454546</v>
+        <v>31.41630901287554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ALIISMAIL.ALI</t>
+          <t>ADEMOLA.SAMUELFAGBORO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>375</v>
+        <v>229</v>
       </c>
       <c r="C3" t="n">
-        <v>102.2727272727273</v>
+        <v>58.96995708154506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ARWIND.KUMAR</t>
+          <t>ALIISMAIL.ALI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="C4" t="n">
-        <v>4.636363636363637</v>
+        <v>75.1931330472103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AYMAN.KHALIL</t>
+          <t>AMANDEEP.KAUR3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308</v>
+        <v>115</v>
       </c>
       <c r="C5" t="n">
-        <v>84</v>
+        <v>29.6137339055794</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AYMEN.AMIN</t>
+          <t>AMINE.MAHAMAT.TAHIR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174</v>
+        <v>361</v>
       </c>
       <c r="C6" t="n">
-        <v>47.45454545454545</v>
+        <v>92.96137339055794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AYOUB.DEHBI</t>
+          <t>AMRITPAL.SINGH16190</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C7" t="n">
-        <v>57.54545454545455</v>
+        <v>49.95708154506438</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BORIS.GURAU</t>
+          <t>ARSHDEEP.KAUR16280</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8181818181818182</v>
+        <v>38.36909871244635</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CARL.NITCHELL.LUCCE</t>
+          <t>AYMAN.KHALIL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="C9" t="n">
-        <v>1.363636363636364</v>
+        <v>33.21888412017167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEIKH.TIDIANE.GUEYE</t>
+          <t>AYOUB.DEHBI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>290</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5454545454545455</v>
+        <v>74.67811158798283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>CHAMKAUR.SINGH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="C11" t="n">
-        <v>22.63636363636364</v>
+        <v>60.25751072961373</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DEYE.DJAMAL.YOUSSOUF</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="C12" t="n">
-        <v>92.45454545454545</v>
+        <v>69.27038626609442</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
+          <t>DEYE.DJAMAL.YOUSSOUF</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C13" t="n">
-        <v>1.363636363636364</v>
+        <v>26.00858369098712</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GURJOT.SINGH14583</t>
+          <t>DINESH.DINESH16161</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2727272727272728</v>
+        <v>18.54077253218884</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HARPREET.SINGHBARDHAN</t>
+          <t>FREDRICK.ADEBOGUN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C15" t="n">
-        <v>34.63636363636364</v>
+        <v>33.47639484978541</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>KHALIL.OUSMAN.ABDELMOUNIM</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2727272727272728</v>
+        <v>2.575107296137339</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>KIRAN.JOT</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C17" t="n">
-        <v>27.54545454545455</v>
+        <v>23.43347639484979</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MAMATA.SORGHO</t>
+          <t>KHINEHAYMAR.THAUNG</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>246</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>67.09090909090909</v>
+        <v>0.5150214592274678</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MIRYAMIN.ALI14605</t>
+          <t>LOVEDEEP.SINGH</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="C19" t="n">
-        <v>5.454545454545455</v>
+        <v>74.16309012875537</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MUSKANPREET.KAUR</t>
+          <t>LOVELEEN.KAUR14293</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5454545454545455</v>
+        <v>11.07296137339056</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NOUHAILAZIAD.ELAMRI</t>
+          <t>MAHAMAT.SALEH.OUMAR</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="C21" t="n">
-        <v>55.09090909090909</v>
+        <v>77.76824034334764</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OUSMANE.KIEMTORE</t>
+          <t>MAHAMATABAKAR.MAHAMAT</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="C22" t="n">
-        <v>65.45454545454545</v>
+        <v>39.65665236051503</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>MAMATA.SORGHO</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="C23" t="n">
-        <v>6.818181818181818</v>
+        <v>37.33905579399141</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SARVJEET.SINGH14910</t>
+          <t>MANVENDER.MANVENDER14806</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>34.36363636363637</v>
+        <v>1.802575107296137</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SHIVA.KUMAR.MIRYALA</t>
+          <t>MIRYAMIN.ALI14605</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8181818181818182</v>
+        <v>16.99570815450644</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SONIA.BHARTI</t>
+          <t>NANDAN.DUTT</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>17.76824034334764</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>PRAJWAL.SINGH14607</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110</v>
+        <v>304</v>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>78.28326180257511</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>YASER.KABOUDANI</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2727272727272728</v>
+        <v>9.785407725321889</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>52.09090909090909</v>
+        <v>3.862660944206008</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>YEVA.NAZARKINA</t>
+          <t>SAMI.LAMOURI</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5454545454545455</v>
+        <v>5.665236051502146</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SIMRAN.SIMRAN14162</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>87</v>
+      </c>
+      <c r="C31" t="n">
+        <v>22.40343347639485</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SUSHMITA.PAUL</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>47</v>
+      </c>
+      <c r="C32" t="n">
+        <v>12.10300429184549</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SYLVIA.NWOKENKWO</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>113</v>
+      </c>
+      <c r="C33" t="n">
+        <v>29.09871244635193</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>57</v>
+      </c>
+      <c r="C34" t="n">
+        <v>14.67811158798283</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>227</v>
+      </c>
+      <c r="C35" t="n">
+        <v>58.4549356223176</v>
       </c>
     </row>
   </sheetData>
@@ -6831,7 +4959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6854,1911 +4982,1231 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABAKAR.CHOUKOU</t>
+          <t>ABDRAMANE.HASSAN.ISSA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ABDELLAHI.LY</t>
+          <t>ABDRAMANE.YAYA.BECHIR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ABDRAMANE.HASSAN.ISSA</t>
+          <t>ABDUL.KHALIL.ADEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ABDRAMANE.YAYA.BECHIR</t>
+          <t>ABDULLAH.SALEM.AHMED.BARH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ABDUL.KHALIL.ADEL</t>
+          <t>ADAM.MOUSSA.MAHAMAT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ABDULLAH.SALEM.AHMED.BARH</t>
+          <t>ADEMOLA.SAMUELFAGBORO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ADAM.MOUSSA.MAHAMAT</t>
+          <t>AHMAT.ABAKAR.BOUKAR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ADELINENTUMBA.KANKU</t>
+          <t>AILYNCASSANDRA.BANGUG</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ADEMOLA.SAMUELFAGBORO</t>
+          <t>AKIK.BASHAR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>ALI.HEIDARI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AHMAT.ABAKAR.BOUKAR</t>
+          <t>ALIISMAIL.ALI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AILYNCASSANDRA.BANGUG</t>
+          <t>ALMER.VILLAMIN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AKIK.BASHAR</t>
+          <t>AMANDEEP.KAUR3</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ALABA.ADEGBEYENI</t>
+          <t>AMINE.KARIMOU</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ALEXANDRE.NDUNGI.ITELA</t>
+          <t>AMINE.MAHAMAT.TAHIR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ALIISMAIL.ALI</t>
+          <t>AMRITPAL.SINGH16190</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AMANDEEP.KAUR3</t>
+          <t>ANAGUI.ALI.MAHAMAT</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AMINE.MAHAMAT.TAHIR</t>
+          <t>ANWAR.ALAGDAL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AMOY8935.VICTOR</t>
+          <t>ARIEL.EVANGELISTAREYES</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>92</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AMRITPAL.SINGH16190</t>
+          <t>ARSENE.LOULENDO</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>129</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AMRITPALSINGH.PUREWAL</t>
+          <t>ARSHDEEP.KAUR16280</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ANAGUI.ALI.MAHAMAT</t>
+          <t>ASSANE.DIOP</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ANDRIX.JULIEN</t>
+          <t>ASSANE.NDIAYE</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ANWAR.ALAGDAL</t>
+          <t>AYMAN.KHALIL</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ARIEL.EVANGELISTAREYES</t>
+          <t>AYOUB.DEHBI</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ARSENE.LOULENDO</t>
+          <t>AZAD.KIKI</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ARSHDEEP.KAUR16280</t>
+          <t>BASSIM.DIJIDDO</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ARWIND.KUMAR</t>
+          <t>BIJENDER.KUMAR16185</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ASHL1578.PETIQUAY</t>
+          <t>BLESSING.OLOTU</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ASSANE.DIOP</t>
+          <t>BLOCHE.BAKELA</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ASSANE.NDIAYE</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>49</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ATIEH.SEDIGH</t>
+          <t>BOUBA.BAKARI.ALI</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AYMAN.KHALIL</t>
+          <t>CARL.NITCHELL.LUCCE</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AYMEN.AMIN</t>
+          <t>CHAMKAUR.SINGH</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AYOUB.DEHBI</t>
+          <t>CHEI145N.BOCOUM</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AZAD.KIKI</t>
+          <t>CHERIF.DIALLO</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BASSIM.DIJIDDO</t>
+          <t>CHOROMA.ADOUM.BAYE</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BIANCA.SIMEONE</t>
+          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>155</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BIJENDER.KUMAR16185</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BLOCHE.BAKELA</t>
+          <t>DEYE.DJAMAL.YOUSSOUF</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BORIS.GURAU</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>161</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BOUBA.BAKARI.ALI</t>
+          <t>DINESH.DINESH16161</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BRADLEY.ST-PHARDPHILIPPE</t>
+          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>ELVIS.NOE.GAHIRWA</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CARL.NITCHELL.LUCCE</t>
+          <t>FAIZAN.ALI</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHAMKAUR.SINGH</t>
+          <t>FATEMEH.EBRAHIMI</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>50</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEI145N.BOCOUM</t>
+          <t>FLOYD.MCLEISH</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEIKH.TIDIANE.GUEYE</t>
+          <t>FREDRICK.ADEBOGUN</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>152</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEIKH.TOURABI</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>69</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHERIF.DIALLO</t>
+          <t>GAMAL.ALI</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CHERIFHAMID.ZAKARIA</t>
+          <t>GEOR950N.PEREZ</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CHOROMA.ADOUM.BAYE</t>
+          <t>HAMID.ABDOULAYE.MAHAMAT</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>178</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
+          <t>HARLEEN.KAUR165211</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>IRENEMAE.CABRERA</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DEYE.DJAMAL.YOUSSOUF</t>
+          <t>JATHUSHAN.KARTHIGESAR</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>JEAN.ABI.HACHEM</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
+          <t>JOEL.NIXON</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>149</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>EDIT0934.TUPINO</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ELVIS.NOE.GAHIRWA</t>
+          <t>KANIKA.KANIKA14970</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ELYON.ASOMBO</t>
+          <t>KATHYANN.SUDAY</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ERICKA.TCHAMABEU</t>
+          <t>KAYLEY.GRAY-CYR</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>151</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>FAIZAN.ALI</t>
+          <t>KHINEHAYMAR.THAUNG</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>FAMOUS.ERHUNMWUNSEE</t>
+          <t>LANDRYGILDAS.MUHIZI</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>43</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>FATEMEH.EBRAHIMI</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FLORENCEMBOMBO.MBUYI</t>
+          <t>LOVEDEEP.SINGH</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>FLOYD.MCLEISH</t>
+          <t>LOVELEEN.KAUR14293</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FREDRICK.ADEBOGUN</t>
+          <t>MACLY.BEAUBRUN</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>137</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GAGA4290.KALSI</t>
+          <t>MAHAMAT.SALEH.OUMAR</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GAMAL.ALI</t>
+          <t>MAHAMATABAKAR.MAHAMAT</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GARV.SEHGAL</t>
+          <t>MAMADOU.ADAMS.BARRY</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GEOR950N.PEREZ</t>
+          <t>MAMATA.SORGHO</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GLORIA.MUTONI</t>
+          <t>MANVENDER.MANVENDER14806</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>172</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GURJOT.SINGH14583</t>
+          <t>MARIO.OUIMET</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>114</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HAMID.ABDOULAYE.MAHAMAT</t>
+          <t>MATTHEW.BARRETT</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>166</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HARJEET.SINGH</t>
+          <t>MAY.BELLOSILLO</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HARLEEN.KAUR165211</t>
+          <t>MD.ANOWAR.HOSSAIN</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HARMANDEEP.SINGH16001</t>
+          <t>MELA6559.ROCHETTE</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HARPREET.SINGHBARDHAN</t>
+          <t>MIKAEL.SAMUEL</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>MILA1082.PEREZ</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>141</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ISABELLE.FAYE</t>
+          <t>MIRYAMIN.ALI14605</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>86</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ISSA.MAHAMAT.EZEDINE</t>
+          <t>MOHA9588.BADAHMAN</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>JASKARAN.SINGH16665</t>
+          <t>MOHAMMED.SALEM</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>JASMEEN.KAUR14691</t>
+          <t>MOR.FAYE</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>JATHUSHAN.KARTHIGESAR</t>
+          <t>MOUSTAPHA.ADAM.ABDERAHIM</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>JEAN.ABI.HACHEM</t>
+          <t>MUSKANPREET.KAUR</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>JOEL.NIXON</t>
+          <t>NANCY.WOOD</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>JOY.KIZA</t>
+          <t>NANDAN.DUTT</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>JUDITH.BARTHOLD</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>NICO0711.JANSON</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>KANIKA.KANIKA14970</t>
+          <t>OLA.ATTAR</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>112</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>KATEIRENE.TABLADA</t>
+          <t>OLUMIDE.SANUSI</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>KATHYANN.SUDAY</t>
+          <t>OMAR.BAHAMID</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>KAYLEY.GRAY-CYR</t>
+          <t>OMAR2415.BAHAMID</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>KEYURIBEN.DHORAJIYA</t>
+          <t>OMOWONUOLA.BELLO</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>KHALIL.OUSMAN.ABDELMOUNIM</t>
+          <t>OSCARJOHNREY.CANETE</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>KINGSLEY.ANIKE</t>
+          <t>OUMAR.DIOP</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>KIRAN.JOT</t>
+          <t>OUMOU.DOUKOURE</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>KOMALDEEP.KAUR14903</t>
+          <t>OUSMANE.KIEMTORE</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>LAMI4482.TARIKT</t>
+          <t>PATRICK.NIYONKURU</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>LEMA6769.DOSSO</t>
+          <t>PRAJWAL.SINGH14607</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>LEONARDO.MEJIAMEJIA</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>LIKEDEEP.SINGH15949</t>
+          <t>RAJWINDER.KAUR164355</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>127</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LOVEDEEP.SINGH</t>
+          <t>SAJEELUR.REHMAN15006</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>190</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>LOVELEEN.KAUR14293</t>
+          <t>SAMI.LAMOURI</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>126</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>SATINDER.PAL.SINGH.RATHOR</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>169</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MACLY.BEAUBRUN</t>
+          <t>SHAKSHI.BANSAL</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MADIEULINE.JEANLOUIS</t>
+          <t>SHIVA.KUMAR.MIRYALA</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>191</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MAHAMAT.SALEH.OUMAR</t>
+          <t>SHUSHIL.RAI14750</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MAHAMAT.YAKHOUB.HABIB</t>
+          <t>SIMRAN.SIMRAN14162</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MAHAMATABAKAR.MAHAMAT</t>
+          <t>SONIA.BHARTI</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>SUKHVEER.SINGH16064</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MAMADOU.ADAMS.BARRY</t>
+          <t>SUSHMITA.PAUL</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>167</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MAMADOU.GANDODIALLO</t>
+          <t>SYLVIA.NWOKENKWO</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MAMATA.SORGHO</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MARIA.GALDAMEZ</t>
+          <t>VICTORY.IHEMEJE</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>178</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MARIO.OUIMET</t>
+          <t>VINCENTJAY.TABLADA</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>59</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MARY0067.BOULIANNEBL</t>
+          <t>YASER.KABOUDANI</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>44</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MATHIEU.GIASSON</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>165</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MAY.BELLOSILLO</t>
+          <t>YEVA.NAZARKINA</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MD.ANOWAR.HOSSAIN</t>
+          <t>YOUSSOUF.NAHAR.ISSA</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MILA1082.PEREZ</t>
+          <t>ZULQERNAIN.SHAIKH</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>28</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>MIRYAMIN.ALI14605</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>MOHA9588.BADAHMAN</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>MOHAMEDAMINE.SASSOUI</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>MOHAMMED.SALEM</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>MOR.FAYE</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>MOUSTAPHA.ADAM.ABDERAHIM</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>MOUSTAPHA.KEBE</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>MURLIMANOHAR.MOTWANIBHATI</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>MURSAL.MADADYAR</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>MUSKANPREET.KAUR</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>NANCY.WOOD</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>NANDAN.DUTT</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>NAVPREET.KAUR14535</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>NAWAF.HAGE.CHEHADE</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>NESR2403.ATTALAH</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>NICO0711.JANSON</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>NOUHAILAZIAD.ELAMRI</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>OLAWALE.MUBARAK.ABIODUN</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>OLUMIDE.SANUSI</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>OMAR.BAHAMID</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>OMOWONUOLA.BELLO</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>OSCARJOHNREY.CANETE</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>OUMAR.DIOP</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>OUSMANE.KIEMTORE</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>OYETUNJI.HABEEB.OLALEKAN</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>PATI2298.ATSIANGBE</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>PATR5027.AMEH</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>PATRICK.NIYONKURU</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>PAWANKUMAR.BHATTI</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>PIYUSH.SINGLA</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>PRABHJOT.KAUR14909</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>PRAJWAL.SINGH14607</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>PRECIOU.ABIMBOLA</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>PRINCE.FORSON</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>RACHELLE.LEWIS-HOLDER</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>RAHMIE.TAJIDEEN</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>RAJAT.SHARMA</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>RAJWINDER.KAUR164355</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>RAMI9087.SAIHI</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>RASHADAL.ABD</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>RASHIDA.SPEEDE</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>RAVEENA.RAVEENA</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>REX.GOTERA</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>RFBASE</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>RIJO.RAJAN</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>SAHIL.KUMAR14868</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>SAJEELUR.REHMAN15006</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>SAMI.LAMOURI</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>SAMREET.SINGH16186</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>SARVJEET.SINGH14910</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>SATINDER.PAL.SINGH.RATHOR</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>SHIVA.KUMAR.MIRYALA</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>SIMRAN.SIMRAN14162</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>SONIA.BHARTI</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>SUKHVEER.SINGH16064</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>SYLVIA.NWOKENKWO</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>THIE6554.DIALLO</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>TOMA9753.LANDUKULUPE</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>VICTORY.IHEMEJE</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>WILDINE.JEUNE</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>WINSELMAE.CASTRO</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>YAHAYA.CAMARA</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>YASER.KABOUDANI</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>YEVA.NAZARKINA</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>YOUSSOUF.NAHAR.ISSA</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>ZAHIDGUL.MINHAS</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>ZULQERNAIN.SHAIKH</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -17,6 +17,7 @@
     <sheet name="QUICK MOVE" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="IDLE TIME" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Total Units picked by hour" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Total Units packed by hour" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,16 +488,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>951</v>
+        <v>1485</v>
       </c>
       <c r="E2" t="n">
-        <v>447</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3">
@@ -504,16 +505,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>348</v>
+        <v>270</v>
       </c>
       <c r="D3" t="n">
-        <v>1922</v>
+        <v>2147</v>
       </c>
       <c r="E3" t="n">
-        <v>323</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4">
@@ -521,16 +522,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>301</v>
+        <v>708</v>
       </c>
       <c r="D4" t="n">
-        <v>1669</v>
+        <v>1179</v>
       </c>
       <c r="E4" t="n">
-        <v>1231</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="5">
@@ -538,16 +539,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>277</v>
+        <v>488</v>
       </c>
       <c r="D5" t="n">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="E5" t="n">
-        <v>1201</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="6">
@@ -557,16 +558,109 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360</v>
+        <v>156</v>
       </c>
       <c r="C6" t="n">
-        <v>1223</v>
+        <v>1466</v>
       </c>
       <c r="D6" t="n">
-        <v>5819</v>
+        <v>6095</v>
       </c>
       <c r="E6" t="n">
-        <v>3202</v>
+        <v>3770</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Single Pack</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Multi Pack</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n">
+        <v>204</v>
+      </c>
+      <c r="C2" t="n">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="n">
+        <v>396</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="n">
+        <v>210</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5" t="n">
+        <v>68</v>
+      </c>
+      <c r="C5" t="n">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>878</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3823</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,382 +707,382 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMINE.MAHAMAT.TAHIR</t>
+          <t>RACHELLE.LEWIS-HOLDER</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>142.7</v>
+        <v>196.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AYOUB.DEHBI</t>
+          <t>ADEMOLA.SAMUELFAGBORO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>138.57</v>
+        <v>156.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADAM.MOUSSA.MAHAMAT</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="D4" t="n">
-        <v>134.55</v>
+        <v>149.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="D5" t="n">
-        <v>133.33</v>
+        <v>115.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>SUSHMITA.PAUL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>128.5</v>
+        <v>109.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DEYE.DJAMAL.YOUSSOUF</t>
+          <t>BORIS.GURAU</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C7" t="n">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="D7" t="n">
-        <v>126.82</v>
+        <v>108.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="C8" t="n">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="D8" t="n">
-        <v>124.24</v>
+        <v>103.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LOVEDEEP.SINGH</t>
+          <t>ADAM.MOUSSA.MAHAMAT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="C9" t="n">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D9" t="n">
-        <v>122.77</v>
+        <v>99.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AYMAN.KHALIL</t>
+          <t>SARVJEET.SINGH14910</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D10" t="n">
-        <v>121.11</v>
+        <v>97.84999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHAMKAUR.SINGH</t>
+          <t>AMINE.MAHAMAT.TAHIR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C11" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D11" t="n">
-        <v>120</v>
+        <v>90.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>MAHAMATABAKAR.MAHAMAT</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C12" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D12" t="n">
-        <v>120</v>
+        <v>87.86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ADEMOLA.SAMUELFAGBORO</t>
+          <t>DEYE.DJAMAL.YOUSSOUF</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="C13" t="n">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="D13" t="n">
-        <v>106.25</v>
+        <v>86.84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MAMATA.SORGHO</t>
+          <t>CHAMKAUR.SINGH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="C14" t="n">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="D14" t="n">
-        <v>104.61</v>
+        <v>81.05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>LOVEDEEP.SINGH</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="C15" t="n">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="D15" t="n">
-        <v>99.81999999999999</v>
+        <v>80.69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MAHAMAT.SALEH.OUMAR</t>
+          <t>SAMI.LAMOURI</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="D16" t="n">
-        <v>98.70999999999999</v>
+        <v>80.14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MAHAMATABAKAR.MAHAMAT</t>
+          <t>FREDRICK.ADEBOGUN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="C17" t="n">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="D17" t="n">
-        <v>94.78</v>
+        <v>78.61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FREDRICK.ADEBOGUN</t>
+          <t>ELYON.ASOMBO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="C18" t="n">
         <v>114</v>
       </c>
       <c r="D18" t="n">
-        <v>92.11</v>
+        <v>74.20999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SAMI.LAMOURI</t>
+          <t>MAHAMAT.SALEH.OUMAR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C19" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D19" t="n">
-        <v>85.95999999999999</v>
+        <v>73.27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ALIISMAIL.ALI</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C20" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D20" t="n">
-        <v>85.56</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AMRITPAL.SINGH16190</t>
+          <t>YOUSSOUF.CHOUKI</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="C21" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>85.34999999999999</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SYLVIA.NWOKENKWO</t>
+          <t>JASKARAN.SINGH16665</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C22" t="n">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D22" t="n">
-        <v>54.95</v>
+        <v>55.65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FATEMEH.EBRAHIMI</t>
+          <t>OUMOU.DOUKOURE</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>53.33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OLA.ATTAR</t>
+          <t>OUSMAN.HASSAN.BILAL</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>51.36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ARSHDEEP.KAUR16280</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -997,14 +1091,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PRAJWAL.SINGH14607</t>
+          <t>SOULEYMANE.ATIM.ADOUM</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1013,14 +1107,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OMAR2415.BAHAMID</t>
+          <t>PRAJWAL.SINGH14607</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1029,14 +1123,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>KAYLEY.GRAY-CYR</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1045,14 +1139,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IRENEMAE.CABRERA</t>
+          <t>NOUHAILAZIAD.ELAMRI</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1061,14 +1155,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NANDAN.DUTT</t>
+          <t>MATHIEU.GIASSON</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1077,14 +1171,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ALI.HEIDARI</t>
+          <t>KATHYANN.SUDAY</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1093,14 +1187,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AZAD.KIKI</t>
+          <t>KANIKA.KANIKA14970</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1109,14 +1203,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DINESH.DINESH16161</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C33" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1125,14 +1219,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ELVIS.NOE.GAHIRWA</t>
+          <t>FAIZAN.ALI</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1141,14 +1235,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LANDRYGILDAS.MUHIZI</t>
+          <t>AZAD.KIKI</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1157,29 +1251,61 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AMANDEEP.KAUR3</t>
+          <t>AYMEN.AMIN</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AYMAN.KHALIL</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>16</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr"/>
-      <c r="C37" s="1" t="inlineStr"/>
-      <c r="D37" s="1" t="n">
-        <v>110.5</v>
+      <c r="B39" s="1" t="inlineStr"/>
+      <c r="C39" s="1" t="inlineStr"/>
+      <c r="D39" s="1" t="n">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1226,350 +1352,350 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMINE.MAHAMAT.TAHIR</t>
+          <t>MARIA.GALDAMEZ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C2" t="n">
         <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>142.7</v>
+        <v>98.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AYOUB.DEHBI</t>
+          <t>BRADLEY.ST-PHARDPHILIPPE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D3" t="n">
-        <v>138.57</v>
+        <v>47.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADAM.MOUSSA.MAHAMAT</t>
+          <t>SUKHVEER.SINGH16064</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>134.55</v>
+        <v>43.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>GEOR950N.PEREZ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>133.33</v>
+        <v>40.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>OMOWONUOLA.BELLO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>257</v>
+        <v>56</v>
       </c>
       <c r="C6" t="n">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>128.5</v>
+        <v>36.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DEYE.DJAMAL.YOUSSOUF</t>
+          <t>BLESSING.OLOTU</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D7" t="n">
-        <v>126.82</v>
+        <v>34.93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>RASHADAL.ABD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="C8" t="n">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D8" t="n">
-        <v>124.24</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LOVEDEEP.SINGH</t>
+          <t>MOHAMMED.MAHMOOD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>122.77</v>
+        <v>32.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AYMAN.KHALIL</t>
+          <t>PAULINA.LUBIN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C10" t="n">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="D10" t="n">
-        <v>121.11</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHAMKAUR.SINGH</t>
+          <t>FLOYD.MCLEISH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="C11" t="n">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="D11" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>JOEL.NIXON</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D12" t="n">
-        <v>120</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ADEMOLA.SAMUELFAGBORO</t>
+          <t>CHEI145N.BOCOUM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D13" t="n">
-        <v>106.25</v>
+        <v>26.43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MAMATA.SORGHO</t>
+          <t>BLOCHE.BAKELA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="D14" t="n">
-        <v>104.61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>XYZE1559.MACASIL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="D15" t="n">
-        <v>99.81999999999999</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MAHAMAT.SALEH.OUMAR</t>
+          <t>TOMA9753.LANDUKULUPE</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="D16" t="n">
-        <v>98.70999999999999</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MAHAMATABAKAR.MAHAMAT</t>
+          <t>JOSE202N.OSEMWOTA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="D17" t="n">
-        <v>94.78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FREDRICK.ADEBOGUN</t>
+          <t>MAY.BELLOSILLO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="D18" t="n">
-        <v>92.11</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SAMI.LAMOURI</t>
+          <t>MARIO.OUIMET</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D19" t="n">
-        <v>85.95999999999999</v>
+        <v>19.18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ALIISMAIL.ALI</t>
+          <t>PATRICK.NIYONKURU</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>85.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AMRITPAL.SINGH16190</t>
+          <t>OLUMIDE.SANUSI</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="C21" t="n">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>85.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SYLVIA.NWOKENKWO</t>
+          <t>OSCARJOHNREY.CANETE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="C22" t="n">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>54.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FATEMEH.EBRAHIMI</t>
+          <t>AILYNCASSANDRA.BANGUG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1578,14 +1704,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OLA.ATTAR</t>
+          <t>MATTHEW.BARRETT</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1594,14 +1720,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ARSHDEEP.KAUR16280</t>
+          <t>NICO0711.JANSON</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1610,14 +1736,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PRAJWAL.SINGH14607</t>
+          <t>MUSKANPREET.KAUR</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1626,14 +1752,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OMAR2415.BAHAMID</t>
+          <t>MOHAMEDAMINE.SASSOUI</t>
         </is>
       </c>
       <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="n">
         <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1642,14 +1768,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>BIJENDER.KUMAR16185</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1658,14 +1784,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IRENEMAE.CABRERA</t>
+          <t>MAMADOU.ADAMS.BARRY</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1674,11 +1800,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NANDAN.DUTT</t>
+          <t>LAEE5187.ALHALAWANI</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1690,14 +1816,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ALI.HEIDARI</t>
+          <t>ISSA.MAHAMAT.EZEDINE</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1706,14 +1832,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AZAD.KIKI</t>
+          <t>IMAMHOSSAIN.CHOWDHURY</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1722,77 +1848,29 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DINESH.DINESH16161</t>
+          <t>YEVA.NAZARKINA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>ELVIS.NOE.GAHIRWA</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>18</v>
-      </c>
-      <c r="C34" t="n">
-        <v>12</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>LANDRYGILDAS.MUHIZI</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>5</v>
-      </c>
-      <c r="C35" t="n">
-        <v>5</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AMANDEEP.KAUR3</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>18</v>
-      </c>
-      <c r="C36" t="n">
-        <v>8</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr"/>
-      <c r="C37" s="1" t="inlineStr"/>
-      <c r="D37" s="1" t="n">
-        <v>110.5</v>
+      <c r="B34" s="1" t="inlineStr"/>
+      <c r="C34" s="1" t="inlineStr"/>
+      <c r="D34" s="1" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1839,430 +1917,430 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMINE.MAHAMAT.TAHIR</t>
+          <t>REX.GOTERA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88</v>
+        <v>414</v>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="D2" t="n">
-        <v>142.7</v>
+        <v>131.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AYOUB.DEHBI</t>
+          <t>VICTORY.IHEMEJE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="D3" t="n">
-        <v>138.57</v>
+        <v>99.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADAM.MOUSSA.MAHAMAT</t>
+          <t>MILA1082.PEREZ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="D4" t="n">
-        <v>134.55</v>
+        <v>95.81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>KATEIRENE.TABLADA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="D5" t="n">
-        <v>133.33</v>
+        <v>87.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>SHUSHIL.RAI14750</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="C6" t="n">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="D6" t="n">
-        <v>128.5</v>
+        <v>82.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DEYE.DJAMAL.YOUSSOUF</t>
+          <t>ASHL1578.PETIQUAY</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="C7" t="n">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="D7" t="n">
-        <v>126.82</v>
+        <v>81.79000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>AILYNCASSANDRA.BANGUG</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C8" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="D8" t="n">
-        <v>124.24</v>
+        <v>81.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LOVEDEEP.SINGH</t>
+          <t>OMOWONUOLA.BELLO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C9" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D9" t="n">
-        <v>122.77</v>
+        <v>78.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AYMAN.KHALIL</t>
+          <t>MONCEF.BOUKHOUDMI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C10" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D10" t="n">
-        <v>121.11</v>
+        <v>74.29000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHAMKAUR.SINGH</t>
+          <t>LOVELEEN.KAUR14293</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="C11" t="n">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="D11" t="n">
-        <v>120</v>
+        <v>74.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>VINCENTJAY.TABLADA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C12" t="n">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="D12" t="n">
-        <v>120</v>
+        <v>67.88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ADEMOLA.SAMUELFAGBORO</t>
+          <t>ANAGUI.ALI.MAHAMAT</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="C13" t="n">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="D13" t="n">
-        <v>106.25</v>
+        <v>64.65000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MAMATA.SORGHO</t>
+          <t>JOEL.NIXON</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>265</v>
+        <v>84</v>
       </c>
       <c r="C14" t="n">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="D14" t="n">
-        <v>104.61</v>
+        <v>64.62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>ALABA.ADEGBEYENI</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C15" t="n">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="D15" t="n">
-        <v>99.81999999999999</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MAHAMAT.SALEH.OUMAR</t>
+          <t>BIJENDER.KUMAR16185</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="D16" t="n">
-        <v>98.70999999999999</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MAHAMATABAKAR.MAHAMAT</t>
+          <t>BRADLEY.ST-PHARDPHILIPPE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218</v>
+        <v>48</v>
       </c>
       <c r="C17" t="n">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="D17" t="n">
-        <v>94.78</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FREDRICK.ADEBOGUN</t>
+          <t>ZULQERNAIN.SHAIKH</t>
         </is>
       </c>
       <c r="B18" t="n">
+        <v>156</v>
+      </c>
+      <c r="C18" t="n">
         <v>175</v>
       </c>
-      <c r="C18" t="n">
-        <v>114</v>
-      </c>
       <c r="D18" t="n">
-        <v>92.11</v>
+        <v>53.49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SAMI.LAMOURI</t>
+          <t>XYZE1559.MACASIL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="C19" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D19" t="n">
-        <v>85.95999999999999</v>
+        <v>52.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ALIISMAIL.ALI</t>
+          <t>BLOCHE.BAKELA</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C20" t="n">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D20" t="n">
-        <v>85.56</v>
+        <v>51.68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AMRITPAL.SINGH16190</t>
+          <t>ABDULLAH.SALEM.AHMED.BARH</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C21" t="n">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="D21" t="n">
-        <v>85.34999999999999</v>
+        <v>45.88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SYLVIA.NWOKENKWO</t>
+          <t>JOEL.NAPOLEON</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C22" t="n">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="D22" t="n">
-        <v>54.95</v>
+        <v>44.67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FATEMEH.EBRAHIMI</t>
+          <t>SUKHVEER.SINGH16064</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>43.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OLA.ATTAR</t>
+          <t>MOHAMEDAMINE.SASSOUI</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>42.08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ARSHDEEP.KAUR16280</t>
+          <t>NICO0711.JANSON</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>39.23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PRAJWAL.SINGH14607</t>
+          <t>BLESSING.OLOTU</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>37.42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OMAR2415.BAHAMID</t>
+          <t>TOMA9753.LANDUKULUPE</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>LOVEDEEP.SINGH</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2271,14 +2349,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IRENEMAE.CABRERA</t>
+          <t>RASHADAL.ABD</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2287,11 +2365,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NANDAN.DUTT</t>
+          <t>DAVI129N.TEJA</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2303,109 +2381,29 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ALI.HEIDARI</t>
+          <t>CHEI145N.BOCOUM</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>AZAD.KIKI</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>17</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>DINESH.DINESH16161</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>28</v>
-      </c>
-      <c r="C33" t="n">
-        <v>14</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>ELVIS.NOE.GAHIRWA</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>18</v>
-      </c>
-      <c r="C34" t="n">
-        <v>12</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>LANDRYGILDAS.MUHIZI</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>5</v>
-      </c>
-      <c r="C35" t="n">
-        <v>5</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AMANDEEP.KAUR3</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>18</v>
-      </c>
-      <c r="C36" t="n">
-        <v>8</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr"/>
-      <c r="C37" s="1" t="inlineStr"/>
-      <c r="D37" s="1" t="n">
-        <v>110.5</v>
+      <c r="B32" s="1" t="inlineStr"/>
+      <c r="C32" s="1" t="inlineStr"/>
+      <c r="D32" s="1" t="n">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2419,7 +2417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2447,417 +2445,274 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADAM.MOUSSA.MAHAMAT</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8.755364806866952</v>
+        <v>0.2586206896551724</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADEMOLA.SAMUELFAGBORO</t>
+          <t>AYMEN.AMIN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>10.30042918454936</v>
+        <v>1.03448275862069</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ALI.HEIDARI</t>
+          <t>AZAD.KIKI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2.832618025751073</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ALIISMAIL.ALI</t>
+          <t>BORIS.GURAU</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.28755364806867</v>
+        <v>1.03448275862069</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AMINE.MAHAMAT.TAHIR</t>
+          <t>CHAMKAUR.SINGH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>4.120171673819742</v>
+        <v>1.810344827586207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AYOUB.DEHBI</t>
+          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>5.407725321888412</v>
+        <v>6.206896551724138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2575107296137339</v>
+        <v>1.293103448275862</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHAMKAUR.SINGH</t>
+          <t>ERICKA.TCHAMABEU</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>9.270386266094421</v>
+        <v>4.655172413793103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DEYE.DJAMAL.YOUSSOUF</t>
+          <t>HAMID.ABDOULAYE.MAHAMAT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>4.635193133047211</v>
+        <v>2.327586206896552</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>JEAN.ABI.HACHEM</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2575107296137339</v>
+        <v>1.03448275862069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FATEMEH.EBRAHIMI</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5150214592274678</v>
+        <v>1.293103448275862</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GAMAL.ALI</t>
+          <t>KATHYANN.SUDAY</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1.545064377682403</v>
+        <v>1.03448275862069</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JATHUSHAN.KARTHIGESAR</t>
+          <t>LOVEDEEP.SINGH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1.802575107296137</v>
+        <v>0.7758620689655172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>MD.ANOWAR.HOSSAIN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7725321888412017</v>
+        <v>3.362068965517242</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>KAYLEY.GRAY-CYR</t>
+          <t>MIKAEL.SAMUEL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>1.030042918454936</v>
+        <v>2.327586206896552</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>MOHAMMED.SALEM</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5150214592274678</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LANDRYGILDAS.MUHIZI</t>
+          <t>OMAR.BAHAMID</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>2.060085836909871</v>
+        <v>1.03448275862069</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>RACHELLE.LEWIS-HOLDER</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1.030042918454936</v>
+        <v>0.2586206896551724</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MAHAMAT.SALEH.OUMAR</t>
+          <t>RAJWINDER.KAUR164355</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>4.635193133047211</v>
+        <v>1.03448275862069</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MELA6559.ROCHETTE</t>
+          <t>SAJEELUR.REHMAN15006</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C21" t="n">
-        <v>3.862660944206008</v>
+        <v>4.655172413793103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MIKAEL.SAMUEL</t>
+          <t>SIMRAN.SIMRAN14162</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>5.92274678111588</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MOR.FAYE</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2575107296137339</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>MUSKANPREET.KAUR</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2.060085836909871</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>NESR2403.ATTALAH</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.2575107296137339</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>OLA.ATTAR</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.2575107296137339</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>OLUMIDE.SANUSI</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.7725321888412017</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>OUMOU.DOUKOURE</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>5</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1.28755364806867</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>PRAJWAL.SINGH14607</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>17</v>
-      </c>
-      <c r="C29" t="n">
-        <v>4.377682403433476</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>RAMI9087.SAIHI</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>15</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3.862660944206008</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>SAMI.LAMOURI</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>15</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3.862660944206008</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>THIE6554.DIALLO</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>18</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4.635193133047211</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>XYZE1559.MACASIL</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.2575107296137339</v>
+        <v>3.879310344827586</v>
       </c>
     </row>
   </sheetData>
@@ -2871,7 +2726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2904,17 +2759,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>SIMRAN.SIMRAN14162</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
-        <v>115.1</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -2924,346 +2779,346 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MUSKANPREET.KAUR</t>
+          <t>MOHAMMED.SALEM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C4" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D4" t="n">
-        <v>69.40000000000001</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MOHAMMED.SALEM</t>
+          <t>WIDLINE.JEUNE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="D5" t="n">
-        <v>61.5</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PATRICK.NIYONKURU</t>
+          <t>ANDRIX.JULIEN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
-        <v>61.2</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KAYLEY.GRAY-CYR</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>59</v>
+      </c>
+      <c r="C7" t="n">
         <v>49</v>
       </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
       <c r="D7" t="n">
-        <v>58.8</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OUSMANE.KIEMTORE</t>
+          <t>SAJEELUR.REHMAN15006</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="C8" t="n">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D8" t="n">
-        <v>57.4</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HAMID.ABDOULAYE.MAHAMAT</t>
+          <t>NAWAF.HAGE.CHEHADE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C9" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D9" t="n">
-        <v>51.3</v>
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MIKAEL.SAMUEL</t>
+          <t>KOMALDEEP.KAUR14903</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C10" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D10" t="n">
-        <v>48.3</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>YEVA.NAZARKINA</t>
+          <t>ABDRAMANE.YAYA.BECHIR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C11" t="n">
         <v>72</v>
       </c>
       <c r="D11" t="n">
-        <v>45.8</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MACLY.BEAUBRUN</t>
+          <t>OLAWALE.MUBARAK.ABIODUN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C12" t="n">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
+          <t>SOULEYMANE.ATIM.ADOUM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HARLEEN.KAUR165211</t>
+          <t>ABDRAMANE.HASSAN.ISSA</t>
         </is>
       </c>
       <c r="B14" t="n">
+        <v>48</v>
+      </c>
+      <c r="C14" t="n">
         <v>74</v>
       </c>
-      <c r="C14" t="n">
-        <v>104</v>
-      </c>
       <c r="D14" t="n">
-        <v>42.7</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JEAN.ABI.HACHEM</t>
+          <t>CHOROMA.ADOUM.BAYE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C15" t="n">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="D15" t="n">
-        <v>41.6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>YASER.KABOUDANI</t>
+          <t>CARL.NITCHELL.LUCCE</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D16" t="n">
-        <v>40.6</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHOROMA.ADOUM.BAYE</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>37.5</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OMAR.BAHAMID</t>
+          <t>ASSANE.DIOP</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D18" t="n">
-        <v>35.7</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KATHYANN.SUDAY</t>
+          <t>JOSE202N.OSEMWOTA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D19" t="n">
-        <v>28.5</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MOHA9588.BADAHMAN</t>
+          <t>JATHUSHAN.KARTHIGESAR</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C20" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>28.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ASSANE.DIOP</t>
+          <t>RAJWINDER.KAUR164355</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C21" t="n">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>27.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ANWAR.ALAGDAL</t>
+          <t>AMRITPAL.SINGH16190</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
         <v>23</v>
       </c>
-      <c r="C22" t="n">
-        <v>54</v>
-      </c>
       <c r="D22" t="n">
-        <v>25.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CARL.NITCHELL.LUCCE</t>
+          <t>SATINDER.PAL.SINGH.RATHOR</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>23.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SHIVA.KUMAR.MIRYALA</t>
+          <t>OMAR.BAHAMID</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -3272,14 +3127,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BASSIM.DIJIDDO</t>
+          <t>OUMOU.DOUKOURE</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -3288,14 +3143,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OUMOU.DOUKOURE</t>
+          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3304,14 +3159,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GAGA4290.KALSI</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3320,14 +3175,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OLUMIDE.SANUSI</t>
+          <t>FATEMEH.EBRAHIMI</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3336,14 +3191,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MOR.FAYE</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -3352,14 +3207,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHERIF.DIALLO</t>
+          <t>HARLEEN.KAUR165211</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3368,11 +3223,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GAMAL.ALI</t>
+          <t>KAYLEY.GRAY-CYR</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C31" t="n">
         <v>20</v>
@@ -3382,63 +3237,15 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>JATHUSHAN.KARTHIGESAR</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>5</v>
-      </c>
-      <c r="C32" t="n">
-        <v>8</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>FAIZAN.ALI</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>11</v>
-      </c>
-      <c r="C33" t="n">
-        <v>16</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>KANIKA.KANIKA14970</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>10</v>
-      </c>
-      <c r="C34" t="n">
-        <v>15</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr"/>
-      <c r="C35" s="1" t="inlineStr"/>
-      <c r="D35" s="1" t="n">
-        <v>48.2</v>
+      <c r="B32" s="1" t="inlineStr"/>
+      <c r="C32" s="1" t="inlineStr"/>
+      <c r="D32" s="1" t="n">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3452,7 +3259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3485,862 +3292,862 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SONIA.BHARTI</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374</v>
+        <v>118</v>
       </c>
       <c r="C2" t="n">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>143.8</v>
+        <v>122.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OMAR.BAHAMID</t>
+          <t>MOHAMMED.SALEM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YEVA.NAZARKINA</t>
+          <t>BORIS.GURAU</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="C4" t="n">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>84.7</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>OLAWALE.MUBARAK.ABIODUN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>83.90000000000001</v>
+        <v>90.59999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ANWAR.ALAGDAL</t>
+          <t>GAMAL.ALI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54</v>
+        <v>257</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GAMAL.ALI</t>
+          <t>HARLEEN.KAUR165211</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C7" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" t="n">
-        <v>79.40000000000001</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MUSKANPREET.KAUR</t>
+          <t>RAJWINDER.KAUR164355</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="C8" t="n">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="D8" t="n">
-        <v>74.8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OUSMANE.KIEMTORE</t>
+          <t>ABDRAMANE.HASSAN.ISSA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="C9" t="n">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>73.09999999999999</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GAGA4290.KALSI</t>
+          <t>SAJEELUR.REHMAN15006</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>68.40000000000001</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RAJWINDER.KAUR164355</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="C11" t="n">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="D11" t="n">
-        <v>67.90000000000001</v>
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YASER.KABOUDANI</t>
+          <t>OUSMANE.KIEMTORE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="C12" t="n">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="D12" t="n">
-        <v>67.7</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SATINDER.PAL.SINGH.RATHOR</t>
+          <t>SIMRAN.SIMRAN14162</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D13" t="n">
-        <v>67.40000000000001</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SHAKSHI.BANSAL</t>
+          <t>YASER.KABOUDANI</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C14" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D14" t="n">
-        <v>67.3</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KATHYANN.SUDAY</t>
+          <t>NAWAF.HAGE.CHEHADE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" t="n">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D15" t="n">
-        <v>66.3</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SAJEELUR.REHMAN15006</t>
+          <t>SONIA.BHARTI</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C16" t="n">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D16" t="n">
-        <v>65.40000000000001</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OLUMIDE.SANUSI</t>
+          <t>ABDUL.KHALIL.ADEL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C17" t="n">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D17" t="n">
-        <v>64.3</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JEAN.ABI.HACHEM</t>
+          <t>WIDLINE.JEUNE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="C18" t="n">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D18" t="n">
-        <v>62.4</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HAMID.ABDOULAYE.MAHAMAT</t>
+          <t>OMAR.BAHAMID</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C19" t="n">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D19" t="n">
-        <v>61</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MOR.FAYE</t>
+          <t>KAYLEY.GRAY-CYR</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C20" t="n">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="D20" t="n">
-        <v>60.4</v>
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ABDUL.KHALIL.ADEL</t>
+          <t>SATINDER.PAL.SINGH.RATHOR</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C21" t="n">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="D21" t="n">
-        <v>56.7</v>
+        <v>66.09999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MELA6559.ROCHETTE</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="C22" t="n">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="D22" t="n">
-        <v>56.3</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>KAYLEY.GRAY-CYR</t>
+          <t>OYETUNJI.HABEEB.OLALEKAN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="C23" t="n">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="D23" t="n">
-        <v>54.7</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MOHAMMED.SALEM</t>
+          <t>ABDRAMANE.YAYA.BECHIR</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C24" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D24" t="n">
-        <v>54.6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MIKAEL.SAMUEL</t>
+          <t>KOMALDEEP.KAUR14903</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D25" t="n">
-        <v>54.2</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OUMOU.DOUKOURE</t>
+          <t>KATHYANN.SUDAY</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="C26" t="n">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D26" t="n">
-        <v>52.6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BASSIM.DIJIDDO</t>
+          <t>JEAN.ABI.HACHEM</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="C27" t="n">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="D27" t="n">
-        <v>52.5</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SHIVA.KUMAR.MIRYALA</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C28" t="n">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="D28" t="n">
-        <v>52.4</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MAY.BELLOSILLO</t>
+          <t>HAMID.ABDOULAYE.MAHAMAT</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="C29" t="n">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="D29" t="n">
-        <v>51.8</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PATRICK.NIYONKURU</t>
+          <t>BASSIM.DIJIDDO</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C30" t="n">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="D30" t="n">
-        <v>51.4</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MD.ANOWAR.HOSSAIN</t>
+          <t>OUMOU.DOUKOURE</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="C31" t="n">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="D31" t="n">
-        <v>51.2</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SUSHMITA.PAUL</t>
+          <t>AMANDEEP.KAUR3</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="C32" t="n">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="D32" t="n">
-        <v>46.7</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OSCARJOHNREY.CANETE</t>
+          <t>ARSHDEEP.KAUR16280</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C33" t="n">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="D33" t="n">
-        <v>46.2</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
+          <t>ERICKA.TCHAMABEU</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="C34" t="n">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="D34" t="n">
-        <v>45.4</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>YOUSSOUF.NAHAR.ISSA</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C35" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D35" t="n">
-        <v>44.8</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHERIF.DIALLO</t>
+          <t>ANDRIX.JULIEN</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C36" t="n">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="D36" t="n">
-        <v>44.4</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FAIZAN.ALI</t>
+          <t>AMRITPAL.SINGH16190</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C37" t="n">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D37" t="n">
-        <v>43.1</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MIRYAMIN.ALI14605</t>
+          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="C38" t="n">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="D38" t="n">
-        <v>42.3</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>KANIKA.KANIKA14970</t>
+          <t>ARSENE.LOULENDO</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C39" t="n">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D39" t="n">
-        <v>40.7</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MOHA9588.BADAHMAN</t>
+          <t>AHMAT.ABAKAR.BOUKAR</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="C40" t="n">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="D40" t="n">
-        <v>39.7</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>JATHUSHAN.KARTHIGESAR</t>
+          <t>MIKAEL.SAMUEL</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C41" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D41" t="n">
-        <v>39.2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ABDRAMANE.YAYA.BECHIR</t>
+          <t>YOUSSOUF.NAHAR.ISSA</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C42" t="n">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D42" t="n">
-        <v>38.7</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ARSENE.LOULENDO</t>
+          <t>MACLY.BEAUBRUN</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C43" t="n">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="D43" t="n">
-        <v>38.5</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CARL.NITCHELL.LUCCE</t>
+          <t>CHERIF.DIALLO</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="C44" t="n">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="D44" t="n">
-        <v>38.4</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SIMRAN.SIMRAN14162</t>
+          <t>CHOROMA.ADOUM.BAYE</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C45" t="n">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="D45" t="n">
-        <v>37.8</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MAMADOU.ADAMS.BARRY</t>
+          <t>LEONARDO.MEJIAMEJIA</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C46" t="n">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D46" t="n">
-        <v>36.5</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MACLY.BEAUBRUN</t>
+          <t>MD.ANOWAR.HOSSAIN</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="C47" t="n">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="D47" t="n">
-        <v>36.2</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AHMAT.ABAKAR.BOUKAR</t>
+          <t>SOULEYMANE.ATIM.ADOUM</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C48" t="n">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D48" t="n">
-        <v>35.5</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ARSHDEEP.KAUR16280</t>
+          <t>CARL.NITCHELL.LUCCE</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C49" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BOUBA.BAKARI.ALI</t>
+          <t>JATHUSHAN.KARTHIGESAR</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C50" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D50" t="n">
-        <v>34.5</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>OUMAR.DIOP</t>
+          <t>ASSANE.DIOP</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="D51" t="n">
-        <v>30</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AMANDEEP.KAUR3</t>
+          <t>OUMAR.DIOP</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C52" t="n">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="D52" t="n">
-        <v>29.5</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LOVELEEN.KAUR14293</t>
+          <t>BOUBA.BAKARI.ALI</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C53" t="n">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="D53" t="n">
-        <v>24.3</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NANDAN.DUTT</t>
+          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MANVENDER.MANVENDER14806</t>
+          <t>AYMEN.AMIN</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -4349,14 +4156,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HARLEEN.KAUR165211</t>
+          <t>YOUSSOUF.CHOUKI</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C56" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -4365,14 +4172,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DINESH.DINESH16161</t>
+          <t>ADEMOLA.SAMUELFAGBORO</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -4381,14 +4188,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CHOROMA.ADOUM.BAYE</t>
+          <t>FAIZAN.ALI</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -4397,14 +4204,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ASSANE.DIOP</t>
+          <t>DEYE.DJAMAL.YOUSSOUF</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C59" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -4413,14 +4220,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AMINE.KARIMOU</t>
+          <t>SUSHMITA.PAUL</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -4429,14 +4236,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ADEMOLA.SAMUELFAGBORO</t>
+          <t>KANIKA.KANIKA14970</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C61" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -4445,29 +4252,189 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ABDRAMANE.HASSAN.ISSA</t>
+          <t>AMINE.MAHAMAT.TAHIR</t>
         </is>
       </c>
       <c r="B62" t="n">
+        <v>8</v>
+      </c>
+      <c r="C62" t="n">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MAHAMAT.SALEH.OUMAR</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>9</v>
+      </c>
+      <c r="C63" t="n">
+        <v>10</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>AYMAN.KHALIL</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SARVJEET.SINGH14910</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MAHAMATABAKAR.MAHAMAT</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>21</v>
+      </c>
+      <c r="C66" t="n">
+        <v>23</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MATHIEU.GIASSON</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>7</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>RACHELLE.LEWIS-HOLDER</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
         <v>24</v>
       </c>
-      <c r="C62" t="n">
-        <v>17</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+      <c r="C68" t="n">
+        <v>21</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CHAMKAUR.SINGH</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>29</v>
+      </c>
+      <c r="C69" t="n">
+        <v>23</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PRAJWAL.SINGH14607</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>14</v>
+      </c>
+      <c r="C70" t="n">
+        <v>11</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MIRYAMIN.ALI14605</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>3</v>
+      </c>
+      <c r="C71" t="n">
+        <v>9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ELYON.ASOMBO</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>18</v>
+      </c>
+      <c r="C72" t="n">
+        <v>24</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B63" s="1" t="inlineStr"/>
-      <c r="C63" s="1" t="inlineStr"/>
-      <c r="D63" s="1" t="n">
-        <v>55.2</v>
+      <c r="B73" s="1" t="inlineStr"/>
+      <c r="C73" s="1" t="inlineStr"/>
+      <c r="D73" s="1" t="n">
+        <v>59.5</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4513,10 +4480,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c r="C2" t="n">
-        <v>31.41630901287554</v>
+        <v>53.53448275862069</v>
       </c>
     </row>
     <row r="3">
@@ -4526,426 +4493,387 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229</v>
+        <v>548</v>
       </c>
       <c r="C3" t="n">
-        <v>58.96995708154506</v>
+        <v>141.7241379310345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ALIISMAIL.ALI</t>
+          <t>AMINE.MAHAMAT.TAHIR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>292</v>
+        <v>155</v>
       </c>
       <c r="C4" t="n">
-        <v>75.1931330472103</v>
+        <v>40.08620689655172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AMANDEEP.KAUR3</t>
+          <t>AYMAN.KHALIL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="C5" t="n">
-        <v>29.6137339055794</v>
+        <v>55.08620689655172</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AMINE.MAHAMAT.TAHIR</t>
+          <t>AYMEN.AMIN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>361</v>
+        <v>201</v>
       </c>
       <c r="C6" t="n">
-        <v>92.96137339055794</v>
+        <v>51.98275862068965</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMRITPAL.SINGH16190</t>
+          <t>CHAMKAUR.SINGH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C7" t="n">
-        <v>49.95708154506438</v>
+        <v>48.36206896551724</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ARSHDEEP.KAUR16280</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C8" t="n">
-        <v>38.36909871244635</v>
+        <v>67.24137931034483</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AYMAN.KHALIL</t>
+          <t>DEYE.DJAMAL.YOUSSOUF</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C9" t="n">
-        <v>33.21888412017167</v>
+        <v>29.22413793103448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AYOUB.DEHBI</t>
+          <t>ELYON.ASOMBO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>74.67811158798283</v>
+        <v>4.655172413793103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHAMKAUR.SINGH</t>
+          <t>FAIZAN.ALI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C11" t="n">
-        <v>60.25751072961373</v>
+        <v>60.25862068965517</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>FREDRICK.ADEBOGUN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>269</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>69.27038626609442</v>
+        <v>4.655172413793103</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DEYE.DJAMAL.YOUSSOUF</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C13" t="n">
-        <v>26.00858369098712</v>
+        <v>14.74137931034483</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DINESH.DINESH16161</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="C14" t="n">
-        <v>18.54077253218884</v>
+        <v>43.70689655172414</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FREDRICK.ADEBOGUN</t>
+          <t>KANIKA.KANIKA14970</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>130</v>
+        <v>303</v>
       </c>
       <c r="C15" t="n">
-        <v>33.47639484978541</v>
+        <v>78.36206896551724</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GAGA4290.KALSI</t>
+          <t>KHINEHAYMAR.THAUNG</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>2.575107296137339</v>
+        <v>0.7758620689655172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>LOVEDEEP.SINGH</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="C17" t="n">
-        <v>23.43347639484979</v>
+        <v>79.91379310344827</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>MAHAMAT.SALEH.OUMAR</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5150214592274678</v>
+        <v>24.31034482758621</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LOVEDEEP.SINGH</t>
+          <t>MAHAMATABAKAR.MAHAMAT</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="C19" t="n">
-        <v>74.16309012875537</v>
+        <v>48.87931034482759</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LOVELEEN.KAUR14293</t>
+          <t>MATHIEU.GIASSON</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>11.07296137339056</v>
+        <v>10.3448275862069</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MAHAMAT.SALEH.OUMAR</t>
+          <t>MIRYAMIN.ALI14605</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>302</v>
+        <v>215</v>
       </c>
       <c r="C21" t="n">
-        <v>77.76824034334764</v>
+        <v>55.60344827586207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MAHAMATABAKAR.MAHAMAT</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>39.65665236051503</v>
+        <v>1.03448275862069</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MAMATA.SORGHO</t>
+          <t>NOUHAILAZIAD.ELAMRI</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="C23" t="n">
-        <v>37.33905579399141</v>
+        <v>26.37931034482759</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MANVENDER.MANVENDER14806</t>
+          <t>PRAJWAL.SINGH14607</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>426</v>
       </c>
       <c r="C24" t="n">
-        <v>1.802575107296137</v>
+        <v>110.1724137931034</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MIRYAMIN.ALI14605</t>
+          <t>RACHELLE.LEWIS-HOLDER</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="C25" t="n">
-        <v>16.99570815450644</v>
+        <v>40.60344827586207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NANDAN.DUTT</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C26" t="n">
-        <v>17.76824034334764</v>
+        <v>4.396551724137931</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PRAJWAL.SINGH14607</t>
+          <t>SAMI.LAMOURI</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>78.28326180257511</v>
+        <v>0.2586206896551724</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PRINCE.FORSON</t>
+          <t>SARVJEET.SINGH14910</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="C28" t="n">
-        <v>9.785407725321889</v>
+        <v>58.96551724137931</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>SONIA.BHARTI</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>3.862660944206008</v>
+        <v>1.293103448275862</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SAMI.LAMOURI</t>
+          <t>SUSHMITA.PAUL</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22</v>
+        <v>367</v>
       </c>
       <c r="C30" t="n">
-        <v>5.665236051502146</v>
+        <v>94.91379310344827</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SIMRAN.SIMRAN14162</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>22.40343347639485</v>
+        <v>4.137931034482759</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SUSHMITA.PAUL</t>
+          <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>12.10300429184549</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>SYLVIA.NWOKENKWO</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>113</v>
-      </c>
-      <c r="C33" t="n">
-        <v>29.09871244635193</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>THIE6554.DIALLO</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>57</v>
-      </c>
-      <c r="C34" t="n">
-        <v>14.67811158798283</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>227</v>
-      </c>
-      <c r="C35" t="n">
-        <v>58.4549356223176</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
   </sheetData>
@@ -4959,7 +4887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4986,7 +4914,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
@@ -4996,7 +4924,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -5006,37 +4934,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ABDULLAH.SALEM.AHMED.BARH</t>
+          <t>ADAM.MOUSSA.MAHAMAT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>127</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ADAM.MOUSSA.MAHAMAT</t>
+          <t>ADEMOLA.SAMUELFAGBORO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ADEMOLA.SAMUELFAGBORO</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8">
@@ -5046,123 +4974,123 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AILYNCASSANDRA.BANGUG</t>
+          <t>AMANDEEP.KAUR3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AKIK.BASHAR</t>
+          <t>AMINE.MAHAMAT.TAHIR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ALI.HEIDARI</t>
+          <t>AMRITPAL.SINGH16190</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>157</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ALIISMAIL.ALI</t>
+          <t>ANDRIX.JULIEN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ALMER.VILLAMIN</t>
+          <t>ARSENE.LOULENDO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AMANDEEP.KAUR3</t>
+          <t>ARSHDEEP.KAUR16280</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>113</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AMINE.KARIMOU</t>
+          <t>ASSANE.DIOP</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AMINE.MAHAMAT.TAHIR</t>
+          <t>AYMAN.KHALIL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AMRITPAL.SINGH16190</t>
+          <t>AYMEN.AMIN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ANAGUI.ALI.MAHAMAT</t>
+          <t>AZAD.KIKI</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>121</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ANWAR.ALAGDAL</t>
+          <t>BASSIM.DIJIDDO</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ARIEL.EVANGELISTAREYES</t>
+          <t>BORIS.GURAU</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -5172,1041 +5100,751 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ARSENE.LOULENDO</t>
+          <t>BOUBA.BAKARI.ALI</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ARSHDEEP.KAUR16280</t>
+          <t>CARL.NITCHELL.LUCCE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ASSANE.DIOP</t>
+          <t>CHAMKAUR.SINGH</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ASSANE.NDIAYE</t>
+          <t>CHERIF.DIALLO</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AYMAN.KHALIL</t>
+          <t>CHOROMA.ADOUM.BAYE</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AYOUB.DEHBI</t>
+          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AZAD.KIKI</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BASSIM.DIJIDDO</t>
+          <t>DEYE.DJAMAL.YOUSSOUF</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BIJENDER.KUMAR16185</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>43</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BLESSING.OLOTU</t>
+          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BLOCHE.BAKELA</t>
+          <t>ELYON.ASOMBO</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>ERICKA.TCHAMABEU</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>143</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BOUBA.BAKARI.ALI</t>
+          <t>FAIZAN.ALI</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CARL.NITCHELL.LUCCE</t>
+          <t>FATEMEH.EBRAHIMI</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>49</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHAMKAUR.SINGH</t>
+          <t>FREDRICK.ADEBOGUN</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEI145N.BOCOUM</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHERIF.DIALLO</t>
+          <t>GAMAL.ALI</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHOROMA.ADOUM.BAYE</t>
+          <t>HAMID.ABDOULAYE.MAHAMAT</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DANTE.DEMITRI.RAVEN.BESUM</t>
+          <t>HARLEEN.KAUR165211</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>32</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>JASKARAN.SINGH16665</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DEYE.DJAMAL.YOUSSOUF</t>
+          <t>JATHUSHAN.KARTHIGESAR</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>JEAN.ABI.HACHEM</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DINESH.DINESH16161</t>
+          <t>JOSE202N.OSEMWOTA</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>169</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ELVIS.NOE.GAHIRWA</t>
+          <t>KANIKA.KANIKA14970</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FAIZAN.ALI</t>
+          <t>KATHYANN.SUDAY</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FATEMEH.EBRAHIMI</t>
+          <t>KAYLEY.GRAY-CYR</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>172</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>FLOYD.MCLEISH</t>
+          <t>KHINEHAYMAR.THAUNG</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>45</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FREDRICK.ADEBOGUN</t>
+          <t>KOMALDEEP.KAUR14903</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GAGA4290.KALSI</t>
+          <t>LEONARDO.MEJIAMEJIA</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>127</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GAMAL.ALI</t>
+          <t>LOVEDEEP.SINGH</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GEOR950N.PEREZ</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>57</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HAMID.ABDOULAYE.MAHAMAT</t>
+          <t>MACLY.BEAUBRUN</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HARLEEN.KAUR165211</t>
+          <t>MAHAMAT.SALEH.OUMAR</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IRENEMAE.CABRERA</t>
+          <t>MAHAMATABAKAR.MAHAMAT</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>149</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>JATHUSHAN.KARTHIGESAR</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>52</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>JEAN.ABI.HACHEM</t>
+          <t>MATHIEU.GIASSON</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>JOEL.NIXON</t>
+          <t>MD.ANOWAR.HOSSAIN</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>KANIKA.KANIKA14970</t>
+          <t>MIKAEL.SAMUEL</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>KATHYANN.SUDAY</t>
+          <t>MIRYAMIN.ALI14605</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>KAYLEY.GRAY-CYR</t>
+          <t>MOHAMMED.SALEM</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>NAWAF.HAGE.CHEHADE</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>149</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>LANDRYGILDAS.MUHIZI</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>159</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>NOUHAILAZIAD.ELAMRI</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>166</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>LOVEDEEP.SINGH</t>
+          <t>OLAWALE.MUBARAK.ABIODUN</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>LOVELEEN.KAUR14293</t>
+          <t>OMAR.BAHAMID</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MACLY.BEAUBRUN</t>
+          <t>OMAR2415.BAHAMID</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MAHAMAT.SALEH.OUMAR</t>
+          <t>OUMAR.DIOP</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MAHAMATABAKAR.MAHAMAT</t>
+          <t>OUMOU.DOUKOURE</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MAMADOU.ADAMS.BARRY</t>
+          <t>OUSMAN.HASSAN.BILAL</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>25</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MAMATA.SORGHO</t>
+          <t>OUSMANE.KIEMTORE</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MANVENDER.MANVENDER14806</t>
+          <t>OYETUNJI.HABEEB.OLALEKAN</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MARIO.OUIMET</t>
+          <t>PATI2298.ATSIANGBE</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>74</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MATTHEW.BARRETT</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MAY.BELLOSILLO</t>
+          <t>PRAJWAL.SINGH14607</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MD.ANOWAR.HOSSAIN</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MELA6559.ROCHETTE</t>
+          <t>RACHELLE.LEWIS-HOLDER</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MIKAEL.SAMUEL</t>
+          <t>RAJWINDER.KAUR164355</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MILA1082.PEREZ</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MIRYAMIN.ALI14605</t>
+          <t>SAJEELUR.REHMAN15006</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>119</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MOHA9588.BADAHMAN</t>
+          <t>SAMI.LAMOURI</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MOHAMMED.SALEM</t>
+          <t>SARVJEET.SINGH14910</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MOR.FAYE</t>
+          <t>SATINDER.PAL.SINGH.RATHOR</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MOUSTAPHA.ADAM.ABDERAHIM</t>
+          <t>SIMRAN.SIMRAN14162</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MUSKANPREET.KAUR</t>
+          <t>SONIA.BHARTI</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NANCY.WOOD</t>
+          <t>SOULEYMANE.ATIM.ADOUM</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NANDAN.DUTT</t>
+          <t>SUSHMITA.PAUL</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>128</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>168</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NICO0711.JANSON</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>OLA.ATTAR</t>
+          <t>WIDLINE.JEUNE</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>146</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>OLUMIDE.SANUSI</t>
+          <t>YASER.KABOUDANI</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>OMAR.BAHAMID</t>
+          <t>YOUSSOUF.CHOUKI</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>OMAR2415.BAHAMID</t>
+          <t>YOUSSOUF.NAHAR.ISSA</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>108</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>OMOWONUOLA.BELLO</t>
+          <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>OSCARJOHNREY.CANETE</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>OUMAR.DIOP</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>OUMOU.DOUKOURE</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>OUSMANE.KIEMTORE</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>PATRICK.NIYONKURU</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>PRAJWAL.SINGH14607</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>PRINCE.FORSON</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>RAJWINDER.KAUR164355</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>RAMI9087.SAIHI</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>SAJEELUR.REHMAN15006</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>SAMI.LAMOURI</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>SATINDER.PAL.SINGH.RATHOR</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>SHAKSHI.BANSAL</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>SHIVA.KUMAR.MIRYALA</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>SHUSHIL.RAI14750</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>SIMRAN.SIMRAN14162</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>SONIA.BHARTI</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>SUKHVEER.SINGH16064</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>SUSHMITA.PAUL</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>SYLVIA.NWOKENKWO</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>THIE6554.DIALLO</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>VICTORY.IHEMEJE</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>VINCENTJAY.TABLADA</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>YASER.KABOUDANI</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>YEVA.NAZARKINA</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>YOUSSOUF.NAHAR.ISSA</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>ZAHIDGUL.MINHAS</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>ZULQERNAIN.SHAIKH</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>28</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -489,16 +489,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="D2" t="n">
-        <v>359</v>
+        <v>523</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3">
@@ -506,16 +506,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>248</v>
+        <v>436</v>
       </c>
       <c r="D3" t="n">
-        <v>461</v>
+        <v>664</v>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4">
@@ -523,16 +523,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>170</v>
+        <v>323</v>
       </c>
       <c r="D4" t="n">
-        <v>399</v>
+        <v>604</v>
       </c>
       <c r="E4" t="n">
-        <v>143</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5">
@@ -540,16 +540,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="D5" t="n">
-        <v>411</v>
+        <v>693</v>
       </c>
       <c r="E5" t="n">
-        <v>506</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>598</v>
+        <v>1078</v>
       </c>
       <c r="D6" t="n">
-        <v>1630</v>
+        <v>2484</v>
       </c>
       <c r="E6" t="n">
-        <v>712</v>
+        <v>2400</v>
       </c>
     </row>
   </sheetData>
@@ -612,10 +612,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C2" t="n">
-        <v>165</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3">
@@ -623,10 +623,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C3" t="n">
-        <v>258</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4">
@@ -634,10 +634,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="C4" t="n">
-        <v>214</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5">
@@ -645,10 +645,10 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C5" t="n">
-        <v>110</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>677</v>
+        <v>722</v>
       </c>
       <c r="C6" t="n">
-        <v>747</v>
+        <v>2259</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -702,77 +702,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1Y</t>
+          <t>1G</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2E</t>
+          <t>2D</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3H</t>
+          <t>3D</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2R</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1G</t>
+          <t>2H</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3R</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1D</t>
+          <t>2E</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,237 +839,413 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>AMANDEEP.KAUR3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D2" t="n">
-        <v>178.85</v>
+        <v>128.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>LOVEDEEP.SINGH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>173.14</v>
+        <v>118.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>PRAJWAL.SINGH14607</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D4" t="n">
-        <v>162.86</v>
+        <v>118.46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="D5" t="n">
-        <v>152.54</v>
+        <v>105.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="D6" t="n">
-        <v>118.78</v>
+        <v>105.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>OLUMIDE.SANUSI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>352</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>104.55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>102.96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DAT0626.LIEN</t>
+          <t>FREDRICK.ADEBOGUN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>84.89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EDIT0625.DELACRUZ</t>
+          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>83.27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EDIT0934.TUPINO</t>
+          <t>ABDRAMANE.YAYA.BECHIR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>81.95999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>MIRYAMIN.ALI14605</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>76.36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>SUSHMITA.PAUL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>66.23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>HAMID.ABDOULAYE.MAHAMAT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>61.09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>CHOROMA.ADOUM.BAYE</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>73</v>
+      </c>
+      <c r="C15" t="n">
+        <v>91</v>
+      </c>
+      <c r="D15" t="n">
+        <v>48.13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AGNE8120.CARUTH</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24.32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>IRENEMAE.CABRERA</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
         <v>6</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LOANA.MBONGO</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>OMAR2415.BAHAMID</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PATI2298.ATSIANGBE</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>27</v>
+      </c>
+      <c r="C20" t="n">
         <v>10</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PATR5027.AMEH</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FATEMEH.EBRAHIMI</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SARVJEET.SINGH14910</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>37</v>
+      </c>
+      <c r="C23" t="n">
+        <v>27</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SONIA.BHARTI</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AZAD.KIKI</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>33</v>
+      </c>
+      <c r="C26" t="n">
+        <v>17</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="n">
-        <v>157.2</v>
+      <c r="B27" s="1" t="inlineStr"/>
+      <c r="C27" s="1" t="inlineStr"/>
+      <c r="D27" s="1" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,190 +1292,190 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MARIA.GALDAMEZ</t>
+          <t>MILA1082.PEREZ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="D2" t="n">
-        <v>100.38</v>
+        <v>61.97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASHL1578.PETIQUAY</t>
+          <t>MURSAL.MADADYAR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D3" t="n">
-        <v>75.92</v>
+        <v>61.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GEOR950N.PEREZ</t>
+          <t>ASSANE.NDIAYE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>62.78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XYZE1559.MACASIL</t>
+          <t>JASMINECAROLE.NAMEKONG</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>48.42</v>
+        <v>29.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PRITTY.MAZUMDER</t>
+          <t>JOSE202N.OSEMWOTA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="D6" t="n">
-        <v>40.68</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MILA1082.PEREZ</t>
+          <t>FLOYD.MCLEISH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>31.11</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RFBASE</t>
+          <t>BLOCHE.BAKELA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C8" t="n">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OMAR2415.BAHAMID</t>
+          <t>MARIO.OUIMET</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C9" t="n">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="D9" t="n">
-        <v>25.61</v>
+        <v>24.26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MATTHEW.BARRETT</t>
+          <t>TOMA9753.LANDUKULUPE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C10" t="n">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="D10" t="n">
-        <v>21.54</v>
+        <v>23.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TOMA9753.LANDUKULUPE</t>
+          <t>NANCY.WOOD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="D11" t="n">
-        <v>17.65</v>
+        <v>20.41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEI145N.BOCOUM</t>
+          <t>XYZE1559.MACASIL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>20.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JOSE202N.OSEMWOTA</t>
+          <t>MELA6559.ROCHETTE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1288,14 +1484,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JOSEPH.MARDINI</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1304,29 +1500,109 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>CHEI145N.BOCOUM</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="n">
+        <v>28</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NICO0711.JANSON</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PATI2298.ATSIANGBE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CHARLES.VELASCO</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>VINCENTJAY.TABLADA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>MARY0067.BOULIANNEBL</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>12</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="n">
-        <v>45.4</v>
+      <c r="B21" s="1" t="inlineStr"/>
+      <c r="C21" s="1" t="inlineStr"/>
+      <c r="D21" s="1" t="n">
+        <v>32.5</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1377,29 +1653,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C2" t="n">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D2" t="n">
-        <v>84.15000000000001</v>
+        <v>94.65000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASHL1578.PETIQUAY</t>
+          <t>MURSAL.MADADYAR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="D3" t="n">
-        <v>69.68000000000001</v>
+        <v>89.23</v>
       </c>
     </row>
     <row r="4">
@@ -1409,201 +1685,281 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="C4" t="n">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="D4" t="n">
-        <v>65.67</v>
+        <v>84.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEI145N.BOCOUM</t>
+          <t>REX.GOTERA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="C5" t="n">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="D5" t="n">
-        <v>59.22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NICO0711.JANSON</t>
+          <t>MELA6559.ROCHETTE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="D6" t="n">
-        <v>50.27</v>
+        <v>72.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JOSE202N.OSEMWOTA</t>
+          <t>NICO0711.JANSON</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C7" t="n">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D7" t="n">
-        <v>36.47</v>
+        <v>68.20999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANJALI.BAKSHI</t>
+          <t>TOMA9753.LANDUKULUPE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>64.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DAVI129N.TEJA</t>
+          <t>CHEI145N.BOCOUM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>62.82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EZRA.RAMIREZ</t>
+          <t>ASSANE.NDIAYE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>62.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JOSEPH.MARDINI</t>
+          <t>JASMINECAROLE.NAMEKONG</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>59.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KARL.DARANTINAO</t>
+          <t>SHUSHIL.RAI14750</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>58.73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OMAR2415.BAHAMID</t>
+          <t>VINCENTJAY.TABLADA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>51.66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PRITTY.MAZUMDER</t>
+          <t>ABDULLAH.SALEM.AHMED.BARH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>49.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TOMA9753.LANDUKULUPE</t>
+          <t>ZULQERNAIN.SHAIKH</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="C15" t="n">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>41.44</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>JOEL.NAPOLEON</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>112</v>
+      </c>
+      <c r="C16" t="n">
+        <v>165</v>
+      </c>
+      <c r="D16" t="n">
+        <v>40.73</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MONCEF.BOUKHOUDMI</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>68</v>
+      </c>
+      <c r="C17" t="n">
+        <v>103</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39.61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FLOYD.MCLEISH</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>23</v>
+      </c>
+      <c r="C18" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" t="n">
+        <v>36.32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NANCY.WOOD</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>JOSE202N.OSEMWOTA</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="n">
-        <v>60.9</v>
+      <c r="B21" s="1" t="inlineStr"/>
+      <c r="C21" s="1" t="inlineStr"/>
+      <c r="D21" s="1" t="n">
+        <v>62.1</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1645,118 +2001,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>4.913793103448276</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>IRENEMAE.CABRERA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7758620689655172</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EDGAR.JIMENEZ</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>MOHAMMED.MAHMOOD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2586206896551724</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>NAWAF.HAGE.CHEHADE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>5.431034482758621</v>
+        <v>1.866666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>PATI2298.ATSIANGBE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.810344827586207</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>22.75862068965517</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>YASER.KABOUDANI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>3.103448275862069</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ZAHIDGUL.MINHAS</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1770,7 +2113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1803,190 +2146,190 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
-        <v>93.2</v>
+        <v>122.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>YASER.KABOUDANI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>81.8</v>
+        <v>114.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>MOHAMMED.SALEM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>74.59999999999999</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>WIDLINE.JEUNE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="D5" t="n">
-        <v>63.7</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SRISHTI.SRISHTI</t>
+          <t>KANIKA.KANIKA14970</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>62.7</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>MURLIMANOHAR.MOTWANIBHATI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" t="n">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D7" t="n">
-        <v>59.5</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>OMAR.BAHAMID</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="D8" t="n">
-        <v>58.5</v>
+        <v>65.90000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FAEZ.MORADZADEH</t>
+          <t>NAWAF.HAGE.CHEHADE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D9" t="n">
-        <v>38.6</v>
+        <v>64.90000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HARDEEP.CHAUHAN</t>
+          <t>HAMID.ABDOULAYE.MAHAMAT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D10" t="n">
-        <v>33.9</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ZEINAB.MALEKMOHAMMADI</t>
+          <t>OUMAR.DIOP</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D11" t="n">
-        <v>33.1</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VICENTE.LIM</t>
+          <t>ARSENE.LOULENDO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>24.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AHMAD.ALMOHAMMED</t>
+          <t>SIMRAN.SIMRAN14162</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1995,14 +2338,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>MOHAMMED.MAHMOOD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2011,14 +2354,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>BOUBA.BAKARI.ALI</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2027,14 +2370,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>MAMADOU.ADAMS.BARRY</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2043,29 +2386,77 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>MACLY.BEAUBRUN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>KOMALDEEP.KAUR14903</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CARL.NITCHELL.LUCCE</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>38</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>YEVA.NAZARKINA</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr"/>
-      <c r="C18" s="1" t="inlineStr"/>
-      <c r="D18" s="1" t="n">
-        <v>56.8</v>
+      <c r="B21" s="1" t="inlineStr"/>
+      <c r="C21" s="1" t="inlineStr"/>
+      <c r="D21" s="1" t="n">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2112,382 +2503,382 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TARANPREET.KAUR</t>
+          <t>KANIKA.KANIKA14970</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D2" t="n">
-        <v>94.8</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>SONIA.BHARTI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="C3" t="n">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>89</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MEHD4790.FOURATI</t>
+          <t>YASER.KABOUDANI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>258</v>
+        <v>85</v>
       </c>
       <c r="C4" t="n">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
-        <v>85.5</v>
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>MOHAMMED.MAHMOOD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="D5" t="n">
-        <v>68.59999999999999</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>WIDLINE.JEUNE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>66.8</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>MOHAMMED.SALEM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>65.5</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>KOMALDEEP.KAUR14903</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C8" t="n">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="D8" t="n">
-        <v>63.6</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>HAMID.ABDOULAYE.MAHAMAT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>56.8</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>YEVA.NAZARKINA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="C10" t="n">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="D10" t="n">
-        <v>56.8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>MURLIMANOHAR.MOTWANIBHATI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C11" t="n">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D11" t="n">
-        <v>56.1</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>OMAR.BAHAMID</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C12" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D12" t="n">
-        <v>54.5</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C13" t="n">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D13" t="n">
-        <v>53.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>NAWAF.HAGE.CHEHADE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C14" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D14" t="n">
-        <v>50.4</v>
+        <v>64.90000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>MUSKANPREET.KAUR</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C15" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D15" t="n">
-        <v>37.3</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>MAMADOU.ADAMS.BARRY</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="C16" t="n">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>SIMRAN.SIMRAN14162</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>ARSENE.LOULENDO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EDIT0934.TUPINO</t>
+          <t>MIKAEL.SAMUEL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>CARL.NITCHELL.LUCCE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EDIT0625.DELACRUZ</t>
+          <t>SAJEELUR.REHMAN15006</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>OUMAR.DIOP</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>BOUBA.BAKARI.ALI</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DAT0626.LIEN</t>
+          <t>MACLY.BEAUBRUN</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,14 +2887,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2518,7 +2909,7 @@
       <c r="B27" s="1" t="inlineStr"/>
       <c r="C27" s="1" t="inlineStr"/>
       <c r="D27" s="1" t="n">
-        <v>62.3</v>
+        <v>66.09999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2560,157 +2951,300 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>ABDRAMANE.YAYA.BECHIR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="C2" t="n">
-        <v>31.03448275862069</v>
+        <v>15.73333333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>16.55172413793104</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>AMANDEEP.KAUR3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="C4" t="n">
-        <v>25.86206896551724</v>
+        <v>40.53333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>CHOROMA.ADOUM.BAYE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="C5" t="n">
-        <v>48.87931034482759</v>
+        <v>14.66666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C7" t="n">
-        <v>47.58620689655172</v>
+        <v>39.73333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>46.03448275862069</v>
+        <v>3.466666666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SRISHTI.SRISHTI</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="C9" t="n">
-        <v>8.017241379310345</v>
+        <v>42.13333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>KHINEHAYMAR.THAUNG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>6.982758620689655</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>LOVEDEEP.SINGH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="C11" t="n">
-        <v>42.67241379310344</v>
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>6.724137931034483</v>
+        <v>5.866666666666666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>MARY0067.BOULIANNEBL</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MIRYAMIN.ALI14605</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>72</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>OMAR2415.BAHAMID</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PATI2298.ATSIANGBE</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PRAJWAL.SINGH14607</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>130</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34.66666666666666</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RAMI9087.SAIHI</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>49</v>
+      </c>
+      <c r="C18" t="n">
+        <v>13.06666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SARVJEET.SINGH14910</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>344</v>
+      </c>
+      <c r="C19" t="n">
+        <v>91.73333333333333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SONIA.BHARTI</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>176</v>
+      </c>
+      <c r="C20" t="n">
+        <v>46.93333333333333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SUSHMITA.PAUL</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>167</v>
+      </c>
+      <c r="C21" t="n">
+        <v>44.53333333333333</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WIDLINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>30</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>YATI0689.YATIN</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>170</v>
-      </c>
-      <c r="C13" t="n">
-        <v>43.96551724137931</v>
+      <c r="B23" t="n">
+        <v>398</v>
+      </c>
+      <c r="C23" t="n">
+        <v>106.1333333333333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.066666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2724,7 +3258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2747,11 +3281,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>ABDRAMANE.YAYA.BECHIR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -2761,67 +3295,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AHMAD.ALMOHAMMED</t>
+          <t>AMANDEEP.KAUR3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>ARSENE.LOULENDO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>AZAD.KIKI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>BOUBA.BAKARI.ALI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DAT0626.LIEN</t>
+          <t>CARL.NITCHELL.LUCCE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>CHOROMA.ADOUM.BAYE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -2831,157 +3365,157 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EDGAR.JIMENEZ</t>
+          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>221</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EDIT0625.DELACRUZ</t>
+          <t>FATEMEH.EBRAHIMI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EDIT0934.TUPINO</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>HAMID.ABDOULAYE.MAHAMAT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>223</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FAEZ.MORADZADEH</t>
+          <t>IRENEMAE.CABRERA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>86</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HARDEEP.CHAUHAN</t>
+          <t>KANIKA.KANIKA14970</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>KHINEHAYMAR.THAUNG</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>KOMALDEEP.KAUR14903</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>LOVEDEEP.SINGH</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>182</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>MACLY.BEAUBRUN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>MAMADOU.ADAMS.BARRY</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MEHD4790.FOURATI</t>
+          <t>MARY0067.BOULIANNEBL</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>45</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26">
@@ -2991,147 +3525,257 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>MIKAEL.SAMUEL</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>MIRYAMIN.ALI14605</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SRISHTI.SRISHTI</t>
+          <t>MOHAMMED.MAHMOOD</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>MOHAMMED.SALEM</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TARANPREET.KAUR</t>
+          <t>MURLIMANOHAR.MOTWANIBHATI</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>117</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>MUSKANPREET.KAUR</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>VICENTE.LIM</t>
+          <t>NAWAF.HAGE.CHEHADE</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>OMAR.BAHAMID</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>OMAR2415.BAHAMID</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>OUMAR.DIOP</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>PATI2298.ATSIANGBE</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ZEINAB.MALEKMOHAMMADI</t>
+          <t>PRAJWAL.SINGH14607</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>192</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SAJEELUR.REHMAN15006</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SARVJEET.SINGH14910</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SIMRAN.SIMRAN14162</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SONIA.BHARTI</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SUSHMITA.PAUL</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>WIDLINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>YASER.KABOUDANI</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>YEVA.NAZARKINA</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ZAHIDGUL.MINHAS</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -28,7 +28,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,8 +36,14 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -48,6 +54,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00ADD8E6"/>
         <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EEF5FF"/>
+        <bgColor rgb="00EEF5FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -63,9 +75,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -489,16 +513,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>523</v>
+        <v>359</v>
       </c>
       <c r="E2" t="n">
-        <v>384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -506,16 +530,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
-        <v>436</v>
+        <v>248</v>
       </c>
       <c r="D3" t="n">
-        <v>664</v>
+        <v>461</v>
       </c>
       <c r="E3" t="n">
-        <v>805</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -523,16 +547,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="C4" t="n">
-        <v>323</v>
+        <v>170</v>
       </c>
       <c r="D4" t="n">
-        <v>604</v>
+        <v>399</v>
       </c>
       <c r="E4" t="n">
-        <v>748</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
@@ -540,16 +564,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="D5" t="n">
-        <v>693</v>
+        <v>411</v>
       </c>
       <c r="E5" t="n">
-        <v>463</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6">
@@ -559,16 +583,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="C6" t="n">
-        <v>1078</v>
+        <v>598</v>
       </c>
       <c r="D6" t="n">
-        <v>2484</v>
+        <v>1630</v>
       </c>
       <c r="E6" t="n">
-        <v>2400</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -612,10 +636,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C2" t="n">
-        <v>660</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
@@ -623,10 +647,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C3" t="n">
-        <v>825</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4">
@@ -634,10 +658,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>316</v>
+        <v>245</v>
       </c>
       <c r="C4" t="n">
-        <v>593</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5">
@@ -645,10 +669,10 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C5" t="n">
-        <v>181</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
@@ -658,10 +682,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722</v>
+        <v>677</v>
       </c>
       <c r="C6" t="n">
-        <v>2259</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -702,97 +726,77 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>130</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1G</t>
+          <t>1Y</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2D</t>
+          <t>2E</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3D</t>
+          <t>3H</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>221</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2R</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2H</t>
+          <t>1G</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3R</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2E</t>
+          <t>1D</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3F</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,413 +843,237 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMANDEEP.KAUR3</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="C2" t="n">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>128.32</v>
+        <v>178.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LOVEDEEP.SINGH</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>118.64</v>
+        <v>173.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PRAJWAL.SINGH14607</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="C4" t="n">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>118.46</v>
+        <v>162.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="C5" t="n">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
-        <v>105.74</v>
+        <v>152.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RAMI9087.SAIHI</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="C6" t="n">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>105.41</v>
+        <v>118.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OLUMIDE.SANUSI</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>104.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>AHME0710.JUBRAN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>102.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FREDRICK.ADEBOGUN</t>
+          <t>DAT0626.LIEN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>84.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
+          <t>EDIT0625.DELACRUZ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>83.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ABDRAMANE.YAYA.BECHIR</t>
+          <t>EDIT0934.TUPINO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>81.95999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MIRYAMIN.ALI14605</t>
+          <t>KHINEHAYMAR.THAUNG</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>76.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SUSHMITA.PAUL</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>66.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HAMID.ABDOULAYE.MAHAMAT</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>61.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHOROMA.ADOUM.BAYE</t>
+          <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>48.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AGNE8120.CARUTH</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>37</v>
-      </c>
-      <c r="D16" t="n">
-        <v>24.32</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>IRENEMAE.CABRERA</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LOANA.MBONGO</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>OMAR2415.BAHAMID</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>PATI2298.ATSIANGBE</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>27</v>
-      </c>
-      <c r="C20" t="n">
-        <v>10</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>PATR5027.AMEH</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>FATEMEH.EBRAHIMI</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>19</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>SARVJEET.SINGH14910</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>37</v>
-      </c>
-      <c r="C23" t="n">
-        <v>27</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SONIA.BHARTI</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>AZAD.KIKI</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>7</v>
-      </c>
-      <c r="C25" t="n">
-        <v>11</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>33</v>
-      </c>
-      <c r="C26" t="n">
-        <v>17</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr"/>
-      <c r="C27" s="1" t="inlineStr"/>
-      <c r="D27" s="1" t="n">
-        <v>87.40000000000001</v>
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr"/>
+      <c r="D16" s="1" t="n">
+        <v>157.2</v>
       </c>
     </row>
   </sheetData>
@@ -1259,7 +1087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1292,190 +1120,190 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MILA1082.PEREZ</t>
+          <t>MARIA.GALDAMEZ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C2" t="n">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>61.97</v>
+        <v>100.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MURSAL.MADADYAR</t>
+          <t>ASHL1578.PETIQUAY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C3" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>61.85</v>
+        <v>75.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ASSANE.NDIAYE</t>
+          <t>GEOR950N.PEREZ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>62.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JASMINECAROLE.NAMEKONG</t>
+          <t>XYZE1559.MACASIL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="D5" t="n">
-        <v>29.67</v>
+        <v>48.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JOSE202N.OSEMWOTA</t>
+          <t>PRITTY.MAZUMDER</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
-        <v>27.3</v>
+        <v>40.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FLOYD.MCLEISH</t>
+          <t>MILA1082.PEREZ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="D7" t="n">
-        <v>25.45</v>
+        <v>31.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLOCHE.BAKELA</t>
+          <t>RFBASE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C8" t="n">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="D8" t="n">
-        <v>24.75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MARIO.OUIMET</t>
+          <t>OMAR2415.BAHAMID</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
-        <v>24.26</v>
+        <v>25.61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TOMA9753.LANDUKULUPE</t>
+          <t>MATTHEW.BARRETT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>23.19</v>
+        <v>21.54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NANCY.WOOD</t>
+          <t>TOMA9753.LANDUKULUPE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="D11" t="n">
-        <v>20.41</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>XYZE1559.MACASIL</t>
+          <t>CHEI145N.BOCOUM</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>20.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MELA6559.ROCHETTE</t>
+          <t>JOSE202N.OSEMWOTA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1484,14 +1312,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>JOSEPH.MARDINI</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1500,109 +1328,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEI145N.BOCOUM</t>
+          <t>MARY0067.BOULIANNEBL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>NICO0711.JANSON</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>PATI2298.ATSIANGBE</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CHARLES.VELASCO</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>VINCENTJAY.TABLADA</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>MARY0067.BOULIANNEBL</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr"/>
-      <c r="C21" s="1" t="inlineStr"/>
-      <c r="D21" s="1" t="n">
-        <v>32.5</v>
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr"/>
+      <c r="D16" s="1" t="n">
+        <v>45.4</v>
       </c>
     </row>
   </sheetData>
@@ -1616,7 +1364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1653,29 +1401,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" t="n">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D2" t="n">
-        <v>94.65000000000001</v>
+        <v>84.15000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MURSAL.MADADYAR</t>
+          <t>ASHL1578.PETIQUAY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="C3" t="n">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>89.23</v>
+        <v>69.68000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1685,281 +1433,201 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="C4" t="n">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="D4" t="n">
-        <v>84.88</v>
+        <v>65.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>REX.GOTERA</t>
+          <t>CHEI145N.BOCOUM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="C5" t="n">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>59.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MELA6559.ROCHETTE</t>
+          <t>NICO0711.JANSON</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>72.17</v>
+        <v>50.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NICO0711.JANSON</t>
+          <t>JOSE202N.OSEMWOTA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C7" t="n">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="D7" t="n">
-        <v>68.20999999999999</v>
+        <v>36.47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TOMA9753.LANDUKULUPE</t>
+          <t>ANJALI.BAKSHI</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>64.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEI145N.BOCOUM</t>
+          <t>DAVI129N.TEJA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>62.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ASSANE.NDIAYE</t>
+          <t>EZRA.RAMIREZ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>62.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JASMINECAROLE.NAMEKONG</t>
+          <t>JOSEPH.MARDINI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>59.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SHUSHIL.RAI14750</t>
+          <t>KARL.DARANTINAO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>58.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VINCENTJAY.TABLADA</t>
+          <t>OMAR2415.BAHAMID</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>51.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ABDULLAH.SALEM.AHMED.BARH</t>
+          <t>PRITTY.MAZUMDER</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>49.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ZULQERNAIN.SHAIKH</t>
+          <t>TOMA9753.LANDUKULUPE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="D15" t="n">
-        <v>41.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>JOEL.NAPOLEON</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>112</v>
-      </c>
-      <c r="C16" t="n">
-        <v>165</v>
-      </c>
-      <c r="D16" t="n">
-        <v>40.73</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MONCEF.BOUKHOUDMI</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>68</v>
-      </c>
-      <c r="C17" t="n">
-        <v>103</v>
-      </c>
-      <c r="D17" t="n">
-        <v>39.61</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>FLOYD.MCLEISH</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>23</v>
-      </c>
-      <c r="C18" t="n">
-        <v>38</v>
-      </c>
-      <c r="D18" t="n">
-        <v>36.32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NANCY.WOOD</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>16</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>JOSE202N.OSEMWOTA</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr"/>
-      <c r="C21" s="1" t="inlineStr"/>
-      <c r="D21" s="1" t="n">
-        <v>62.1</v>
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr"/>
+      <c r="D16" s="1" t="n">
+        <v>60.9</v>
       </c>
     </row>
   </sheetData>
@@ -2001,105 +1669,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GAGA4290.KALSI</t>
+          <t>AGNE8120.CARUTH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>4.913793103448276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IRENEMAE.CABRERA</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.7758620689655172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2586206896551724</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MOHAMMED.MAHMOOD</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5333333333333333</v>
+        <v>5.431034482758621</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NAWAF.HAGE.CHEHADE</t>
+          <t>MAKEDA.OLLIVIERRE</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>1.866666666666667</v>
+        <v>1.810344827586207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PATI2298.ATSIANGBE</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2666666666666667</v>
+        <v>22.75862068965517</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2666666666666667</v>
+        <v>3.103448275862069</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>YASER.KABOUDANI</t>
+          <t>ZAHIDGUL.MINHAS</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
   </sheetData>
@@ -2113,7 +1781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2146,190 +1814,190 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C2" t="n">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>122.3</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>YASER.KABOUDANI</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>114.9</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MOHAMMED.SALEM</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>102</v>
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WIDLINE.JEUNE</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="C5" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>94.2</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KANIKA.KANIKA14970</t>
+          <t>SRISHTI.SRISHTI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>81.3</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MURLIMANOHAR.MOTWANIBHATI</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C7" t="n">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D7" t="n">
-        <v>78.2</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OMAR.BAHAMID</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>65.90000000000001</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NAWAF.HAGE.CHEHADE</t>
+          <t>FAEZ.MORADZADEH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D9" t="n">
-        <v>64.90000000000001</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HAMID.ABDOULAYE.MAHAMAT</t>
+          <t>HARDEEP.CHAUHAN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D10" t="n">
-        <v>55.1</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OUMAR.DIOP</t>
+          <t>ZEINAB.MALEKMOHAMMADI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D11" t="n">
-        <v>41.2</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ARSENE.LOULENDO</t>
+          <t>VICENTE.LIM</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SIMRAN.SIMRAN14162</t>
+          <t>AHMAD.ALMOHAMMED</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -2338,14 +2006,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MOHAMMED.MAHMOOD</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2354,14 +2022,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BOUBA.BAKARI.ALI</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2370,14 +2038,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MAMADOU.ADAMS.BARRY</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2386,77 +2054,29 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MACLY.BEAUBRUN</t>
+          <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>KOMALDEEP.KAUR14903</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>38</v>
-      </c>
-      <c r="C18" t="n">
-        <v>25</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>CARL.NITCHELL.LUCCE</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>38</v>
-      </c>
-      <c r="C19" t="n">
-        <v>25</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>YEVA.NAZARKINA</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>11</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr"/>
-      <c r="C21" s="1" t="inlineStr"/>
-      <c r="D21" s="1" t="n">
-        <v>82</v>
+      <c r="B18" s="1" t="inlineStr"/>
+      <c r="C18" s="1" t="inlineStr"/>
+      <c r="D18" s="1" t="n">
+        <v>56.8</v>
       </c>
     </row>
   </sheetData>
@@ -2503,382 +2123,382 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KANIKA.KANIKA14970</t>
+          <t>TARANPREET.KAUR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>97.8</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SONIA.BHARTI</t>
+          <t>IREN797N.CABRERA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="D3" t="n">
-        <v>92.2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YASER.KABOUDANI</t>
+          <t>MEHD4790.FOURATI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="D4" t="n">
-        <v>86.40000000000001</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MOHAMMED.MAHMOOD</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="C5" t="n">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>86.2</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WIDLINE.JEUNE</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
-        <v>85.90000000000001</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MOHAMMED.SALEM</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D7" t="n">
-        <v>81.40000000000001</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KOMALDEEP.KAUR14903</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C8" t="n">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="D8" t="n">
-        <v>79.40000000000001</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HAMID.ABDOULAYE.MAHAMAT</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D9" t="n">
-        <v>75.5</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>YEVA.NAZARKINA</t>
+          <t>JEEW9554.SITUMUDALIG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="C10" t="n">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MURLIMANOHAR.MOTWANIBHATI</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C11" t="n">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D11" t="n">
-        <v>72.8</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OMAR.BAHAMID</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C12" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D12" t="n">
-        <v>69.2</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GAGA4290.KALSI</t>
+          <t>ZAKI0190.PHILLIPHORS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C13" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D13" t="n">
-        <v>65</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NAWAF.HAGE.CHEHADE</t>
+          <t>WILDINE.JEUNE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C14" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D14" t="n">
-        <v>64.90000000000001</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MUSKANPREET.KAUR</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C15" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D15" t="n">
-        <v>60.6</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MAMADOU.ADAMS.BARRY</t>
+          <t>PATR5027.AMEH</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="C16" t="n">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="D16" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SIMRAN.SIMRAN14162</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ARSENE.LOULENDO</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>175</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>51.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MIKAEL.SAMUEL</t>
+          <t>EDIT0934.TUPINO</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>49.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CARL.NITCHELL.LUCCE</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>46.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SAJEELUR.REHMAN15006</t>
+          <t>EDIT0625.DELACRUZ</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>45.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OUMAR.DIOP</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C22" t="n">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BOUBA.BAKARI.ALI</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MACLY.BEAUBRUN</t>
+          <t>DAT0626.LIEN</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>37.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2887,14 +2507,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2909,7 +2529,7 @@
       <c r="B27" s="1" t="inlineStr"/>
       <c r="C27" s="1" t="inlineStr"/>
       <c r="D27" s="1" t="n">
-        <v>66.09999999999999</v>
+        <v>62.3</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +2543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2951,300 +2571,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABDRAMANE.YAYA.BECHIR</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C2" t="n">
-        <v>15.73333333333333</v>
+        <v>31.03448275862069</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8</v>
+        <v>16.55172413793104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMANDEEP.KAUR3</t>
+          <t>DEVI789.SINGH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>40.53333333333333</v>
+        <v>25.86206896551724</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHOROMA.ADOUM.BAYE</t>
+          <t>DIAN4065.ENTRIALGO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="C5" t="n">
-        <v>14.66666666666667</v>
+        <v>48.87931034482759</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
+          <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="C7" t="n">
-        <v>39.73333333333333</v>
+        <v>47.58620689655172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GAGA4290.KALSI</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="C8" t="n">
-        <v>3.466666666666667</v>
+        <v>46.03448275862069</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>SRISHTI.SRISHTI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>42.13333333333333</v>
+        <v>8.017241379310345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KHINEHAYMAR.THAUNG</t>
+          <t>STAN9294.BAUER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2666666666666667</v>
+        <v>6.982758620689655</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LOVEDEEP.SINGH</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261</v>
+        <v>165</v>
       </c>
       <c r="C11" t="n">
-        <v>69.59999999999999</v>
+        <v>42.67241379310344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>WESL5337.CADETTE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>5.866666666666666</v>
+        <v>6.724137931034483</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MARY0067.BOULIANNEBL</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MIRYAMIN.ALI14605</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>72</v>
-      </c>
-      <c r="C14" t="n">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>OMAR2415.BAHAMID</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PATI2298.ATSIANGBE</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>PRAJWAL.SINGH14607</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>130</v>
-      </c>
-      <c r="C17" t="n">
-        <v>34.66666666666666</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>RAMI9087.SAIHI</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>49</v>
-      </c>
-      <c r="C18" t="n">
-        <v>13.06666666666667</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SARVJEET.SINGH14910</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>344</v>
-      </c>
-      <c r="C19" t="n">
-        <v>91.73333333333333</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SONIA.BHARTI</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>176</v>
-      </c>
-      <c r="C20" t="n">
-        <v>46.93333333333333</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>SUSHMITA.PAUL</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>167</v>
-      </c>
-      <c r="C21" t="n">
-        <v>44.53333333333333</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>WIDLINE.JEUNE</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>30</v>
-      </c>
-      <c r="C22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>398</v>
-      </c>
-      <c r="C23" t="n">
-        <v>106.1333333333333</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ZAHIDGUL.MINHAS</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.066666666666667</v>
+        <v>43.96551724137931</v>
       </c>
     </row>
   </sheetData>
@@ -3258,524 +2735,700 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>UserID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>TotalIdleTime</t>
         </is>
       </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>FirstActionTime</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>LastActionTime</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ABDRAMANE.YAYA.BECHIR</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>21</v>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>ESSE0616.UDEH</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>223</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>10:01:00 PM</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>11:46:00 PM</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AGNE8120.CARUTH</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>139</v>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>AHME0710.JUBRAN</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>219</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>11:39:00 PM</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>11:46:00 PM</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AMANDEEP.KAUR3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>BOHD0676.KUSHLIAK</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>175</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>08:37:00 PM</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>11:26:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>ADOL798N.SEEMANNVAZQ</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>141</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>09:49:00 PM</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>11:42:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>PATR5027.AMEH</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>125</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>08:46:00 PM</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>11:20:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TARANPREET.KAUR</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>117</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>09:57:00 PM</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>10:48:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>LOWRHY-OTIENO.JAOKO</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>107</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>08:38:00 PM</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>11:59:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>BUDD0680.TENNAKOON</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>106</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>08:38:00 PM</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>11:47:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>IREN797N.CABRERA</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>104</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>08:45:00 PM</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>11:43:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>WILDINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>08:38:00 PM</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>11:57:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>NESR2403.ATTALAH</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>08:46:00 PM</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>11:59:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>08:40:00 PM</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>11:19:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>SRISHTI.SRISHTI</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>97</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>08:55:00 PM</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>10:41:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>LOANA.MBONGO</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>08:51:00 PM</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>11:59:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>HARDEEP.CHAUHAN</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>08:57:00 PM</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>10:45:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>DEVI789.SINGH</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>93</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>08:46:00 PM</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>11:59:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>FAEZ.MORADZADEH</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>86</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>09:02:00 PM</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>10:33:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>YATI0689.YATIN</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>08:45:00 PM</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>11:59:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>EDIT0625.DELACRUZ</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>82</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>09:01:00 PM</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>09:34:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>AHMAD.ALMOHAMMED</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>08:53:00 PM</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>09:46:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>KADE3054.ZONGO</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>76</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>08:29:00 PM</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>11:57:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>THIE6554.DIALLO</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>08:28:00 PM</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>11:59:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>GIGNESH.PATEL</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>08:21:00 PM</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>11:55:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>STAN9294.BAUER</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>08:15:00 PM</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>11:58:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>DIAN4065.ENTRIALGO</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>08:37:00 PM</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>11:56:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>WESL5337.CADETTE</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>08:48:00 PM</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>11:51:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>DAT0626.LIEN</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>08:41:00 PM</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>09:33:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>ZEINAB.MALEKMOHAMMADI</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>09:03:00 PM</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>09:56:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>EDIT0934.TUPINO</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>08:40:00 PM</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>09:32:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>JEEW9554.SITUMUDALIG</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>08:38:00 PM</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>11:17:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>VICENTE.LIM</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>08:55:00 PM</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>09:31:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>MEHD4790.FOURATI</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n">
         <v>45</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ARSENE.LOULENDO</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AZAD.KIKI</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>BOUBA.BAKARI.ALI</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CARL.NITCHELL.LUCCE</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CHOROMA.ADOUM.BAYE</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>DIAN4065.ENTRIALGO</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>DJOUMA.KOSSI.MAHAMAT.ALI</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FATEMEH.EBRAHIMI</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>GAGA4290.KALSI</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>HAMID.ABDOULAYE.MAHAMAT</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>IRENEMAE.CABRERA</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>KADE3054.ZONGO</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>KANIKA.KANIKA14970</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>KHINEHAYMAR.THAUNG</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>KOMALDEEP.KAUR14903</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LOANA.MBONGO</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LOVEDEEP.SINGH</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MACLY.BEAUBRUN</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MAKEDA.OLLIVIERRE</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>MAMADOU.ADAMS.BARRY</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MARY0067.BOULIANNEBL</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>08:18:00 PM</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>11:46:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>MICA0432.RIZKALLAMAR</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>MIKAEL.SAMUEL</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>MIRYAMIN.ALI14605</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>MOHAMMED.MAHMOOD</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>MOHAMMED.SALEM</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>MURLIMANOHAR.MOTWANIBHATI</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>MUSKANPREET.KAUR</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>NAWAF.HAGE.CHEHADE</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>OMAR.BAHAMID</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>OMAR2415.BAHAMID</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>OUMAR.DIOP</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>PATI2298.ATSIANGBE</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>PATR5027.AMEH</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>PRAJWAL.SINGH14607</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>RAMI9087.SAIHI</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>SAJEELUR.REHMAN15006</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>SARVJEET.SINGH14910</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>SIMRAN.SIMRAN14162</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>SONIA.BHARTI</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>SUSHMITA.PAUL</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>THIE6554.DIALLO</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>WIDLINE.JEUNE</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>YASER.KABOUDANI</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>YEVA.NAZARKINA</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>ZAHIDGUL.MINHAS</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>167</v>
+      <c r="B34" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>08:16:00 PM</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>11:52:00 PM</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/processed_data.xlsx
+++ b/output/processed_data.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,22 +489,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Regular Pick</t>
+          <t>Single Pick</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Single Pick</t>
+          <t>Replenishment Pick</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Replenishment Pick</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Putwall Pick</t>
+          <t>Multi Pick</t>
         </is>
       </c>
     </row>
@@ -513,16 +508,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="C2" t="n">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="D2" t="n">
-        <v>359</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
@@ -530,16 +522,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>426</v>
       </c>
       <c r="C3" t="n">
-        <v>248</v>
+        <v>398</v>
       </c>
       <c r="D3" t="n">
-        <v>461</v>
-      </c>
-      <c r="E3" t="n">
-        <v>62</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
@@ -547,16 +536,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>92</v>
+        <v>374</v>
       </c>
       <c r="C4" t="n">
-        <v>170</v>
+        <v>341</v>
       </c>
       <c r="D4" t="n">
-        <v>399</v>
-      </c>
-      <c r="E4" t="n">
-        <v>143</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5">
@@ -564,16 +550,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C5" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D5" t="n">
-        <v>411</v>
-      </c>
-      <c r="E5" t="n">
-        <v>506</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -583,16 +566,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153</v>
+        <v>1013</v>
       </c>
       <c r="C6" t="n">
-        <v>598</v>
+        <v>1134</v>
       </c>
       <c r="D6" t="n">
-        <v>1630</v>
-      </c>
-      <c r="E6" t="n">
-        <v>712</v>
+        <v>1173</v>
       </c>
     </row>
   </sheetData>
@@ -636,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>165</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -647,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="C3" t="n">
-        <v>258</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4">
@@ -658,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="C4" t="n">
-        <v>214</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5">
@@ -669,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -682,10 +662,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>677</v>
+        <v>343</v>
       </c>
       <c r="C6" t="n">
-        <v>747</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,77 +706,87 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1Y</t>
+          <t>2H</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2E</t>
+          <t>1Y</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3H</t>
+          <t>2R</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2D</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1G</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>1G</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>3D</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>1D</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>62</v>
+      <c r="B10" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -810,7 +800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -843,110 +833,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>178.85</v>
+        <v>270.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C3" t="n">
         <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>173.14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
-        <v>162.86</v>
+        <v>116.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>NICO0711.JANSON</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>152.54</v>
+        <v>115.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n">
-        <v>118.78</v>
+        <v>100.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>TOMA9753.LANDUKULUPE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>74.56999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -955,125 +945,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DAT0626.LIEN</t>
+          <t>MELA6559.ROCHETTE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>EDIT0625.DELACRUZ</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>EDIT0934.TUPINO</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>KHINEHAYMAR.THAUNG</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MAKEDA.OLLIVIERRE</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>THIE6554.DIALLO</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>50</v>
-      </c>
-      <c r="C14" t="n">
-        <v>21</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ZAHIDGUL.MINHAS</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="n">
-        <v>157.2</v>
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="inlineStr"/>
+      <c r="D10" s="1" t="n">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1120,237 +1014,109 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MARIA.GALDAMEZ</t>
+          <t>PATI2298.ATSIANGBE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>100.38</v>
+        <v>69.29000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASHL1578.PETIQUAY</t>
+          <t>PAULINA.LUBIN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D3" t="n">
-        <v>75.92</v>
+        <v>50.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GEOR950N.PEREZ</t>
+          <t>XYZE1559.MACASIL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D4" t="n">
-        <v>62.78</v>
+        <v>34.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XYZE1559.MACASIL</t>
+          <t>MARIO.OUIMET</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="D5" t="n">
-        <v>48.42</v>
+        <v>23.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PRITTY.MAZUMDER</t>
+          <t>CHARLES.VELASCO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>40.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MILA1082.PEREZ</t>
+          <t>MARIA.GALDAMEZ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>31.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>RFBASE</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>44</v>
-      </c>
-      <c r="C8" t="n">
-        <v>88</v>
-      </c>
-      <c r="D8" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>OMAR2415.BAHAMID</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>35</v>
-      </c>
-      <c r="C9" t="n">
-        <v>82</v>
-      </c>
-      <c r="D9" t="n">
-        <v>25.61</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MATTHEW.BARRETT</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>14</v>
-      </c>
-      <c r="C10" t="n">
-        <v>39</v>
-      </c>
-      <c r="D10" t="n">
-        <v>21.54</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>TOMA9753.LANDUKULUPE</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>35</v>
-      </c>
-      <c r="C11" t="n">
-        <v>119</v>
-      </c>
-      <c r="D11" t="n">
-        <v>17.65</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CHEI145N.BOCOUM</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>JOSE202N.OSEMWOTA</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>JOSEPH.MARDINI</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MARY0067.BOULIANNEBL</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>12</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="n">
-        <v>45.4</v>
+      <c r="B8" s="1" t="inlineStr"/>
+      <c r="C8" s="1" t="inlineStr"/>
+      <c r="D8" s="1" t="n">
+        <v>44.2</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1397,110 +1163,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHARLES.VELASCO</t>
+          <t>PRINCE.FORSON</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" t="n">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>84.15000000000001</v>
+        <v>151.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASHL1578.PETIQUAY</t>
+          <t>DAVI129N.TEJA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>69.68000000000001</v>
+        <v>61.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MARY0067.BOULIANNEBL</t>
+          <t>JAYLICIA.BELLINGY</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C4" t="n">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>65.67</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEI145N.BOCOUM</t>
+          <t>JOSE202N.OSEMWOTA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="C5" t="n">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="D5" t="n">
-        <v>59.22</v>
+        <v>58.55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NICO0711.JANSON</t>
+          <t>CHARLES.VELASCO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>50.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JOSE202N.OSEMWOTA</t>
+          <t>JOSEPH.MARDINI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>36.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANJALI.BAKSHI</t>
+          <t>MARIA.GALDAMEZ</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1509,14 +1275,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DAVI129N.TEJA</t>
+          <t>MONCEF.BOUKHOUDMI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1525,14 +1291,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EZRA.RAMIREZ</t>
+          <t>NICO0711.JANSON</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1541,14 +1307,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JOSEPH.MARDINI</t>
+          <t>PATI2298.ATSIANGBE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1557,77 +1323,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KARL.DARANTINAO</t>
+          <t>XYZE1559.MACASIL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>OMAR2415.BAHAMID</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>22</v>
-      </c>
-      <c r="C13" t="n">
-        <v>19</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PRITTY.MAZUMDER</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>14</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>TOMA9753.LANDUKULUPE</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>20</v>
-      </c>
-      <c r="C15" t="n">
-        <v>29</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="n">
-        <v>60.9</v>
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr"/>
+      <c r="D13" s="1" t="n">
+        <v>83.2</v>
       </c>
     </row>
   </sheetData>
@@ -1641,7 +1359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,14 +1387,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGNE8120.CARUTH</t>
+          <t>ADOL798N.SEEMANNVAZQ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="C2" t="n">
-        <v>4.913793103448276</v>
+        <v>51.73652694610779</v>
       </c>
     </row>
     <row r="3">
@@ -1686,88 +1404,153 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7758620689655172</v>
+        <v>2.51497005988024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>GEEPESH.X</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2586206896551724</v>
+        <v>8.982035928143713</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>5.431034482758621</v>
+        <v>0.718562874251497</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAKEDA.OLLIVIERRE</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
-        <v>1.810344827586207</v>
+        <v>19.40119760479042</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>KARL.DARANTINAO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>22.75862068965517</v>
+        <v>0.718562874251497</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>KAVOOS.HOSSEINPOUR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>3.103448275862069</v>
+        <v>1.796407185628743</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ZAHIDGUL.MINHAS</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.389221556886228</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NICO0711.JANSON</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3592814371257485</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PATR5027.AMEH</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.155688622754491</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RAMI9087.SAIHI</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3592814371257485</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SHELLA.VALERY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.5172413793103449</v>
+      <c r="C13" t="n">
+        <v>0.718562874251497</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ZAKI0190.PHILLIPHORS</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>132</v>
+      </c>
+      <c r="C14" t="n">
+        <v>47.4251497005988</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1814,206 +1597,206 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>REJWAN.ISLAM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>93.2</v>
+        <v>107.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>MARY0067.BOULIANNEBL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>81.8</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>RARG046N.YEBOAH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>74.59999999999999</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>63.7</v>
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SRISHTI.SRISHTI</t>
+          <t>ALMER.VILLAMIN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D6" t="n">
-        <v>62.7</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>EZRA.RAMIREZ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C7" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D7" t="n">
-        <v>59.5</v>
+        <v>65.09999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>PRIY2874.ARUNSIVACHA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>58.5</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FAEZ.MORADZADEH</t>
+          <t>CHARLES.VELASCO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="C9" t="n">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="D9" t="n">
-        <v>38.6</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HARDEEP.CHAUHAN</t>
+          <t>JOSEPH.MARDINI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" t="n">
-        <v>33.9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ZEINAB.MALEKMOHAMMADI</t>
+          <t>WASIM.NAJI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>33.1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VICENTE.LIM</t>
+          <t>NICO0711.JANSON</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D12" t="n">
-        <v>24.7</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AHMAD.ALMOHAMMED</t>
+          <t>PRITTY.MAZUMDER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>VANESSA.CALO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2022,14 +1805,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>SHELLA.VALERY</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2038,14 +1821,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>MELA6559.ROCHETTE</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2054,29 +1837,125 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>MILA1082.PEREZ</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ANASTASIIA.MAKHTOUT</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>51</v>
+      </c>
+      <c r="C18" t="n">
+        <v>29</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LOWRHY-OTIENO.JAOKO</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>22</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>KAYLEESA.LESLIE</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>KARL.DARANTINAO</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>23</v>
+      </c>
+      <c r="C21" t="n">
+        <v>27</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ANJALI.BAKSHI</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>39</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WIDLINE.JEUNE</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr"/>
-      <c r="C18" s="1" t="inlineStr"/>
-      <c r="D18" s="1" t="n">
-        <v>56.8</v>
+      <c r="B24" s="1" t="inlineStr"/>
+      <c r="C24" s="1" t="inlineStr"/>
+      <c r="D24" s="1" t="n">
+        <v>61.3</v>
       </c>
     </row>
   </sheetData>
@@ -2090,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2123,145 +2002,145 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TARANPREET.KAUR</t>
+          <t>ANASTASIIA.MAKHTOUT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>94.8</v>
+        <v>114.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>ANJALI.BAKSHI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="C3" t="n">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>89</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MEHD4790.FOURATI</t>
+          <t>SHELLA.VALERY</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>258</v>
+        <v>105</v>
       </c>
       <c r="C4" t="n">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>85.5</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>MELA6559.ROCHETTE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>68.59999999999999</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>PRIY2874.ARUNSIVACHA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>66.8</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>WIDLINE.JEUNE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="D7" t="n">
-        <v>65.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>GEEPESH.X</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="D8" t="n">
-        <v>63.6</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C9" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D9" t="n">
-        <v>56.8</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C10" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D10" t="n">
-        <v>56.8</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="11">
@@ -2271,106 +2150,106 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="C11" t="n">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D11" t="n">
-        <v>56.1</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C12" t="n">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="D12" t="n">
-        <v>54.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>MILA1082.PEREZ</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C13" t="n">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D13" t="n">
-        <v>53.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>MARY0067.BOULIANNEBL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D14" t="n">
-        <v>50.4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>37.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>KAVOOS.HOSSEINPOUR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2379,14 +2258,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2395,14 +2274,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EDIT0934.TUPINO</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2411,14 +2290,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>VANESSA.CALO</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2427,14 +2306,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EDIT0625.DELACRUZ</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2443,93 +2322,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>ALMER.VILLAMIN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>DEVI789.SINGH</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>8</v>
-      </c>
-      <c r="C23" t="n">
-        <v>14</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>DAT0626.LIEN</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" t="n">
-        <v>6</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>YATI0689.YATIN</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>25</v>
-      </c>
-      <c r="C25" t="n">
-        <v>18</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>13</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Average UPH</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr"/>
-      <c r="C27" s="1" t="inlineStr"/>
-      <c r="D27" s="1" t="n">
-        <v>62.3</v>
+      <c r="B23" s="1" t="inlineStr"/>
+      <c r="C23" s="1" t="inlineStr"/>
+      <c r="D23" s="1" t="n">
+        <v>60.4</v>
       </c>
     </row>
   </sheetData>
@@ -2575,75 +2390,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>31.03448275862069</v>
+        <v>0.3592814371257485</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="C3" t="n">
-        <v>16.55172413793104</v>
+        <v>47.78443113772455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>25.86206896551724</v>
+        <v>0.718562874251497</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C5" t="n">
-        <v>48.87931034482759</v>
+        <v>59.64071856287426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>MARY0067.BOULIANNEBL</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>7.5</v>
+        <v>10.41916167664671</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MICA0432.RIZKALLAMAR</t>
+          <t>MELA6559.ROCHETTE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>47.58620689655172</v>
+        <v>17.60479041916168</v>
       </c>
     </row>
     <row r="8">
@@ -2653,36 +2468,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>178</v>
+        <v>292</v>
       </c>
       <c r="C8" t="n">
-        <v>46.03448275862069</v>
+        <v>104.9101796407186</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SRISHTI.SRISHTI</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C9" t="n">
-        <v>8.017241379310345</v>
+        <v>27.66467065868263</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>SHELLA.VALERY</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>6.982758620689655</v>
+        <v>17.96407185628743</v>
       </c>
     </row>
     <row r="11">
@@ -2692,23 +2507,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="C11" t="n">
-        <v>42.67241379310344</v>
+        <v>17.24550898203593</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>WIDLINE.JEUNE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.724137931034483</v>
+        <v>0.3592814371257485</v>
       </c>
     </row>
     <row r="13">
@@ -2718,10 +2533,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>43.96551724137931</v>
+        <v>6.467065868263473</v>
       </c>
     </row>
   </sheetData>
@@ -2735,7 +2550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2743,7 +2558,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
@@ -2774,67 +2589,67 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>ESSE0616.UDEH</t>
+          <t>BOHD0676.KUSHLIAK</t>
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>10:01:00 PM</t>
+          <t>11:01:00 PM</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>11:46:00 PM</t>
+          <t>11:06:00 PM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>AHME0710.JUBRAN</t>
+          <t>KARL.DARANTINAO</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>11:39:00 PM</t>
+          <t>09:20:00 PM</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>11:46:00 PM</t>
+          <t>11:08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>BOHD0676.KUSHLIAK</t>
+          <t>REJWAN.ISLAM</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08:37:00 PM</t>
+          <t>09:09:00 PM</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>11:26:00 PM</t>
+          <t>11:07:00 PM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>ADOL798N.SEEMANNVAZQ</t>
+          <t>GIGNESH.PATEL</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
@@ -2842,123 +2657,123 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>09:49:00 PM</t>
+          <t>09:06:00 PM</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>11:42:00 PM</t>
+          <t>11:07:00 PM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>PATR5027.AMEH</t>
+          <t>RARG046N.YEBOAH</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>08:46:00 PM</t>
+          <t>09:10:00 PM</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>11:20:00 PM</t>
+          <t>11:09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>TARANPREET.KAUR</t>
+          <t>LOANA.MBONGO</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>09:57:00 PM</t>
+          <t>09:52:00 PM</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>10:48:00 PM</t>
+          <t>10:55:00 PM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>LOWRHY-OTIENO.JAOKO</t>
+          <t>ESSE0616.UDEH</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08:38:00 PM</t>
+          <t>09:11:00 PM</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>11:59:00 PM</t>
+          <t>10:57:00 PM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>BUDD0680.TENNAKOON</t>
+          <t>VANESSA.CALO</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>08:38:00 PM</t>
+          <t>10:06:00 PM</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>11:47:00 PM</t>
+          <t>11:09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>IREN797N.CABRERA</t>
+          <t>ANJALI.BAKSHI</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>08:45:00 PM</t>
+          <t>08:49:00 PM</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>11:43:00 PM</t>
+          <t>11:08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>WILDINE.JEUNE</t>
+          <t>ANASTASIIA.MAKHTOUT</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
@@ -2967,467 +2782,447 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>11:57:00 PM</t>
+          <t>11:09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>NESR2403.ATTALAH</t>
+          <t>TOMA9753.LANDUKULUPE</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>08:46:00 PM</t>
+          <t>09:17:00 PM</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>11:59:00 PM</t>
+          <t>10:40:00 PM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>ZAKI0190.PHILLIPHORS</t>
+          <t>RAMI9087.SAIHI</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>08:40:00 PM</t>
+          <t>08:27:00 PM</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>11:19:00 PM</t>
+          <t>11:09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>SRISHTI.SRISHTI</t>
+          <t>KADE3054.ZONGO</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>08:55:00 PM</t>
+          <t>08:29:00 PM</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>10:41:00 PM</t>
+          <t>11:09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>LOANA.MBONGO</t>
+          <t>GEEPESH.X</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>08:51:00 PM</t>
+          <t>08:33:00 PM</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>11:59:00 PM</t>
+          <t>10:49:00 PM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>HARDEEP.CHAUHAN</t>
+          <t>BUDD0680.TENNAKOON</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>08:57:00 PM</t>
+          <t>08:37:00 PM</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>10:45:00 PM</t>
+          <t>11:09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>DEVI789.SINGH</t>
+          <t>LOWRHY-OTIENO.JAOKO</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>08:46:00 PM</t>
+          <t>08:31:00 PM</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>11:59:00 PM</t>
+          <t>11:08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>FAEZ.MORADZADEH</t>
+          <t>KAYLEESA.LESLIE</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>09:02:00 PM</t>
+          <t>09:01:00 PM</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>10:33:00 PM</t>
+          <t>09:20:00 PM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>YATI0689.YATIN</t>
+          <t>KAVOOS.HOSSEINPOUR</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>08:45:00 PM</t>
+          <t>08:41:00 PM</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>11:59:00 PM</t>
+          <t>09:22:00 PM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>EDIT0625.DELACRUZ</t>
+          <t>ALMER.VILLAMIN</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>09:01:00 PM</t>
+          <t>08:36:00 PM</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>09:34:00 PM</t>
+          <t>11:07:00 PM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>AHMAD.ALMOHAMMED</t>
+          <t>YATI0689.YATIN</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>08:53:00 PM</t>
+          <t>08:41:00 PM</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>09:46:00 PM</t>
+          <t>11:06:00 PM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>KADE3054.ZONGO</t>
+          <t>MILA1082.PEREZ</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>08:29:00 PM</t>
+          <t>08:38:00 PM</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>11:57:00 PM</t>
+          <t>11:09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>THIE6554.DIALLO</t>
+          <t>NESR2403.ATTALAH</t>
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>08:28:00 PM</t>
+          <t>08:23:00 PM</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>11:59:00 PM</t>
+          <t>11:08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>GIGNESH.PATEL</t>
+          <t>SHELLA.VALERY</t>
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>08:21:00 PM</t>
+          <t>08:32:00 PM</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>11:55:00 PM</t>
+          <t>11:09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>STAN9294.BAUER</t>
+          <t>GAGA4290.KALSI</t>
         </is>
       </c>
       <c r="B25" s="4" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>08:15:00 PM</t>
+          <t>08:32:00 PM</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>11:58:00 PM</t>
+          <t>11:06:00 PM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>DIAN4065.ENTRIALGO</t>
+          <t>MARY0067.BOULIANNEBL</t>
         </is>
       </c>
       <c r="B26" s="4" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>08:37:00 PM</t>
+          <t>08:25:00 PM</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>11:56:00 PM</t>
+          <t>10:56:00 PM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>WESL5337.CADETTE</t>
+          <t>MELA6559.ROCHETTE</t>
         </is>
       </c>
       <c r="B27" s="4" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>08:48:00 PM</t>
+          <t>08:32:00 PM</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>11:51:00 PM</t>
+          <t>10:57:00 PM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>DAT0626.LIEN</t>
+          <t>EZRA.RAMIREZ</t>
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>08:41:00 PM</t>
+          <t>08:46:00 PM</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>09:33:00 PM</t>
+          <t>11:08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>ZEINAB.MALEKMOHAMMADI</t>
+          <t>WASIM.NAJI</t>
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>09:03:00 PM</t>
+          <t>08:41:00 PM</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>09:56:00 PM</t>
+          <t>09:22:00 PM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>EDIT0934.TUPINO</t>
+          <t>PRITTY.MAZUMDER</t>
         </is>
       </c>
       <c r="B30" s="4" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>08:40:00 PM</t>
+          <t>08:37:00 PM</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>09:32:00 PM</t>
+          <t>09:22:00 PM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>JEEW9554.SITUMUDALIG</t>
+          <t>WIDLINE.JEUNE</t>
         </is>
       </c>
       <c r="B31" s="4" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>08:38:00 PM</t>
+          <t>08:37:00 PM</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>11:17:00 PM</t>
+          <t>11:09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>VICENTE.LIM</t>
+          <t>PRIY2874.ARUNSIVACHA</t>
         </is>
       </c>
       <c r="B32" s="4" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>08:55:00 PM</t>
+          <t>08:36:00 PM</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>09:31:00 PM</t>
+          <t>11:08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>MEHD4790.FOURATI</t>
+          <t>THIE6554.DIALLO</t>
         </is>
       </c>
       <c r="B33" s="4" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C33" s="5" t="inlineStr">
         <is>
-          <t>08:18:00 PM</t>
+          <t>08:25:00 PM</t>
         </is>
       </c>
       <c r="D33" s="5" t="inlineStr">
         <is>
-          <t>11:46:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>MICA0432.RIZKALLAMAR</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>08:16:00 PM</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
-        <is>
-          <t>11:52:00 PM</t>
+          <t>11:08:00 PM</t>
         </is>
       </c>
     </row>
